--- a/outcome/appendix/Figure Data/Fig.6 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.6 data.xlsx
@@ -17,14 +17,12 @@
     <sheet name="I" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="J" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="K" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="L" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="M" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -868,30 +866,6 @@
   <si>
     <t xml:space="preserve">X2023.04.01</t>
   </si>
-  <si>
-    <t xml:space="preserve">X2023.05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.07.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.08.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.09.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.10.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.11.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.12.01</t>
-  </si>
 </sst>
 </file>
 
@@ -2006,13 +1980,124 @@
       <c r="E1" t="s">
         <v>243</v>
       </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" t="s">
+        <v>261</v>
+      </c>
+      <c r="X1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0.394295222768748</v>
@@ -2022,6 +2107,117 @@
       </c>
       <c r="E2" t="n">
         <v>0.384795408167842</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.213815081133123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.276150234869694</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.123595769593598</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.206481862189983</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.351300884729458</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.9941017498682</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.766243104921771</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.104418198795797</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.245941487745493</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.515836059974848</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.619993021927126</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.481183140063999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.200485126591031</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0140654130129459</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.154469707474785</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.117981525212888</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.531688694464664</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.746889583699018</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.337183686706017</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.0027649220422433</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.186127985852169</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.320244421508717</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.495251079136366</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.439471174375516</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.316108191609107</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.136233726198576</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.0641086241354765</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.245551402312495</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.398473745311648</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.73472769017243</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.51339432628484</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0343037686926882</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.391376442059397</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.441233263594649</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.563186660086091</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.361546806398516</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.214803925416486</v>
       </c>
     </row>
     <row r="3">
@@ -2029,7 +2225,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>-0.273595735558729</v>
@@ -2039,6 +2235,117 @@
       </c>
       <c r="E3" t="n">
         <v>0.502295842344519</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.596847797869452</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.599169867571598</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.59489984808127</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.496159537398168</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.480077971299551</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.586452062394085</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.163384396306041</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0543238885827606</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.234694632207926</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.249967752658149</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.371257946077161</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.419178831391129</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.313275164815467</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.226771740216153</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.230483063615022</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0229338327850031</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.315722019151338</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.256756475555903</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.345149543735766</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.192151143771131</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.215916656328737</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.121177808773353</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.318112494382228</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.281276579980086</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.247742922999391</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.202050598841749</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.143644743157188</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.133873166230065</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.156761493793639</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.179778905823151</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.188407949283241</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.124868868667522</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.473464755697099</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.133971588321657</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.37093330536287</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.33824339021989</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.311109769729599</v>
       </c>
     </row>
     <row r="4">
@@ -2046,16 +2353,127 @@
         <v>88</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0.17302541960705</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.311917838782454</v>
+        <v>-0.311917838782455</v>
       </c>
       <c r="E4" t="n">
         <v>0.549213959609944</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.650592462673758</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.641472794500179</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.620452967639376</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.638703597786397</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.660741819307545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.750533552995111</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.795386283225608</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.530795852233321</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.500529951247872</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.531994023563617</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.693750601456497</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.810286399487625</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.810903357700971</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.686478894429388</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.674813220533271</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.807139073908892</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.872508213254265</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.878747149185496</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.672295136548001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.442300839029426</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.576099748686004</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.669944825138445</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.917860398958132</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.814258497952396</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.738024425931155</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.75756664598682</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.744686641095642</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.04408502696001</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.760760641102638</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.906188863021356</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.740626674127481</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.902864522242455</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.493420053157804</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.653252852850206</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.927039414982952</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.798487817553536</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.90288701334515</v>
       </c>
     </row>
     <row r="5">
@@ -2063,7 +2481,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>-3.64608447699322</v>
@@ -2073,6 +2491,117 @@
       </c>
       <c r="E5" t="n">
         <v>-2.91127989431147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.71518993173838</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.70949566241446</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2.89452149869345</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2.49112278655866</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3.29221159902133</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.9974571331695</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.35859240851232</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.32154714448511</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-3.63300338501352</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-4.0851902491995</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-4.02536371227107</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-3.82059134282386</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-3.54714597930524</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-3.83133450382908</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-3.83430249072691</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-4.24615012998168</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-4.04735586434663</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-3.99956683216485</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-4.25104497089632</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-3.99685526052849</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-4.26247307190715</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-3.92618060766885</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-4.08099100784452</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-3.89909438493411</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-4.03498000152912</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-4.16463161120446</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-3.91409086996257</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-3.82835080262887</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-4.33580102821406</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-4.05586207676972</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-3.61617475239159</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-1.70655470874968</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-2.81195285947707</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-3.52331056167785</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-3.83627562389721</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-3.81474522297282</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-2.6420677388728</v>
       </c>
     </row>
     <row r="6">
@@ -2080,7 +2609,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0.256955701269625</v>
@@ -2090,6 +2619,117 @@
       </c>
       <c r="E6" t="n">
         <v>0.477240133750848</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.431108401222669</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.58608678089471</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.552878664111354</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.540570926606905</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.456780461508031</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.316777430598851</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.258654229242607</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.117481168621623</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.286474844837688</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.320736088207836</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.482563101041816</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.488674186845539</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.388253438690463</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.305506493909578</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.271675503374097</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.399202931854441</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.260709626149168</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.292398914656739</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.21152684682975</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.107587535710857</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.194824639941398</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.21147895160002</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.336819372710435</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.445750843462261</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.336845782550967</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.235380069748876</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.144256004702645</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.255305194289245</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.128960932462121</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.065972538421463</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0827983651575063</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.282906983280372</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.128926766466719</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.579969164426466</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.404018322320074</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.440865134437292</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.429706737195814</v>
       </c>
     </row>
     <row r="7">
@@ -2097,7 +2737,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>-0.222422343294992</v>
@@ -2107,6 +2747,117 @@
       </c>
       <c r="E7" t="n">
         <v>0.196760955122552</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.690328309839991</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.627643250521815</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.590799188194233</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.598466796261717</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.576336248362214</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.58083258829059</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.1856821959402</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.331144617846496</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.335289717594707</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.413697408920648</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.575271163067757</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.512967357130656</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.488153453357559</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.441728012662784</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.339298487523648</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.499902005448428</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.492789988445195</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.558233970616632</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.457073412452158</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.0433292185832518</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.158483784152707</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.378369820143174</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.664440837220242</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.433436918326993</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.619166093374797</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.53236790336519</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.520093512824679</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.775157484616691</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.527572867498839</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.191738035169065</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.340378590590957</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.676761788731635</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.140887297894961</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.652911530691912</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.03181505377613</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.619516442683922</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.952207566685108</v>
       </c>
     </row>
     <row r="8">
@@ -2114,7 +2865,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>-0.323442018623704</v>
@@ -2124,6 +2875,117 @@
       </c>
       <c r="E8" t="n">
         <v>0.263444972591414</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.127416702098899</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.428636064869294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.470708200242904</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.581166530936827</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.525133878594482</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.524642936527307</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.401082327305448</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.11171959285766</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.237796442146375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0536156217607103</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0711104582511815</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.326870334940316</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.15444311852231</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.252464818720322</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.285639629659473</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.491424875247513</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.600571890108078</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.473733223774986</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.378384384857389</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.224824367201023</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.200996615492609</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.0169853620680959</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.218106631629232</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.200997645400874</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.284891226587134</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.298489390745073</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.235935101269937</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.410769162116665</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.322612926106018</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.425610617569624</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.409205982902995</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6234157588222</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.163624356852184</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.0926989241194155</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.16817405057963</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.2664517869837</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.358188274435684</v>
       </c>
     </row>
     <row r="9">
@@ -2131,16 +2993,127 @@
         <v>77</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0.0269154895724731</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0388966348349944</v>
+        <v>0.0388966348349945</v>
       </c>
       <c r="E9" t="n">
         <v>0.12210221626113</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.324522554135651</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.551940199669466</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.539711327021273</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.779326942567123</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.656678596117978</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.644816342858325</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.613351865525969</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.391050643368464</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.433602856432686</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.467679000736595</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.567713598545002</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.615526661050789</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.58607981619469</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.497297440586651</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.428145300839791</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.577061317533006</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.72246285358737</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.63393975000299</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.540289932514019</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.365596555891146</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.340774473307305</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.364443254870426</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.502051363776644</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.536076258212354</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.476375004640011</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.408104951515319</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.331360920796283</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.496751135819382</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.386716098063016</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.522545080781137</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.690531992045088</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.734366922919801</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.499791161944543</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.358853585412378</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.382161498263098</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.489204380107027</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.519731914561624</v>
       </c>
     </row>
     <row r="10">
@@ -2148,7 +3121,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0.397656385457033</v>
@@ -2157,7 +3130,118 @@
         <v>1.16783770992179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.872488001311698</v>
+        <v>0.872488001311699</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.549316754756492</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.605619752464352</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.587180491747489</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.820125983358668</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.679205979025412</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.514332373215147</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.466541297704791</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.272971273509494</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.31615391427121</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.308523155337418</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.336685564363473</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.399829433184067</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.380083033267979</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.350777021398641</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.284499495908102</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.360450724007183</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.421903195814204</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.375603446309902</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.275981863911827</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.18656989843218</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.198580516968495</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.272238843924684</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.361853520284075</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.390289819511178</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.384439682250164</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.355100256720589</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.276756176157302</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.426908398638785</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.349422040070696</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.375123623691342</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.306610519466305</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.395524090609116</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.19949370454691</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.306355991982403</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.301359026384784</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.542735840094932</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.537538149530134</v>
       </c>
     </row>
     <row r="11">
@@ -2165,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0.0474004153325052</v>
@@ -2175,6 +3259,117 @@
       </c>
       <c r="E11" t="n">
         <v>0.484204097332647</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.549918014537219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.628174751934296</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.571255282442393</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.720566162017481</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.618759188922372</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.58149757643222</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.510915852466297</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.283936794410139</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.344653672017242</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.358579122232398</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.436476330010641</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.497558257164976</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.449440634964932</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.408576930505697</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.340237017274899</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.52138904827812</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.564574642095166</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.524205561866179</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.446703748772568</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.298650562778429</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.31366989498781</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.370043480675326</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.496278382736281</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.492321820473327</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.469444912095022</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.448854275132295</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.388818866862226</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.603908150852674</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.493676521910552</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.634721503011647</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.794341646065332</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.830530456082812</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.456068330413585</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.519482219149076</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.513041987035345</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.564118474766876</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.612425532214746</v>
       </c>
     </row>
     <row r="12">
@@ -2182,7 +3377,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>-0.0944664400757803</v>
@@ -2192,6 +3387,117 @@
       </c>
       <c r="E12" t="n">
         <v>0.352379684572392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.495794424366592</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.591841256752253</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.546429646738065</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.721711429562147</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.619584455385713</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.572768042852053</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.59035620890412</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.251449379926987</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.30743343961702</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.285424747669883</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.407067814864629</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.435389243102075</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.41080561917428</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.35329123253962</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.325392117598935</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.515493355100302</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.523284513225349</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.486654308834623</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.4349320327324</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.233206333789332</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.261334613795773</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.238269188815571</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.432102331455654</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.402990901522707</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.380079856606234</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.339522016544723</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.327060140273992</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.517571284847383</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.421548478170528</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.531627284491691</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.596119270711327</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.526259983534755</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.333436954458859</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.388843365598759</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.457236065201026</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.451056442365929</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.49493865568356</v>
       </c>
     </row>
     <row r="13">
@@ -2199,16 +3505,127 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>-0.363453564021861</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0626048530272944</v>
+        <v>-0.0626048530272943</v>
       </c>
       <c r="E13" t="n">
         <v>0.154298837613725</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.234415375472167</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.358959885873948</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.400061374790063</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.55277048640372</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.492438371499408</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.448509384352409</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.282461620944878</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.115976197973513</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.278393818107507</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.248497069631087</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.39915982558522</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.48201137055521</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.407300416674781</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.402384155642844</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.356573411528697</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.494549673942915</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.606900217286252</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.545404594000367</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.49645642183775</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.355541601527441</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.391826031794444</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.413514646674723</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.554621019492111</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.553347762646325</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.471639650181174</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.469289450433367</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.421195285029017</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.612136997195037</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.509921891558715</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.652597359919501</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.887246362716437</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.01258448306044</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.510375509338378</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.329180685894907</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.400220281944419</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.561288076089451</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.622381211812964</v>
       </c>
     </row>
     <row r="14">
@@ -2216,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>-0.0638733462078732</v>
@@ -2226,6 +3643,117 @@
       </c>
       <c r="E14" t="n">
         <v>-1.80674789541678</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.04407692228194</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.15661187446605</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-2.04436018610387</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.671968161248932</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.132387285129874</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.210500089177394</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.834113647981323</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.705735941813321</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.603392978028199</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.577451163947561</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.510583532195458</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.398643473457297</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.521898943737782</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.336481164927143</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.132722433319334</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.191596535998072</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.00445735569665026</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0375833604992922</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.385968013113044</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.288034007369385</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.222311690723685</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.379144795198799</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.557750074450738</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.422222705883276</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0139248959456702</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.298104140363243</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.162281600846169</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.157402665303684</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.197299083691726</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.397307377042066</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.569612002033598</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.0449960068682156</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.00768750304700631</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.924208709584159</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.51612965773269</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.311141324254903</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.650327080789437</v>
       </c>
     </row>
     <row r="15">
@@ -2233,16 +3761,127 @@
         <v>91</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>-0.595724250715543</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0134693976979819</v>
+        <v>0.013469397697982</v>
       </c>
       <c r="E15" t="n">
         <v>0.250981337159724</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.407884770930794</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.553246960779038</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.514491649845672</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.048920649237493</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.345233312222063</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.409464331747806</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.58610703532057</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.704588374292215</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.445707000678739</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0642103144995509</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0351550530115253</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.14170864802782</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.183078662208403</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.330876397951496</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.253602361604066</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.21458823818035</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0772750439417329</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.312851095564299</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.652730434690744</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.736183738691351</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.70292289651355</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.113079743419454</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.210359445008155</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.00707204365612814</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.143100788596515</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.304521980579595</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.137822379085337</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0641818986594306</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.0841051826652769</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0864263861664779</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.708972966365342</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.06711034429653</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.251152272440956</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.247234480778876</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.436750175266416</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.0200122812785634</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.0197948218119707</v>
       </c>
     </row>
     <row r="16">
@@ -2250,7 +3889,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0.040729680521107</v>
@@ -2259,7 +3898,118 @@
         <v>-0.279523378460631</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0307130561203203</v>
+        <v>-0.0307130561203202</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.313023874656651</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.613719167754967</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.575903015961914</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.598156651343242</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.513229468272814</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.439101314312709</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.260642792185262</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.119730110062716</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.207808974637201</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.530680199840578</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.606133239416312</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.620112721994561</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.590700545248127</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.498002682033815</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.342052037907878</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.449688438378349</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.409647338851016</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.368964460938893</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.243886583927971</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0198565848615385</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.0141885764411697</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.025592247795896</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.263608075201163</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.544612519427451</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.415851493735929</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.339975601119069</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.194845890020088</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.333439892531109</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.248952597039562</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.308920060118888</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.221281837162731</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.0366482012157247</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.529408159663736</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.0240642005065217</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.186321826227727</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.530009631442011</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.609928665837003</v>
       </c>
     </row>
     <row r="17">
@@ -2267,7 +4017,7 @@
         <v>92</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>2.46018286364036</v>
@@ -2277,6 +4027,117 @@
       </c>
       <c r="E17" t="n">
         <v>2.06845035259436</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.7144638814932</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.699277008838447</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.776095149174895</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.165738033368664</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.683197106045491</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.155410541317478</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.416209983001185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.90253721784729</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.97979733293757</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.43879604553013</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1.09922058078435</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-1.24956207829954</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.461885674778849</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.22711202770973</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.88425074823318</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.655035840217641</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.64184350278672</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.508678511884274</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.012272832642318</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.01095133715455</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.27649123977824</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.78542914296631</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.722310919703582</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-1.52330077006875</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-1.31757810346789</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.510813854273931</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.83325302798064</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-1.04600284040691</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.657765167965952</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.699114308924987</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-1.05449243900571</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-2.55539516918388</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.3983934279535</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.72369464021127</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.914403010600139</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-1.0334253632237</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-2.04992756977427</v>
       </c>
     </row>
     <row r="18">
@@ -2295,6 +4156,117 @@
       <c r="E18" t="n">
         <v>0.160257098110385</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.260497316837031</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.375273387829539</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.140205749125685</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.612438527304449</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.475637552306115</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.444588177398113</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.70849567939267</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.04945079733952</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.319763314972255</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.463077413122643</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.26983308138257</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.0842412427462214</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.221211640865058</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.0460525489925341</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.0661618726786158</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.0708291746824872</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.384874425784405</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.599956911330988</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.569119655174731</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.47937832756142</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.268632756683573</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-1.0420536338391</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.909757773691523</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.540584373913992</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.288014687171101</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.459895180868891</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.444828850094689</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.302708358623352</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.514694687059976</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0317622159960377</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0355302169250577</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.425159230957077</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.235210135198905</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.431961394466645</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.00897776840167913</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.463850431024837</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.682369339223043</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2312,6 +4284,117 @@
       <c r="E19" t="n">
         <v>-0.299192763121485</v>
       </c>
+      <c r="F19" t="n">
+        <v>-0.452880253351008</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.240536908190289</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.208998199632747</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.41894839408223</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0243906514106024</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.252979024388154</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0146701666701502</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.18494216260072</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.261241885138093</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.337673448589465</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.0734099424848869</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.117124237609046</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.218305420340694</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.35221961520649</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.366408497366894</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.209068360159393</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.0197717707820113</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.291548009378495</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.104485189646527</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-0.103557610460317</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.229078169074199</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.386009079423097</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.193899586765157</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.165504796177927</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.0436123923948003</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-0.189413861234072</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.39559497894946</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.37214749858502</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-0.0363361619311657</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.308657487469205</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0953830595345572</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.286643356322676</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.823703765931088</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.582359197316302</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.239325329977347</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.00130977722310406</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-0.313670790049836</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2321,13 +4404,124 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0000150914437334069</v>
+        <v>-0.0000150914437334311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00860118228104445</v>
+        <v>0.00860118228104452</v>
       </c>
       <c r="E20" t="n">
         <v>-0.25482798929159</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.572992231807775</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.852065853245524</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.40422563243267</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.43363761953443</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-2.38473623744304</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-2.36489367375906</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2.41346519808367</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.77085358008798</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.02045815627797</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.979775659179859</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-1.14314837328524</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-1.19861944924849</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1.43486308553635</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1.12839315035138</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.966344834685768</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.641460065275012</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.74580713594814</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-0.644339656782615</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.495443271264692</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0.215604065575897</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.206206543015824</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.343796596106168</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.459902873446524</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.387579397722958</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.395541480760469</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.338920525283167</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.171915809849822</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.169159723758462</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.138564586608939</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.221923030892691</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.369415889630931</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.383225235735833</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.0502696117393581</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.0342791762532862</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.893672787257418</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.74658439196182</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-0.622002823384132</v>
       </c>
     </row>
     <row r="21">
@@ -2344,7 +4538,118 @@
         <v>0.886509493830151</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.927944302328607</v>
+        <v>-0.927944302328608</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.39347715883931</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.59739229760295</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.0358510652879</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.16709282044945</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.589267732503922</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1.03186602847704</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.979035632718475</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.645496640042273</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-1.39502129894988</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.632085602154711</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.635142369811121</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-1.21287903685958</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-1.96910942121589</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-1.60068272966069</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-1.24322949766728</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.756485108983661</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.905775854749761</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.862644493812859</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.734784652290503</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.799560725870009</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.947899534778042</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-1.04380507186304</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-0.823175521132326</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-1.23809388865784</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-1.1517392723585</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>-1.36664440072486</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-1.15643674435322</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-1.16141655392845</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-0.396312731736393</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>-0.809122364193945</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>-1.10272800325697</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-1.57059325113939</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-1.79085443737289</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.973994553626835</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.751091713570219</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-1.23732475244636</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-1.893922084943</v>
       </c>
     </row>
     <row r="22">
@@ -2352,7 +4657,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>-0.239990426421724</v>
@@ -2362,6 +4667,117 @@
       </c>
       <c r="E22" t="n">
         <v>-1.77858412675081</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.50898401605334</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.46032217398604</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.44858055682998</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.42144755534166</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.59609315436876</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1.06555472579235</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-1.88232978570238</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1.5685020747984</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.859642441614666</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.470225976443873</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.196235516030348</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.255615321432659</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.530498977681808</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.493705977657048</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.456654819185194</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.2080993071018</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.252711427593756</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-0.478635977092729</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.625246553617768</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.644179597093703</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.556373516951461</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.419701578505473</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.428458579444127</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.342416041864905</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.403923150019497</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.533088798211617</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.758684519275845</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.73037550481881</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.418181039620454</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.661652459564608</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-1.39856677296671</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-1.82052400326156</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-1.76411577070465</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-1.52912063022905</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-1.11727583942345</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.899817801026463</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-1.0696560787878</v>
       </c>
     </row>
     <row r="23">
@@ -2369,16 +4785,127 @@
         <v>80</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>-0.033195136092408</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08856057603474</v>
+        <v>0.0885605760347402</v>
       </c>
       <c r="E23" t="n">
         <v>0.495447299301028</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.511481751391355</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.586782232154582</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5026676694094</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.592548432751548</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.514574604175243</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.430507609657204</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.320038195763217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.132666276616878</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.249198977873198</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.245941935752799</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.347807377445314</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.411375759994834</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.341609598131964</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.292757689709201</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.24490522605384</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.41649879059147</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.419125709125283</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.341008101576982</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.251422699837469</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.123365156046874</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.116826110202675</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.150434224555156</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.253308082765648</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.341634735930199</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.331661614940902</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.285151915009204</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.227868706056352</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.424550229701261</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.325322355544406</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.37822290787659</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.386029603585654</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.330907672735434</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.146061054200274</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.32047441302971</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.275015612740149</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.363015744084308</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.410627439657119</v>
       </c>
     </row>
     <row r="24">
@@ -2386,7 +4913,7 @@
         <v>86</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>0.0474060457348494</v>
@@ -2396,6 +4923,117 @@
       </c>
       <c r="E24" t="n">
         <v>0.484808195880632</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.527476653843204</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.634970176038416</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.578674792769577</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.675143029223365</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.623640651737065</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.520453665017629</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.516915420200046</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.270813986921405</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.288963354012764</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.334015011059486</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.437933416156789</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.416289169937061</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.365930772525772</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.337904419189799</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.291975378940529</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.484744810766546</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.536302344091767</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.486822363356782</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.437321741292295</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.25248063078019</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.254913647487055</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.303599529363589</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.42202493780987</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.412439560329237</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.381655387807215</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.35038724571178</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.294462105709146</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.557154738843515</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.452876239183829</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.545404347050249</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.735253517837661</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.747644986304157</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.448004071229401</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.657114864838392</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.594715530337699</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.490898150214397</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.533829959345856</v>
       </c>
     </row>
     <row r="25">
@@ -2403,7 +5041,7 @@
         <v>94</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0.287834732833016</v>
@@ -2413,6 +5051,117 @@
       </c>
       <c r="E25" t="n">
         <v>0.190121635616215</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.609691020487548</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4080077722478</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.630937850342829</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.990903836361308</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.718025893707495</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.958882622329792</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.891648290643581</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.348289281265528</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.19329708757299</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.258035499887272</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.543691532633682</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.246779245473346</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.866807148359688</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.489911990551412</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.401306285870675</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.458445859593968</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.710508437026554</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.976257180648777</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.665941970608036</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.447929434680481</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.460338536807111</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.425118307429636</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.551074621392509</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.28634956576066</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.746129411539454</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.699047585397814</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.50205087674714</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.01900314154789</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.785909784963204</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.990566029197641</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.666833851830822</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.05346523701428</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.407766590603611</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.433970873623867</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.646205350843566</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.783072365921104</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.06869483373936</v>
       </c>
     </row>
   </sheetData>
@@ -2437,97 +5186,124 @@
         <v>96</v>
       </c>
       <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>248</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>249</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>253</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>264</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>265</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>269</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>270</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>271</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>272</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>274</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2">
@@ -2535,100 +5311,127 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
+        <v>0.394295222768748</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.965341440731319</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.384795408167842</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.213815081133123</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>0.276150234869694</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>0.123595769593598</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>-0.206481862189983</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>-0.351300884729458</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>-0.9941017498682</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>-0.766243104921771</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>-0.104418198795797</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.245941487745493</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.515836059974848</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>0.619993021927126</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>0.481183140063999</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>0.200485126591031</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>0.0140654130129459</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>-0.154469707474785</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>-0.117981525212888</v>
       </c>
-      <c r="S2" t="n">
-        <v>-0.531688694464665</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
+        <v>-0.531688694464664</v>
+      </c>
+      <c r="W2" t="n">
         <v>-0.746889583699018</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>-0.337183686706017</v>
       </c>
-      <c r="V2" t="n">
-        <v>-0.00276492204224325</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
+        <v>-0.0027649220422433</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.186127985852169</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>0.320244421508717</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>0.495251079136366</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>0.439471174375516</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>0.316108191609107</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0.136233726198577</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
+        <v>0.136233726198576</v>
+      </c>
+      <c r="AF2" t="n">
         <v>-0.0641086241354765</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>-0.245551402312495</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>-0.398473745311648</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>-0.73472769017243</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>-0.51339432628484</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0343037686926882</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.391376442059397</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.441233263594649</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.563186660086091</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.361546806398516</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.214803925416486</v>
       </c>
     </row>
     <row r="3">
@@ -2639,97 +5442,124 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>-0.273595735558729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.248259575820954</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.502295842344519</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.596847797869452</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>0.599169867571598</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>0.59489984808127</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0.496159537398168</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.480077971299551</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.586452062394085</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.163384396306041</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>0.0543238885827606</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.234694632207926</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>0.249967752658149</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>0.371257946077161</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>0.419178831391129</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>0.313275164815467</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>0.226771740216153</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.230483063615022</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.0229338327850031</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.315722019151338</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>0.256756475555903</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>0.345149543735766</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>0.192151143771131</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0.215916656328737</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>0.121177808773353</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>0.318112494382228</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>0.281276579980086</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>0.247742922999391</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>0.202050598841749</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>0.143644743157188</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>0.133873166230065</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>0.156761493793639</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>0.179778905823151</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>0.188407949283241</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.124868868667522</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.473464755697099</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.133971588321657</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.37093330536287</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.33824339021989</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.311109769729599</v>
       </c>
     </row>
     <row r="4">
@@ -2740,97 +5570,124 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>0.17302541960705</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.311917838782455</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.549213959609944</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.650592462673758</v>
       </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>0.641472794500179</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>0.620452967639376</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.638703597786397</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.660741819307545</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>0.750533552995111</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.795386283225608</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.530795852233321</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.500529951247872</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>0.531994023563617</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>0.693750601456497</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>0.810286399487625</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>0.810903357700971</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.686478894429389</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
+        <v>0.686478894429388</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.674813220533271</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.807139073908893</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.872508213254266</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
+        <v>0.807139073908892</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.872508213254265</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.878747149185496</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>0.672295136548001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>0.442300839029426</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0.576099748686004</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>0.669944825138445</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>0.917860398958132</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>0.814258497952396</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0.738024425931154</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
+        <v>0.738024425931155</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.75756664598682</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
         <v>0.744686641095642</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
         <v>1.04408502696001</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>0.760760641102638</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>0.906188863021356</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0.74062667412748</v>
+      <c r="AJ4" t="n">
+        <v>0.740626674127481</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.902864522242455</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.493420053157804</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.653252852850206</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.927039414982952</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.798487817553536</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.90288701334515</v>
       </c>
     </row>
     <row r="5">
@@ -2841,97 +5698,124 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>-3.64608447699322</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.77595936821523</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.91127989431147</v>
+      </c>
+      <c r="F5" t="n">
         <v>-2.71518993173838</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>-2.70949566241446</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>-2.89452149869345</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>-2.49112278655866</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>-3.29221159902133</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>-2.9974571331695</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>-2.35859240851232</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>-2.32154714448511</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>-3.63300338501352</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>-4.0851902491995</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>-4.02536371227107</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>-3.82059134282386</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>-3.54714597930524</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>-3.83133450382908</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>-3.83430249072691</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>-4.24615012998168</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>-4.04735586434663</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>-3.99956683216485</v>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>-4.25104497089632</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>-3.99685526052849</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>-4.26247307190715</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>-3.92618060766885</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>-4.08099100784452</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>-3.89909438493411</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
         <v>-4.03498000152912</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>-4.16463161120446</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>-3.91409086996257</v>
       </c>
-      <c r="AD5" t="n">
-        <v>-3.82835080262888</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
+        <v>-3.82835080262887</v>
+      </c>
+      <c r="AH5" t="n">
         <v>-4.33580102821406</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>-4.05586207676972</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>-3.61617475239159</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-1.70655470874968</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-2.81195285947707</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-3.52331056167785</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-3.83627562389721</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-3.81474522297282</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-2.6420677388728</v>
       </c>
     </row>
     <row r="6">
@@ -2942,97 +5826,124 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
+        <v>0.256955701269625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.330217561072764</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.477240133750848</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.431108401222669</v>
       </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>0.58608678089471</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>0.552878664111354</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>0.540570926606905</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.456780461508031</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.316777430598851</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>0.258654229242607</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.117481168621623</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>0.286474844837688</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>0.320736088207836</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>0.482563101041816</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>0.488674186845539</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>0.388253438690463</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>0.305506493909578</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>0.271675503374097</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>0.399202931854441</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>0.260709626149168</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>0.292398914656739</v>
       </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
         <v>0.21152684682975</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>0.107587535710857</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>0.194824639941398</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>0.21147895160002</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0.336819372710434</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
+        <v>0.336819372710435</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.445750843462261</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>0.336845782550967</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>0.235380069748876</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>0.144256004702645</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>0.255305194289245</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>0.128960932462121</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>0.065972538421463</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0.0827983651575061</v>
+      <c r="AJ6" t="n">
+        <v>0.0827983651575063</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.282906983280372</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.128926766466719</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.579969164426466</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.404018322320074</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.440865134437292</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.429706737195814</v>
       </c>
     </row>
     <row r="7">
@@ -3043,97 +5954,124 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
+        <v>-0.222422343294992</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.26375573327119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.196760955122552</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.690328309839991</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>0.627643250521815</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>0.590799188194233</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>0.598466796261717</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.576336248362214</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>0.58083258829059</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>1.1856821959402</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.331144617846496</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>0.335289717594707</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>0.413697408920648</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>0.575271163067757</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>0.512967357130656</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>0.488153453357559</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>0.441728012662784</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>0.339298487523648</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>0.499902005448428</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>0.492789988445195</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>0.558233970616632</v>
       </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
         <v>0.457073412452158</v>
       </c>
-      <c r="V7" t="n">
-        <v>-0.0433292185832517</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
+        <v>-0.0433292185832518</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.158483784152707</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>0.378369820143174</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>0.664440837220242</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>0.433436918326993</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>0.619166093374797</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>0.53236790336519</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
         <v>0.520093512824679</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>0.775157484616691</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>0.527572867498839</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>0.191738035169065</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>0.340378590590957</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.676761788731635</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.140887297894961</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.652911530691912</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.03181505377613</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.619516442683922</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.952207566685108</v>
       </c>
     </row>
     <row r="8">
@@ -3144,97 +6082,124 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>-0.323442018623704</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.312215833011528</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.263444972591414</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.127416702098899</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>0.428636064869294</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>0.470708200242904</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>0.581166530936827</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.525133878594482</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>0.524642936527307</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.401082327305448</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.11171959285766</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.237796442146375</v>
       </c>
-      <c r="L8" t="n">
-        <v>-0.0536156217607102</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>-0.0536156217607103</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.0711104582511815</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>0.326870334940316</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>0.15444311852231</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>0.252464818720322</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>0.285639629659473</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>0.491424875247513</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.600571890108079</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>0.600571890108078</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.473733223774986</v>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>0.378384384857389</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>0.224824367201023</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>0.200996615492609</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>-0.0169853620680959</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>-0.218106631629232</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>0.200997645400874</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>0.284891226587134</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>0.298489390745073</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>0.235935101269937</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>0.410769162116665</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>0.322612926106018</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>0.425610617569624</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>0.409205982902995</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6234157588222</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.163624356852184</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.0926989241194155</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.16817405057963</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.2664517869837</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.358188274435684</v>
       </c>
     </row>
     <row r="9">
@@ -3245,97 +6210,124 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32452255413565</v>
+        <v>0.0269154895724731</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0388966348349945</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.12210221626113</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.324522554135651</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.551940199669466</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>0.539711327021273</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.779326942567123</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.656678596117978</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>0.644816342858325</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.613351865525969</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>0.391050643368464</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>0.433602856432686</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.467679000736596</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0.467679000736595</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.567713598545002</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>0.615526661050789</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>0.58607981619469</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.497297440586652</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
+        <v>0.497297440586651</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.428145300839791</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>0.577061317533006</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.722462853587371</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
+        <v>0.72246285358737</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.63393975000299</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>0.540289932514019</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>0.365596555891146</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>0.340774473307305</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>0.364443254870426</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>0.502051363776644</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>0.536076258212354</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>0.476375004640011</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>0.408104951515319</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>0.331360920796283</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
         <v>0.496751135819382</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>0.386716098063016</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>0.522545080781137</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0.690531992045087</v>
+      <c r="AJ9" t="n">
+        <v>0.690531992045088</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.734366922919801</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.499791161944543</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.358853585412378</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.382161498263098</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.489204380107027</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.519731914561624</v>
       </c>
     </row>
     <row r="10">
@@ -3346,97 +6338,124 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.549316754756491</v>
+        <v>0.397656385457033</v>
       </c>
       <c r="D10" t="n">
+        <v>1.16783770992179</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.872488001311699</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.549316754756492</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.605619752464352</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>0.587180491747489</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.820125983358668</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>0.679205979025412</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>0.514332373215147</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.466541297704791</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>0.272971273509494</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>0.31615391427121</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.308523155337419</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
+        <v>0.308523155337418</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.336685564363473</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>0.399829433184067</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>0.380083033267979</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>0.350777021398641</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>0.284499495908102</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>0.360450724007183</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>0.421903195814204</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>0.375603446309902</v>
       </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>0.275981863911827</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
         <v>0.18656989843218</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>0.198580516968495</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>0.272238843924684</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>0.361853520284075</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>0.390289819511178</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>0.384439682250164</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>0.355100256720589</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>0.276756176157302</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>0.426908398638785</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>0.349422040070696</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>0.375123623691342</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>0.306610519466305</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.395524090609116</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.19949370454691</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.306355991982403</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.301359026384784</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.542735840094932</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.537538149530134</v>
       </c>
     </row>
     <row r="11">
@@ -3447,97 +6466,124 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>0.0474004153325052</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.165906736424557</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.484204097332647</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.549918014537219</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>0.628174751934296</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>0.571255282442393</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>0.720566162017481</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>0.618759188922372</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>0.58149757643222</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.510915852466297</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>0.283936794410139</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>0.344653672017242</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>0.358579122232398</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>0.436476330010641</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>0.497558257164976</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>0.449440634964932</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>0.408576930505697</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>0.340237017274899</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>0.52138904827812</v>
       </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
         <v>0.564574642095166</v>
       </c>
-      <c r="T11" t="n">
-        <v>0.524205561866178</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
+        <v>0.524205561866179</v>
+      </c>
+      <c r="X11" t="n">
         <v>0.446703748772568</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>0.298650562778429</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>0.31366989498781</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>0.370043480675326</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>0.496278382736281</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>0.492321820473327</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0.469444912095021</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
+        <v>0.469444912095022</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0.448854275132295</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>0.388818866862226</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>0.603908150852674</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>0.493676521910552</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>0.634721503011647</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>0.794341646065332</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.830530456082812</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.456068330413585</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.519482219149076</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.513041987035345</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.564118474766876</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.612425532214746</v>
       </c>
     </row>
     <row r="12">
@@ -3548,97 +6594,124 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.0944664400757803</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0338336629807885</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.352379684572392</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.495794424366592</v>
       </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>0.591841256752253</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>0.546429646738065</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>0.721711429562147</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>0.619584455385713</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>0.572768042852053</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>0.59035620890412</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>0.251449379926987</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>0.30743343961702</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>0.285424747669883</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>0.407067814864629</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>0.435389243102075</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>0.41080561917428</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>0.35329123253962</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>0.325392117598935</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>0.515493355100302</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>0.523284513225349</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>0.486654308834623</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>0.4349320327324</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>0.233206333789332</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>0.261334613795773</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>0.238269188815571</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>0.432102331455654</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>0.402990901522707</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>0.380079856606234</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>0.339522016544723</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
         <v>0.327060140273992</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
         <v>0.517571284847383</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>0.421548478170528</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>0.531627284491691</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0.596119270711326</v>
+      <c r="AJ12" t="n">
+        <v>0.596119270711327</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.526259983534755</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.333436954458859</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.388843365598759</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.457236065201026</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.451056442365929</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.49493865568356</v>
       </c>
     </row>
     <row r="13">
@@ -3649,97 +6722,124 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.363453564021861</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0626048530272943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.154298837613725</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.234415375472167</v>
       </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>0.358959885873948</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.400061374790064</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>0.400061374790063</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.55277048640372</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>0.492438371499408</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>0.448509384352409</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>0.282461620944878</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>0.115976197973513</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>0.278393818107507</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>0.248497069631087</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>0.39915982558522</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>0.48201137055521</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>0.407300416674781</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>0.402384155642844</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>0.356573411528697</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>0.494549673942915</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
         <v>0.606900217286252</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>0.545404594000367</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>0.49645642183775</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Y13" t="n">
         <v>0.355541601527441</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>0.391826031794444</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>0.413514646674723</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>0.554621019492111</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>0.553347762646325</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AD13" t="n">
         <v>0.471639650181174</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>0.469289450433367</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>0.421195285029017</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="n">
         <v>0.612136997195037</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>0.509921891558715</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>0.652597359919501</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>0.887246362716437</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.01258448306044</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.510375509338378</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.329180685894907</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.400220281944419</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.561288076089451</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.622381211812964</v>
       </c>
     </row>
     <row r="14">
@@ -3750,97 +6850,124 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>-0.0638733462078732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.09149896621812</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.80674789541678</v>
+      </c>
+      <c r="F14" t="n">
         <v>-2.04407692228194</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>-2.15661187446605</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>-2.04436018610387</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>-0.671968161248932</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>-0.132387285129874</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>0.210500089177394</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.834113647981323</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>0.705735941813321</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>0.603392978028199</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>0.577451163947561</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>0.510583532195458</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>0.398643473457297</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>0.521898943737782</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>0.336481164927143</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>0.132722433319334</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>0.191596535998072</v>
       </c>
-      <c r="S14" t="n">
-        <v>-0.00445735569665029</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
+        <v>-0.00445735569665026</v>
+      </c>
+      <c r="W14" t="n">
         <v>0.0375833604992922</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>0.385968013113044</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>0.288034007369385</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>0.222311690723685</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>0.379144795198799</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>0.557750074450738</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>0.422222705883276</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>0.0139248959456702</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>-0.298104140363243</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>-0.162281600846169</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>-0.157402665303684</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>-0.197299083691726</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>-0.397307377042066</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>-0.569612002033598</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.0449960068682156</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.00768750304700631</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.924208709584159</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.51612965773269</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.311141324254903</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.650327080789437</v>
       </c>
     </row>
     <row r="15">
@@ -3851,97 +6978,124 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
+        <v>-0.595724250715543</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.013469397697982</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.250981337159724</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.407884770930794</v>
       </c>
-      <c r="D15" t="n">
+      <c r="G15" t="n">
         <v>0.553246960779038</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>0.514491649845672</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>-0.048920649237493</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>0.345233312222063</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.409464331747805</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
+        <v>0.409464331747806</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.58610703532057</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>0.704588374292215</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>0.445707000678739</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>-0.0642103144995509</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.0351550530115254</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
+        <v>0.0351550530115253</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.14170864802782</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>0.183078662208403</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>0.330876397951496</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>0.253602361604066</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>0.21458823818035</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>0.0772750439417329</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>0.312851095564299</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>0.652730434690744</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
         <v>0.736183738691351</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>0.70292289651355</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>0.113079743419454</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>-0.210359445008155</v>
       </c>
-      <c r="Z15" t="n">
-        <v>-0.00707204365612821</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
+        <v>-0.00707204365612814</v>
+      </c>
+      <c r="AD15" t="n">
         <v>0.143100788596515</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>0.304521980579595</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>0.137822379085337</v>
       </c>
-      <c r="AD15" t="n">
-        <v>0.0641818986594307</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
+        <v>0.0641818986594306</v>
+      </c>
+      <c r="AH15" t="n">
         <v>-0.0841051826652769</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0.0864263861664778</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
+        <v>0.0864263861664779</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>0.708972966365342</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.06711034429653</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.251152272440956</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.247234480778876</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.436750175266416</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.0200122812785634</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.0197948218119707</v>
       </c>
     </row>
     <row r="16">
@@ -3952,97 +7106,124 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>0.040729680521107</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.279523378460631</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0307130561203202</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.313023874656651</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
         <v>0.613719167754967</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>0.575903015961914</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>0.598156651343242</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>0.513229468272814</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>0.439101314312709</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>0.260642792185262</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>0.119730110062716</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>0.207808974637201</v>
       </c>
-      <c r="L16" t="n">
+      <c r="O16" t="n">
         <v>0.530680199840578</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>0.606133239416312</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>0.620112721994561</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>0.590700545248127</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>0.498002682033815</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>0.342052037907878</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>0.449688438378349</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
         <v>0.409647338851016</v>
       </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>0.368964460938893</v>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>0.243886583927971</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.0198565848615386</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
+        <v>0.0198565848615385</v>
+      </c>
+      <c r="Z16" t="n">
         <v>-0.0141885764411697</v>
       </c>
-      <c r="X16" t="n">
-        <v>-0.0255922477958959</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
+        <v>-0.025592247795896</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.263608075201163</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>0.544612519427451</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>0.415851493735929</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>0.339975601119069</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>0.194845890020088</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>0.333439892531109</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>0.248952597039562</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>0.308920060118888</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>0.221281837162731</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.0366482012157247</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.529408159663736</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.0240642005065217</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.186321826227727</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.530009631442011</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.609928665837003</v>
       </c>
     </row>
     <row r="17">
@@ -4050,100 +7231,127 @@
         <v>92</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
+        <v>2.46018286364036</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.93364064198471</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.06845035259436</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.7144638814932</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>0.699277008838447</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>0.776095149174895</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>0.165738033368664</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>-0.683197106045491</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.155410541317477</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
+        <v>0.155410541317478</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.416209983001185</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>2.90253721784729</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>1.97979733293757</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>1.43879604553013</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>-1.09922058078435</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>-1.24956207829954</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>0.461885674778849</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>1.22711202770973</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>1.88425074823318</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>-0.655035840217641</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>-0.64184350278672</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>-0.508678511884274</v>
       </c>
-      <c r="U17" t="n">
-        <v>0.0122728326423179</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
+        <v>0.012272832642318</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2.01095133715455</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>1.27649123977824</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>1.78542914296631</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>-0.722310919703582</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>-1.52330077006875</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
         <v>-1.31757810346789</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
         <v>0.510813854273931</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
         <v>1.83325302798064</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AG17" t="n">
         <v>-1.04600284040691</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>-0.657765167965952</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>-0.699114308924987</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>-1.05449243900571</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-2.55539516918388</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.3983934279535</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.72369464021127</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.914403010600139</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-1.0334253632237</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-2.04992756977427</v>
       </c>
     </row>
     <row r="18">
@@ -4154,97 +7362,124 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
+        <v>0.546368718993032</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0733196825223088</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.160257098110385</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.260497316837031</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>-0.375273387829539</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>-0.140205749125685</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>-0.612438527304449</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>-0.475637552306115</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>-0.444588177398113</v>
       </c>
-      <c r="I18" t="n">
-        <v>-0.708495679392671</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
+        <v>-0.70849567939267</v>
+      </c>
+      <c r="M18" t="n">
         <v>-1.04945079733952</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>-0.319763314972255</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>-0.463077413122643</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>-0.26983308138257</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>-0.0842412427462214</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>-0.221211640865058</v>
       </c>
-      <c r="P18" t="n">
-        <v>-0.046052548992534</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
+        <v>-0.0460525489925341</v>
+      </c>
+      <c r="T18" t="n">
         <v>-0.0661618726786158</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>-0.0708291746824872</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>-0.384874425784405</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>-0.599956911330988</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>-0.569119655174731</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Y18" t="n">
         <v>-0.47937832756142</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>-0.268632756683573</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>-1.0420536338391</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>-0.909757773691523</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>-0.540584373913992</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>-0.288014687171101</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
         <v>-0.459895180868891</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AF18" t="n">
         <v>-0.444828850094689</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AG18" t="n">
         <v>-0.302708358623352</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
         <v>0.514694687059976</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0.0317622159960376</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0.0355302169250575</v>
+      <c r="AI18" t="n">
+        <v>0.0317622159960377</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0355302169250577</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.425159230957077</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.235210135198905</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.431961394466645</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.00897776840167913</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.463850431024837</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.682369339223043</v>
       </c>
     </row>
     <row r="19">
@@ -4255,97 +7490,124 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
+        <v>-0.240376337851238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.35244223692045</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.299192763121485</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.452880253351008</v>
       </c>
-      <c r="D19" t="n">
+      <c r="G19" t="n">
         <v>-0.240536908190289</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>-0.208998199632747</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>-0.41894839408223</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>0.0243906514106024</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>0.252979024388154</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>0.0146701666701502</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>-0.18494216260072</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>-0.261241885138093</v>
       </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>-0.337673448589465</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>-0.0734099424848869</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
         <v>0.117124237609046</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>-0.218305420340694</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
         <v>-0.35221961520649</v>
       </c>
-      <c r="Q19" t="n">
-        <v>-0.366408497366895</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
+        <v>-0.366408497366894</v>
+      </c>
+      <c r="U19" t="n">
         <v>-0.209068360159393</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
         <v>-0.0197717707820113</v>
       </c>
-      <c r="T19" t="n">
+      <c r="W19" t="n">
         <v>0.291548009378495</v>
       </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
         <v>0.104485189646527</v>
       </c>
-      <c r="V19" t="n">
-        <v>-0.103557610460316</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
+        <v>-0.103557610460317</v>
+      </c>
+      <c r="Z19" t="n">
         <v>-0.229078169074199</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>-0.386009079423097</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>-0.193899586765157</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>0.165504796177927</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0.0436123923948002</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AD19" t="n">
+        <v>0.0436123923948003</v>
+      </c>
+      <c r="AE19" t="n">
         <v>-0.189413861234072</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AF19" t="n">
         <v>-0.39559497894946</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AG19" t="n">
         <v>-0.37214749858502</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>-0.0363361619311657</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>0.308657487469205</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>0.0953830595345572</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.286643356322676</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.823703765931088</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.582359197316302</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.239325329977347</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.00130977722310406</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-0.313670790049836</v>
       </c>
     </row>
     <row r="20">
@@ -4356,97 +7618,124 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.0000150914437334311</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00860118228104452</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.25482798929159</v>
+      </c>
+      <c r="F20" t="n">
         <v>-0.572992231807775</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>-0.852065853245524</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>-1.40422563243267</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>-2.43363761953443</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>-2.38473623744304</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>-2.36489367375906</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>-2.41346519808367</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>-1.77085358008798</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>-1.02045815627797</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>-0.979775659179859</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>-1.14314837328524</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
         <v>-1.19861944924849</v>
       </c>
-      <c r="O20" t="n">
+      <c r="R20" t="n">
         <v>-1.43486308553635</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
         <v>-1.12839315035138</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>-0.966344834685768</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>-0.641460065275012</v>
       </c>
-      <c r="S20" t="n">
-        <v>-0.745807135948141</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
+        <v>-0.74580713594814</v>
+      </c>
+      <c r="W20" t="n">
         <v>-0.644339656782615</v>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>-0.495443271264692</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>-0.215604065575897</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>0.206206543015824</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>0.343796596106168</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>0.459902873446524</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>0.387579397722958</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
         <v>0.395541480760469</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
         <v>0.338920525283167</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
         <v>0.171915809849822</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AG20" t="n">
         <v>0.169159723758462</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
         <v>0.138564586608939</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>0.221923030892691</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>0.369415889630931</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.383225235735833</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.0502696117393581</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.0342791762532862</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.893672787257418</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.74658439196182</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-0.622002823384132</v>
       </c>
     </row>
     <row r="21">
@@ -4457,97 +7746,124 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>1.417868491571</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.886509493830151</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.927944302328608</v>
+      </c>
+      <c r="F21" t="n">
         <v>-1.39347715883931</v>
       </c>
-      <c r="D21" t="n">
+      <c r="G21" t="n">
         <v>-1.59739229760295</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>-1.0358510652879</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>-1.16709282044945</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>-0.589267732503922</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>-1.03186602847704</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>-0.979035632718475</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>-0.645496640042273</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>-1.39502129894988</v>
       </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
         <v>-0.632085602154711</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>-0.635142369811121</v>
       </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
         <v>-1.21287903685958</v>
       </c>
-      <c r="O21" t="n">
+      <c r="R21" t="n">
         <v>-1.96910942121589</v>
       </c>
-      <c r="P21" t="n">
-        <v>-1.6006827296607</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
+        <v>-1.60068272966069</v>
+      </c>
+      <c r="T21" t="n">
         <v>-1.24322949766728</v>
       </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
         <v>-0.756485108983661</v>
       </c>
-      <c r="S21" t="n">
+      <c r="V21" t="n">
         <v>-0.905775854749761</v>
       </c>
-      <c r="T21" t="n">
-        <v>-0.86264449381286</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>-0.862644493812859</v>
+      </c>
+      <c r="X21" t="n">
         <v>-0.734784652290503</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
         <v>-0.799560725870009</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>-0.947899534778042</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>-1.04380507186304</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>-0.823175521132326</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>-1.23809388865784</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>-1.1517392723585</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>-1.36664440072486</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
         <v>-1.15643674435322</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="n">
         <v>-1.16141655392845</v>
       </c>
-      <c r="AE21" t="n">
-        <v>-0.396312731736394</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AH21" t="n">
+        <v>-0.396312731736393</v>
+      </c>
+      <c r="AI21" t="n">
         <v>-0.809122364193945</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>-1.10272800325697</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-1.57059325113939</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-1.79085443737289</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.973994553626835</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.751091713570219</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-1.23732475244636</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-1.893922084943</v>
       </c>
     </row>
     <row r="22">
@@ -4558,97 +7874,124 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
+        <v>-0.239990426421724</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.27978624401788</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.77858412675081</v>
+      </c>
+      <c r="F22" t="n">
         <v>-1.50898401605334</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>-1.46032217398604</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>-1.44858055682998</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>-1.42144755534166</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>-0.59609315436876</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>-1.06555472579235</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>-1.88232978570238</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>-1.5685020747984</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>-0.859642441614666</v>
       </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
         <v>-0.470225976443873</v>
       </c>
-      <c r="M22" t="n">
+      <c r="P22" t="n">
         <v>-0.196235516030348</v>
       </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
         <v>-0.255615321432659</v>
       </c>
-      <c r="O22" t="n">
+      <c r="R22" t="n">
         <v>-0.530498977681808</v>
       </c>
-      <c r="P22" t="n">
+      <c r="S22" t="n">
         <v>-0.493705977657048</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
         <v>-0.456654819185194</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="n">
         <v>-0.2080993071018</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>-0.252711427593756</v>
       </c>
-      <c r="T22" t="n">
+      <c r="W22" t="n">
         <v>-0.478635977092729</v>
       </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>-0.625246553617768</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
         <v>-0.644179597093703</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>-0.556373516951461</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>-0.419701578505473</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>-0.428458579444127</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>-0.342416041864905</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
         <v>-0.403923150019497</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
         <v>-0.533088798211617</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AF22" t="n">
         <v>-0.758684519275845</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
         <v>-0.73037550481881</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
         <v>-0.418181039620454</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
         <v>-0.661652459564608</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>-1.39856677296671</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-1.82052400326156</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-1.76411577070465</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-1.52912063022905</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-1.11727583942345</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.899817801026463</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-1.0696560787878</v>
       </c>
     </row>
     <row r="23">
@@ -4659,97 +8002,124 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
+        <v>-0.033195136092408</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0885605760347402</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.495447299301028</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.511481751391355</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>0.586782232154582</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>0.5026676694094</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>0.592548432751548</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>0.514574604175243</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>0.430507609657204</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.320038195763217</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.132666276616878</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>0.249198977873198</v>
       </c>
-      <c r="L23" t="n">
-        <v>0.2459419357528</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
+        <v>0.245941935752799</v>
+      </c>
+      <c r="P23" t="n">
         <v>0.347807377445314</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
         <v>0.411375759994834</v>
       </c>
-      <c r="O23" t="n">
+      <c r="R23" t="n">
         <v>0.341609598131964</v>
       </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
         <v>0.292757689709201</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
         <v>0.24490522605384</v>
       </c>
-      <c r="R23" t="n">
+      <c r="U23" t="n">
         <v>0.41649879059147</v>
       </c>
-      <c r="S23" t="n">
+      <c r="V23" t="n">
         <v>0.419125709125283</v>
       </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
         <v>0.341008101576982</v>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>0.251422699837469</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>0.123365156046874</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>0.116826110202675</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>0.150434224555156</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>0.253308082765648</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>0.341634735930199</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0.331661614940901</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
+        <v>0.331661614940902</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0.285151915009204</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AF23" t="n">
         <v>0.227868706056352</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AG23" t="n">
         <v>0.424550229701261</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
         <v>0.325322355544406</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>0.37822290787659</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
         <v>0.386029603585654</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.330907672735434</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.146061054200274</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.32047441302971</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.275015612740149</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.363015744084308</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.410627439657119</v>
       </c>
     </row>
     <row r="24">
@@ -4760,97 +8130,124 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
+        <v>0.0474060457348494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.384466622123014</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.484808195880632</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.527476653843204</v>
       </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>0.634970176038416</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>0.578674792769577</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>0.675143029223365</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>0.623640651737065</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>0.520453665017629</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>0.516915420200046</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>0.270813986921405</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>0.288963354012764</v>
       </c>
-      <c r="L24" t="n">
+      <c r="O24" t="n">
         <v>0.334015011059486</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>0.437933416156789</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.41628916993706</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
+        <v>0.416289169937061</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.365930772525772</v>
       </c>
-      <c r="P24" t="n">
+      <c r="S24" t="n">
         <v>0.337904419189799</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
         <v>0.291975378940529</v>
       </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>0.484744810766546</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>0.536302344091767</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>0.486822363356782</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>0.437321741292295</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>0.25248063078019</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>0.254913647487055</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>0.303599529363589</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0.422024937809869</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
+        <v>0.42202493780987</v>
+      </c>
+      <c r="AC24" t="n">
         <v>0.412439560329237</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0.381655387807214</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AD24" t="n">
+        <v>0.381655387807215</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.35038724571178</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AF24" t="n">
         <v>0.294462105709146</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
         <v>0.557154738843515</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
         <v>0.452876239183829</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AI24" t="n">
         <v>0.545404347050249</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>0.735253517837661</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.747644986304157</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.448004071229401</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.657114864838392</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.594715530337699</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.490898150214397</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.533829959345856</v>
       </c>
     </row>
     <row r="25">
@@ -4861,1575 +8258,124 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
+        <v>0.287834732833016</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0615273937997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.190121635616215</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.609691020487548</v>
       </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>0.4080077722478</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>0.630937850342829</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>0.990903836361308</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>0.718025893707495</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>0.958882622329792</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>0.891648290643581</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>0.348289281265528</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>0.19329708757299</v>
       </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
         <v>0.258035499887272</v>
       </c>
-      <c r="M25" t="n">
+      <c r="P25" t="n">
         <v>0.543691532633682</v>
       </c>
-      <c r="N25" t="n">
+      <c r="Q25" t="n">
         <v>0.246779245473346</v>
       </c>
-      <c r="O25" t="n">
+      <c r="R25" t="n">
         <v>0.866807148359688</v>
       </c>
-      <c r="P25" t="n">
+      <c r="S25" t="n">
         <v>0.489911990551412</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
         <v>0.401306285870675</v>
       </c>
-      <c r="R25" t="n">
+      <c r="U25" t="n">
         <v>0.458445859593968</v>
       </c>
-      <c r="S25" t="n">
+      <c r="V25" t="n">
         <v>0.710508437026554</v>
       </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
         <v>0.976257180648777</v>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>0.665941970608036</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
         <v>0.447929434680481</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>0.460338536807111</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>0.425118307429636</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>0.551074621392509</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>0.28634956576066</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0.746129411539453</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
+        <v>0.746129411539454</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.699047585397814</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AF25" t="n">
         <v>0.50205087674714</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
         <v>1.01900314154789</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>0.785909784963204</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AI25" t="n">
         <v>0.990566029197641</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>0.666833851830822</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0343037686926882</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.391376442059397</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.441233263594649</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.563186660086091</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.361546806398516</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.124868868667522</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.473464755697099</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.133971588321657</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.37093330536287</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.33824339021989</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.902864522242455</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.493420053157804</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.653252852850206</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.927039414982952</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.798487817553536</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.70655470874968</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2.81195285947707</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-3.52331056167785</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-3.83627562389721</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-3.81474522297282</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.282906983280372</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.128926766466719</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.579969164426466</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.404018322320074</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.440865134437292</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.676761788731635</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.140887297894961</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.652911530691912</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.03181505377613</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.619516442683922</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6234157588222</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.163624356852183</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.0926989241194154</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.16817405057963</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2664517869837</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.734366922919801</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.499791161944542</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.358853585412378</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.382161498263098</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.489204380107027</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.395524090609116</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.19949370454691</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.306355991982403</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.301359026384784</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.542735840094932</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.830530456082812</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.456068330413585</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.519482219149076</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.513041987035345</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.564118474766876</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.526259983534755</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.333436954458859</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.388843365598759</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.457236065201026</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.451056442365929</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.01258448306044</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.510375509338378</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.329180685894907</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.400220281944419</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.561288076089451</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.0449960068682157</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.00768750304700642</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.924208709584159</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.51612965773269</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.311141324254903</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.06711034429653</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.251152272440956</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.247234480778875</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.436750175266416</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0200122812785634</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0366482012157245</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.529408159663736</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.0240642005065216</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.186321826227727</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.530009631442011</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-2.55539516918388</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.3983934279535</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.72369464021127</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.914403010600138</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.0334253632237</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.425159230957077</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.235210135198905</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.431961394466645</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0089777684016791</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.463850431024837</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.286643356322677</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.823703765931088</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.582359197316302</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.239325329977347</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.00130977722310404</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.383225235735833</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.050269611739358</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.0342791762532862</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.893672787257418</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.74658439196182</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.57059325113939</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-1.79085443737289</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.973994553626835</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.751091713570219</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1.23732475244636</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.82052400326156</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.76411577070465</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.52912063022905</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.11727583942345</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.899817801026463</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.330907672735434</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.146061054200274</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.32047441302971</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.275015612740149</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.363015744084308</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.747644986304157</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.448004071229401</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.657114864838392</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.594715530337699</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.490898150214397</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="AK25" t="n">
         <v>1.05346523701428</v>
       </c>
-      <c r="D25" t="n">
+      <c r="AL25" t="n">
         <v>0.407766590603611</v>
       </c>
-      <c r="E25" t="n">
+      <c r="AM25" t="n">
         <v>0.433970873623867</v>
       </c>
-      <c r="F25" t="n">
+      <c r="AN25" t="n">
         <v>0.646205350843566</v>
       </c>
-      <c r="G25" t="n">
+      <c r="AO25" t="n">
         <v>0.783072365921104</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.214803925416486</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0517684415191245</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.319467156091619</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.35055976310884</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.13419432527567</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.89365456886261</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.05080935435199</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.866031092685089</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.643603713524161</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.311109769729599</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.290685084514403</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0478320729892493</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.34370374642809</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.358735091139753</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.441117829865677</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.391259696360557</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.331917401519669</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.225168416153553</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.90288701334515</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9648139308168</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.733514901789454</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.09337624371985</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.22318472580362</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.566689001957153</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.594732345168018</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.966707798223631</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.55047414608875</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-2.6420677388728</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2.09285483743906</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-3.00905662254677</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.39693400233032</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.60799236285506</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.56927768378717</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.67577877766426</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.224240044431124</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-3.18820191525975</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.429706737195814</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.372497226267197</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.119077573194357</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.0591378806126317</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.229391025467413</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.38698501915685</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.378546616021085</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.34541776139208</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.0749942034497425</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.952207566685108</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.997373234239575</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.706516061544062</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.885525513193186</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.19983425459287</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.707109596551349</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.19246991506817</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.764517576999212</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.458120809904452</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.358188274435684</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.346535425297087</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.175127630568305</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0411745611366438</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.0558743836314111</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.256671146402071</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.467891669769132</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-0.270670155133247</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.0470634393450167</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.519731914561624</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.549632452802147</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.347688875561558</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.430372541845526</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.495619951425784</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.144925289592535</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.225983827496797</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.429068546442349</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.315892084071057</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.537538149530134</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.505632347116376</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.199926525689969</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.175660308607839</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.117952041270083</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.140391567706128</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.145780005401139</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.180808554550245</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.168665355769164</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.612425532214746</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.611550898555149</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.43010901681607</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.572622158262341</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.743119095528626</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.295886437071758</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.426566144879342</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.702705018340627</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.495002390053857</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.49493865568356</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.45745639221456</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.26406520621949</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.349848832034037</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.369238477593442</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.000749040934590563</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.00394036942716466</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.188998037983875</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.147387335064936</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.622381211812964</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.664536760303998</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.516394515176972</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.710368721805157</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.763043405322674</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.43543345219086</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.626804406656853</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.986447943816562</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.677871682138632</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.650327080789437</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.228866453803738</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.748273659836821</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.26517539462786</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.931780552842143</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.267084497593284</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.389769747767154</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.186465811639307</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.0913772297186368</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.0197948218119707</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0973938043374487</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.267289757633095</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.604431068218771</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1.03180196043857</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.749412804828737</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0958889121621415</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.06516717016531</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.461075153174682</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.609928665837002</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.623792705257918</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.254876905541895</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.183908264280877</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.177759550356725</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.0560818564945192</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.144729762004629</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.221415772418394</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.366580730867546</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-2.04992756977427</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-1.96210908536696</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.71207548390704</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.830655808744297</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.66297633492031</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-1.32481678225636</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-2.17807528446262</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-2.05540347841741</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.09799590632368</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.682369339223043</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.711377641758647</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.654929061137937</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.824652577852701</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.695136221850894</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.114207900047482</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.255518044100047</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.206959020672667</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.720465727646286</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.313670790049836</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.483661565286049</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.69727153093848</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.0913167307353</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.945293310452248</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.355484173493079</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.925554435230709</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-1.22490370654845</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.83872025385472</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.622002823384132</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.715837815144499</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1.05873452276975</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.21307055974275</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1.08595216875375</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.619660819554574</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.136882368747238</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.835779574524707</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.03418327636183</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.893922084943</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-2.52206754083461</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-2.03005057462245</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-2.49081607229817</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-2.15090215085728</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-2.24217913274938</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-2.06692028966735</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-2.83477123391769</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-2.40643560529935</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.0696560787878</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.18189347482363</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.32410432059356</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.54487007544904</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1.69033251435648</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-1.3689475064977</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-1.55870713311375</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-1.38894929137844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-0.787757388814169</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.410627439657119</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.423235062779175</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.219741917471336</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.255161603791228</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.260758381480426</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.0573144908737869</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-0.0137765525423423</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.238457416416417</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.163399797628809</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.533829959345856</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.51261812112366</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.307447700970097</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.378753892352542</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.407845633937402</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.120218220564448</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.210459976671673</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.381784992574743</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.314096128074182</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="AP25" t="n">
         <v>1.06869483373936</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.00639124379529</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.629443064597872</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.05777556794075</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.29978468559193</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.883827440725617</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.659401991906951</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.897790290121768</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.778065676938011</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Figure Data/Fig.6 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.6 data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -857,15 +857,6 @@
   <si>
     <t xml:space="preserve">X2023.01.01</t>
   </si>
-  <si>
-    <t xml:space="preserve">X2023.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.04.01</t>
-  </si>
 </sst>
 </file>
 
@@ -2082,15 +2073,6 @@
       <c r="AM1" t="s">
         <v>277</v>
       </c>
-      <c r="AN1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2210,15 +2192,6 @@
       <c r="AM2" t="n">
         <v>0.263230303201223</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0.413387626727509</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.230047498307442</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.122341422050048</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2338,15 +2311,6 @@
       <c r="AM3" t="n">
         <v>0.153869376301927</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0.428186865746061</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.253411428865701</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.213641068813313</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2466,15 +2430,6 @@
       <c r="AM4" t="n">
         <v>0.665809427808503</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0.987588742858819</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.756918061292538</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.810319629505895</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2594,15 +2549,6 @@
       <c r="AM5" t="n">
         <v>-3.42464009737254</v>
       </c>
-      <c r="AN5" t="n">
-        <v>-3.39940055405</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-3.4947337506017</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>-3.2856518195182</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2722,15 +2668,6 @@
       <c r="AM6" t="n">
         <v>0.595432590846561</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0.463270577579243</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.365339489339483</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.329230260915579</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2850,15 +2787,6 @@
       <c r="AM7" t="n">
         <v>0.667649722621047</v>
       </c>
-      <c r="AN7" t="n">
-        <v>1.12899305989526</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.560191901814442</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.838479780897082</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2978,15 +2906,6 @@
       <c r="AM8" t="n">
         <v>-0.0705474489869138</v>
       </c>
-      <c r="AN8" t="n">
-        <v>-0.143488438138486</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.175109359749559</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.259525600607175</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3106,15 +3025,6 @@
       <c r="AM9" t="n">
         <v>0.376515468677237</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0.440093363621778</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.418062409358431</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.416972281161938</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3234,15 +3144,6 @@
       <c r="AM10" t="n">
         <v>0.324539836178846</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0.354409543587638</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.476448402857847</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.434326926549304</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3362,15 +3263,6 @@
       <c r="AM11" t="n">
         <v>0.535547041180719</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0.578880457447692</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.499770134961523</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.507315066533857</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3490,15 +3382,6 @@
       <c r="AM12" t="n">
         <v>0.406207073412492</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0.519703250957127</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.376455002322061</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.392807811997798</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3618,15 +3501,6 @@
       <c r="AM13" t="n">
         <v>0.355989261606786</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0.471734051545736</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.501710969402215</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.580083403017813</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3746,15 +3620,6 @@
       <c r="AM14" t="n">
         <v>-1.27447414535202</v>
       </c>
-      <c r="AN14" t="n">
-        <v>-1.28867082553521</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>-0.88827469804023</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>-0.948318550492076</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3874,15 +3739,6 @@
       <c r="AM15" t="n">
         <v>-0.223546525250862</v>
       </c>
-      <c r="AN15" t="n">
-        <v>-0.428289481945481</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>-0.137332879471191</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>-0.108871346271135</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4002,15 +3858,6 @@
       <c r="AM16" t="n">
         <v>-0.00259513083178143</v>
       </c>
-      <c r="AN16" t="n">
-        <v>0.232422845330032</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.462568110113179</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.504881523977443</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4130,15 +3977,6 @@
       <c r="AM17" t="n">
         <v>1.72778649746387</v>
       </c>
-      <c r="AN17" t="n">
-        <v>1.00448805227021</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.46144691989213</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0.987487759212215</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4258,15 +4096,6 @@
       <c r="AM18" t="n">
         <v>0.47460609290998</v>
       </c>
-      <c r="AN18" t="n">
-        <v>0.0432909745533368</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0.305383771525753</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0.478522679470589</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4386,15 +4215,6 @@
       <c r="AM19" t="n">
         <v>-0.617194144022358</v>
       </c>
-      <c r="AN19" t="n">
-        <v>-0.441485112092623</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>-0.215952056008671</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>-0.425345030924153</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4514,15 +4334,6 @@
       <c r="AM20" t="n">
         <v>-0.0127085434799633</v>
       </c>
-      <c r="AN20" t="n">
-        <v>-0.912815189455095</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.929794630762767</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>-0.695806559425522</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4642,15 +4453,6 @@
       <c r="AM21" t="n">
         <v>-0.909778505929621</v>
       </c>
-      <c r="AN21" t="n">
-        <v>-1.05113704457584</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>-1.54651252586074</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-1.99467874840897</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4770,15 +4572,6 @@
       <c r="AM22" t="n">
         <v>-1.49268743353787</v>
       </c>
-      <c r="AN22" t="n">
-        <v>-1.14992629800796</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>-1.09692410616963</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>-1.13210673842294</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4898,15 +4691,6 @@
       <c r="AM23" t="n">
         <v>0.358292119639118</v>
       </c>
-      <c r="AN23" t="n">
-        <v>0.363187223794476</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0.308171412091469</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0.332118020429082</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5026,15 +4810,6 @@
       <c r="AM24" t="n">
         <v>0.671811264828821</v>
       </c>
-      <c r="AN24" t="n">
-        <v>0.665487971094159</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.419909780054107</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.430712780954187</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5153,15 +4928,6 @@
       </c>
       <c r="AM25" t="n">
         <v>0.450885898086805</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.720088336791621</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.738579994967044</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0.952012777369674</v>
       </c>
     </row>
   </sheetData>
@@ -5296,15 +5062,6 @@
       <c r="AM1" t="s">
         <v>277</v>
       </c>
-      <c r="AN1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -5424,15 +5181,6 @@
       <c r="AM2" t="n">
         <v>0.263230303201223</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0.413387626727509</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.230047498307442</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.122341422050048</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5552,15 +5300,6 @@
       <c r="AM3" t="n">
         <v>0.153869376301927</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0.428186865746061</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.253411428865701</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.213641068813313</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -5680,15 +5419,6 @@
       <c r="AM4" t="n">
         <v>0.665809427808503</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0.987588742858819</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.756918061292538</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.810319629505895</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -5808,15 +5538,6 @@
       <c r="AM5" t="n">
         <v>-3.42464009737254</v>
       </c>
-      <c r="AN5" t="n">
-        <v>-3.39940055405</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-3.4947337506017</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>-3.2856518195182</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -5936,15 +5657,6 @@
       <c r="AM6" t="n">
         <v>0.595432590846561</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0.463270577579243</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.365339489339483</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.329230260915579</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -6064,15 +5776,6 @@
       <c r="AM7" t="n">
         <v>0.667649722621047</v>
       </c>
-      <c r="AN7" t="n">
-        <v>1.12899305989526</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.560191901814442</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.838479780897082</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -6192,15 +5895,6 @@
       <c r="AM8" t="n">
         <v>-0.0705474489869138</v>
       </c>
-      <c r="AN8" t="n">
-        <v>-0.143488438138486</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.175109359749559</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.259525600607175</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -6320,15 +6014,6 @@
       <c r="AM9" t="n">
         <v>0.376515468677237</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0.440093363621778</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.418062409358431</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.416972281161938</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -6448,15 +6133,6 @@
       <c r="AM10" t="n">
         <v>0.324539836178846</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0.354409543587638</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.476448402857847</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.434326926549304</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -6576,15 +6252,6 @@
       <c r="AM11" t="n">
         <v>0.535547041180719</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0.578880457447692</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.499770134961523</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.507315066533857</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -6704,15 +6371,6 @@
       <c r="AM12" t="n">
         <v>0.406207073412492</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0.519703250957127</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.376455002322061</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.392807811997798</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -6832,15 +6490,6 @@
       <c r="AM13" t="n">
         <v>0.355989261606786</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0.471734051545736</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.501710969402215</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.580083403017813</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6960,15 +6609,6 @@
       <c r="AM14" t="n">
         <v>-1.27447414535202</v>
       </c>
-      <c r="AN14" t="n">
-        <v>-1.28867082553521</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>-0.88827469804023</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>-0.948318550492076</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -7088,15 +6728,6 @@
       <c r="AM15" t="n">
         <v>-0.223546525250862</v>
       </c>
-      <c r="AN15" t="n">
-        <v>-0.428289481945481</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>-0.137332879471191</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>-0.108871346271135</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -7216,15 +6847,6 @@
       <c r="AM16" t="n">
         <v>-0.00259513083178143</v>
       </c>
-      <c r="AN16" t="n">
-        <v>0.232422845330032</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.462568110113179</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.504881523977443</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -7344,15 +6966,6 @@
       <c r="AM17" t="n">
         <v>1.72778649746387</v>
       </c>
-      <c r="AN17" t="n">
-        <v>1.00448805227021</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.46144691989213</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0.987487759212215</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -7472,15 +7085,6 @@
       <c r="AM18" t="n">
         <v>0.47460609290998</v>
       </c>
-      <c r="AN18" t="n">
-        <v>0.0432909745533368</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0.305383771525753</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0.478522679470589</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -7600,15 +7204,6 @@
       <c r="AM19" t="n">
         <v>-0.617194144022358</v>
       </c>
-      <c r="AN19" t="n">
-        <v>-0.441485112092623</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>-0.215952056008671</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>-0.425345030924153</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -7728,15 +7323,6 @@
       <c r="AM20" t="n">
         <v>-0.0127085434799633</v>
       </c>
-      <c r="AN20" t="n">
-        <v>-0.912815189455095</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.929794630762767</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>-0.695806559425522</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -7856,15 +7442,6 @@
       <c r="AM21" t="n">
         <v>-0.909778505929621</v>
       </c>
-      <c r="AN21" t="n">
-        <v>-1.05113704457584</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>-1.54651252586074</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-1.99467874840897</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -7984,15 +7561,6 @@
       <c r="AM22" t="n">
         <v>-1.49268743353787</v>
       </c>
-      <c r="AN22" t="n">
-        <v>-1.14992629800796</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>-1.09692410616963</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>-1.13210673842294</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -8112,15 +7680,6 @@
       <c r="AM23" t="n">
         <v>0.358292119639118</v>
       </c>
-      <c r="AN23" t="n">
-        <v>0.363187223794476</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0.308171412091469</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0.332118020429082</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -8240,15 +7799,6 @@
       <c r="AM24" t="n">
         <v>0.671811264828821</v>
       </c>
-      <c r="AN24" t="n">
-        <v>0.665487971094159</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.419909780054107</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.430712780954187</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -8367,15 +7917,6 @@
       </c>
       <c r="AM25" t="n">
         <v>0.450885898086805</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.720088336791621</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.738579994967044</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0.952012777369674</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Figure Data/Fig.6 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.6 data.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">AHC</t>
   </si>
   <si>
-    <t xml:space="preserve">PHSM and epidemic periods</t>
+    <t xml:space="preserve">PHSMs and epidemic periods</t>
   </si>
   <si>
     <t xml:space="preserve">Post-epidemic period</t>

--- a/outcome/appendix/Figure Data/Fig.6 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.6 data.xlsx
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502835871676526</v>
+        <v>0.495548982151616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.390538119079285</v>
+        <v>0.388434252690527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.656275025817179</v>
+        <v>0.649919853441761</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.807926643908971</v>
+        <v>0.833297797708022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.51733702809495</v>
+        <v>0.503616063434502</v>
       </c>
       <c r="F3" t="n">
-        <v>1.27213890163045</v>
+        <v>1.28240956445018</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7646</v>
+        <v>0.8311</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.487767877965951</v>
+        <v>0.415617169934255</v>
       </c>
       <c r="E8" t="n">
-        <v>0.253129572328412</v>
+        <v>0.246134469076026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.761317975519386</v>
+        <v>0.714649260761217</v>
       </c>
       <c r="G8" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -857,19 +857,19 @@
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>0.577872325824153</v>
+        <v>0.57914922291018</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19713350570955</v>
+        <v>0.216089863514125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.950758005497464</v>
+        <v>0.896197242402231</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>0.042</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="10">
@@ -935,16 +935,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.902013353941446</v>
+        <v>0.908896402141557</v>
       </c>
       <c r="E12" t="n">
-        <v>0.773615237782744</v>
+        <v>0.770202388770739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.978347485863404</v>
+        <v>0.987017718215305</v>
       </c>
       <c r="G12" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>1.13897472307298</v>
+        <v>1.16636792920598</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0344200269061</v>
+        <v>1.04311805017429</v>
       </c>
       <c r="F13" t="n">
-        <v>1.30563524874797</v>
+        <v>1.27738684260384</v>
       </c>
       <c r="G13" t="n">
         <v>63</v>
@@ -1085,10 +1085,10 @@
         <v>2139</v>
       </c>
       <c r="F2" t="n">
-        <v>2402.70771303565</v>
+        <v>2407.26005985234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.890250180401457</v>
+        <v>0.888566706606907</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1111,10 +1111,10 @@
         <v>1672</v>
       </c>
       <c r="F3" t="n">
-        <v>2001.48026539679</v>
+        <v>2018.8998822743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.835389931099528</v>
+        <v>0.82818231674014</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1137,10 +1137,10 @@
         <v>2011</v>
       </c>
       <c r="F4" t="n">
-        <v>3303.14656355986</v>
+        <v>3329.38216340279</v>
       </c>
       <c r="G4" t="n">
-        <v>0.608825275771321</v>
+        <v>0.604027864184327</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1163,10 +1163,10 @@
         <v>2230</v>
       </c>
       <c r="F5" t="n">
-        <v>3862.47123435148</v>
+        <v>3863.88302031525</v>
       </c>
       <c r="G5" t="n">
-        <v>0.577361520265769</v>
+        <v>0.577150569315404</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -1189,10 +1189,10 @@
         <v>2468</v>
       </c>
       <c r="F6" t="n">
-        <v>4703.07151478457</v>
+        <v>4699.73474512466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.524773547433141</v>
+        <v>0.52514612403346</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -1215,10 +1215,10 @@
         <v>2788</v>
       </c>
       <c r="F7" t="n">
-        <v>5479.18520963283</v>
+        <v>5473.83545062425</v>
       </c>
       <c r="G7" t="n">
-        <v>0.508843743906303</v>
+        <v>0.509341044509767</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1241,10 +1241,10 @@
         <v>2561</v>
       </c>
       <c r="F8" t="n">
-        <v>5831.63552480539</v>
+        <v>5866.59335341536</v>
       </c>
       <c r="G8" t="n">
-        <v>0.439166006261141</v>
+        <v>0.436549150554976</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1267,10 +1267,10 @@
         <v>2561</v>
       </c>
       <c r="F9" t="n">
-        <v>5536.96770723621</v>
+        <v>5521.43998099211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.462537237291316</v>
+        <v>0.463837988824962</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1293,10 +1293,10 @@
         <v>2549</v>
       </c>
       <c r="F10" t="n">
-        <v>5768.8377841194</v>
+        <v>5743.47124526783</v>
       </c>
       <c r="G10" t="n">
-        <v>0.441866439783266</v>
+        <v>0.443817947257157</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -1319,10 +1319,10 @@
         <v>2298</v>
       </c>
       <c r="F11" t="n">
-        <v>4137.77005626341</v>
+        <v>4138.56377056243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.555382351004815</v>
+        <v>0.555275839594888</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1345,10 +1345,10 @@
         <v>2538</v>
       </c>
       <c r="F12" t="n">
-        <v>3585.27852827111</v>
+        <v>3581.73618091591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.707902939672003</v>
+        <v>0.708603038163231</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -1371,10 +1371,10 @@
         <v>2583</v>
       </c>
       <c r="F13" t="n">
-        <v>3400.5790400826</v>
+        <v>3358.21554474726</v>
       </c>
       <c r="G13" t="n">
-        <v>0.759583591851485</v>
+        <v>0.769165364475719</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1397,10 +1397,10 @@
         <v>2305</v>
       </c>
       <c r="F14" t="n">
-        <v>2666.94836943159</v>
+        <v>2634.07828418953</v>
       </c>
       <c r="G14" t="n">
-        <v>0.864288786967621</v>
+        <v>0.875073647761553</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -1423,10 +1423,10 @@
         <v>1873</v>
       </c>
       <c r="F15" t="n">
-        <v>2111.01013958924</v>
+        <v>2124.71474965008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.887258303048296</v>
+        <v>0.881535672843229</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -1449,10 +1449,10 @@
         <v>2885</v>
       </c>
       <c r="F16" t="n">
-        <v>3560.90270146014</v>
+        <v>3630.19251646588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.810193151164138</v>
+        <v>0.7947293467163</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1475,10 +1475,10 @@
         <v>2808</v>
       </c>
       <c r="F17" t="n">
-        <v>4287.16347024264</v>
+        <v>4320.58659716922</v>
       </c>
       <c r="G17" t="n">
-        <v>0.654986571152128</v>
+        <v>0.649919853441761</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -1501,10 +1501,10 @@
         <v>2548</v>
       </c>
       <c r="F18" t="n">
-        <v>5318.80127227683</v>
+        <v>5323.74142614634</v>
       </c>
       <c r="G18" t="n">
-        <v>0.479065105660299</v>
+        <v>0.478620566624284</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1527,10 +1527,10 @@
         <v>2467</v>
       </c>
       <c r="F19" t="n">
-        <v>6302.64851567387</v>
+        <v>6316.81722334845</v>
       </c>
       <c r="G19" t="n">
-        <v>0.391432403476791</v>
+        <v>0.390554429125834</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -1553,10 +1553,10 @@
         <v>2566</v>
       </c>
       <c r="F20" t="n">
-        <v>6785.41798584851</v>
+        <v>6796.63931037023</v>
       </c>
       <c r="G20" t="n">
-        <v>0.37817304520476</v>
+        <v>0.377548686630475</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1579,10 +1579,10 @@
         <v>2016</v>
       </c>
       <c r="F21" t="n">
-        <v>6578.57463473791</v>
+        <v>6496.64523287042</v>
       </c>
       <c r="G21" t="n">
-        <v>0.306459904454649</v>
+        <v>0.310324620673056</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -1605,10 +1605,10 @@
         <v>2321</v>
       </c>
       <c r="F22" t="n">
-        <v>7039.96563853553</v>
+        <v>7012.06497656716</v>
       </c>
       <c r="G22" t="n">
-        <v>0.329698630548967</v>
+        <v>0.331010466490237</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1631,10 +1631,10 @@
         <v>1994</v>
       </c>
       <c r="F23" t="n">
-        <v>4758.21348127281</v>
+        <v>4749.79352760644</v>
       </c>
       <c r="G23" t="n">
-        <v>0.419077054895213</v>
+        <v>0.419819936680742</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -1657,10 +1657,10 @@
         <v>2218</v>
       </c>
       <c r="F24" t="n">
-        <v>3977.0024738841</v>
+        <v>3963.84516926215</v>
       </c>
       <c r="G24" t="n">
-        <v>0.557717588260624</v>
+        <v>0.559568789497882</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1683,10 +1683,10 @@
         <v>2513</v>
       </c>
       <c r="F25" t="n">
-        <v>3723.80738543777</v>
+        <v>3655.09879317301</v>
       </c>
       <c r="G25" t="n">
-        <v>0.674855666343208</v>
+        <v>0.687541264429677</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -1709,10 +1709,10 @@
         <v>1811</v>
       </c>
       <c r="F26" t="n">
-        <v>2930.82299282115</v>
+        <v>2842.95192899957</v>
       </c>
       <c r="G26" t="n">
-        <v>0.617928210477046</v>
+        <v>0.637026704129636</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
@@ -1735,10 +1735,10 @@
         <v>1561</v>
       </c>
       <c r="F27" t="n">
-        <v>2327.83724354733</v>
+        <v>2310.93269990942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.67059367872872</v>
+        <v>0.675498879812989</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
@@ -1761,10 +1761,10 @@
         <v>2559</v>
       </c>
       <c r="F28" t="n">
-        <v>3899.33224917551</v>
+        <v>4031.52322080693</v>
       </c>
       <c r="G28" t="n">
-        <v>0.656275025817179</v>
+        <v>0.634756736887679</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
@@ -1787,10 +1787,10 @@
         <v>2455</v>
       </c>
       <c r="F29" t="n">
-        <v>4882.40766957884</v>
+        <v>4954.20338559115</v>
       </c>
       <c r="G29" t="n">
-        <v>0.502835871676526</v>
+        <v>0.495548982151616</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -1813,10 +1813,10 @@
         <v>2509</v>
       </c>
       <c r="F30" t="n">
-        <v>6239.55667771609</v>
+        <v>6279.8752145587</v>
       </c>
       <c r="G30" t="n">
-        <v>0.40212148353624</v>
+        <v>0.399539793434729</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
@@ -1839,10 +1839,10 @@
         <v>2905</v>
       </c>
       <c r="F31" t="n">
-        <v>7438.61048195994</v>
+        <v>7486.9677543891</v>
       </c>
       <c r="G31" t="n">
-        <v>0.390538119079285</v>
+        <v>0.388015721948951</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -1865,10 +1865,10 @@
         <v>2629</v>
       </c>
       <c r="F32" t="n">
-        <v>8067.95444923309</v>
+        <v>8089.73202577776</v>
       </c>
       <c r="G32" t="n">
-        <v>0.325865425988778</v>
+        <v>0.324988206383338</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
@@ -1891,10 +1891,10 @@
         <v>2267</v>
       </c>
       <c r="F33" t="n">
-        <v>8017.27685795281</v>
+        <v>7870.76745816951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.282773286096831</v>
+        <v>0.288036866590465</v>
       </c>
       <c r="H33" t="s">
         <v>25</v>
@@ -1917,10 +1917,10 @@
         <v>2273</v>
       </c>
       <c r="F34" t="n">
-        <v>9114.38352647233</v>
+        <v>9055.33050385817</v>
       </c>
       <c r="G34" t="n">
-        <v>0.249394273783912</v>
+        <v>0.25102064435606</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
@@ -1943,10 +1943,10 @@
         <v>2009</v>
       </c>
       <c r="F35" t="n">
-        <v>5498.08976634855</v>
+        <v>5467.28669573564</v>
       </c>
       <c r="G35" t="n">
-        <v>0.365411178111133</v>
+        <v>0.367469892255293</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
@@ -1969,10 +1969,10 @@
         <v>1738</v>
       </c>
       <c r="F36" t="n">
-        <v>4401.76012320064</v>
+        <v>4379.98854504579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.394855799901295</v>
+        <v>0.396818462029934</v>
       </c>
       <c r="H36" t="s">
         <v>25</v>
@@ -1995,10 +1995,10 @@
         <v>1569</v>
       </c>
       <c r="F37" t="n">
-        <v>4130.66224082151</v>
+        <v>4039.45106721789</v>
       </c>
       <c r="G37" t="n">
-        <v>0.379857253582318</v>
+        <v>0.388434252690527</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -2021,10 +2021,10 @@
         <v>1156</v>
       </c>
       <c r="F38" t="n">
-        <v>3228.09523297912</v>
+        <v>3076.57510938606</v>
       </c>
       <c r="G38" t="n">
-        <v>0.358125799886366</v>
+        <v>0.375762782515797</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -2047,10 +2047,10 @@
         <v>1958</v>
       </c>
       <c r="F39" t="n">
-        <v>2598.9045410717</v>
+        <v>2529.6618615194</v>
       </c>
       <c r="G39" t="n">
-        <v>0.753403839453307</v>
+        <v>0.774025424995515</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
@@ -2073,10 +2073,10 @@
         <v>2208</v>
       </c>
       <c r="F40" t="n">
-        <v>4464.92660154191</v>
+        <v>4656.81699760469</v>
       </c>
       <c r="G40" t="n">
-        <v>0.494532328035286</v>
+        <v>0.474154897142411</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
@@ -2099,10 +2099,10 @@
         <v>2210</v>
       </c>
       <c r="F41" t="n">
-        <v>5740.36449480839</v>
+        <v>5830.93670650761</v>
       </c>
       <c r="G41" t="n">
-        <v>0.385003687767565</v>
+        <v>0.379023510096148</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -2125,10 +2125,10 @@
         <v>2311</v>
       </c>
       <c r="F42" t="n">
-        <v>7647.62828626251</v>
+        <v>7711.91496244647</v>
       </c>
       <c r="G42" t="n">
-        <v>0.302194313591317</v>
+        <v>0.29967524846021</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -2151,10 +2151,10 @@
         <v>4985</v>
       </c>
       <c r="F43" t="n">
-        <v>9229.14436338499</v>
+        <v>9351.4530621272</v>
       </c>
       <c r="G43" t="n">
-        <v>0.540141728154614</v>
+        <v>0.533077229726592</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -2177,10 +2177,10 @@
         <v>13425</v>
       </c>
       <c r="F44" t="n">
-        <v>10091.8999476586</v>
+        <v>10112.6852209278</v>
       </c>
       <c r="G44" t="n">
-        <v>1.3302715090793</v>
+        <v>1.3275373407731</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -2203,10 +2203,10 @@
         <v>12742</v>
       </c>
       <c r="F45" t="n">
-        <v>10495.8093384189</v>
+        <v>10298.3624216335</v>
       </c>
       <c r="G45" t="n">
-        <v>1.2140062941816</v>
+        <v>1.23728178812725</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
@@ -2229,10 +2229,10 @@
         <v>125264</v>
       </c>
       <c r="F46" t="n">
-        <v>13160.8096358545</v>
+        <v>13023.05875165</v>
       </c>
       <c r="G46" t="n">
-        <v>9.51789074356538</v>
+        <v>9.61856508000637</v>
       </c>
       <c r="H46" t="s">
         <v>72</v>
@@ -2255,10 +2255,10 @@
         <v>23111</v>
       </c>
       <c r="F47" t="n">
-        <v>6783.51432919974</v>
+        <v>6687.96012936425</v>
       </c>
       <c r="G47" t="n">
-        <v>3.40690064004957</v>
+        <v>3.45557598959519</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -2281,10 +2281,10 @@
         <v>4940</v>
       </c>
       <c r="F48" t="n">
-        <v>5147.58087891026</v>
+        <v>5074.62523025919</v>
       </c>
       <c r="G48" t="n">
-        <v>0.959674874221379</v>
+        <v>0.973471424727302</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -2307,10 +2307,10 @@
         <v>3873</v>
       </c>
       <c r="F49" t="n">
-        <v>4793.7758168203</v>
+        <v>4647.81820001556</v>
       </c>
       <c r="G49" t="n">
-        <v>0.807926643908971</v>
+        <v>0.833297797708022</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -6077,10 +6077,10 @@
         <v>1626</v>
       </c>
       <c r="F194" t="n">
-        <v>2396.15698482</v>
+        <v>2342.11090283977</v>
       </c>
       <c r="G194" t="n">
-        <v>0.678600004215386</v>
+        <v>0.694258573396813</v>
       </c>
       <c r="H194" t="s">
         <v>25</v>
@@ -6103,10 +6103,10 @@
         <v>1045</v>
       </c>
       <c r="F195" t="n">
-        <v>2355.78933647953</v>
+        <v>2369.82755284611</v>
       </c>
       <c r="G195" t="n">
-        <v>0.443611668772915</v>
+        <v>0.440983944317163</v>
       </c>
       <c r="H195" t="s">
         <v>25</v>
@@ -6129,10 +6129,10 @@
         <v>1641</v>
       </c>
       <c r="F196" t="n">
-        <v>3161.47464179483</v>
+        <v>3201.90941307947</v>
       </c>
       <c r="G196" t="n">
-        <v>0.519076784810099</v>
+        <v>0.512521916174414</v>
       </c>
       <c r="H196" t="s">
         <v>25</v>
@@ -6155,10 +6155,10 @@
         <v>1732</v>
       </c>
       <c r="F197" t="n">
-        <v>2868.44359967871</v>
+        <v>2878.13102002152</v>
       </c>
       <c r="G197" t="n">
-        <v>0.603825579012989</v>
+        <v>0.601793250073112</v>
       </c>
       <c r="H197" t="s">
         <v>25</v>
@@ -6181,10 +6181,10 @@
         <v>1585</v>
       </c>
       <c r="F198" t="n">
-        <v>2653.55643028384</v>
+        <v>2610.97194283237</v>
       </c>
       <c r="G198" t="n">
-        <v>0.597326760883833</v>
+        <v>0.607068680873096</v>
       </c>
       <c r="H198" t="s">
         <v>25</v>
@@ -6207,10 +6207,10 @@
         <v>1708</v>
       </c>
       <c r="F199" t="n">
-        <v>2314.18859358888</v>
+        <v>2283.69027375363</v>
       </c>
       <c r="G199" t="n">
-        <v>0.738066982973444</v>
+        <v>0.747923318366959</v>
       </c>
       <c r="H199" t="s">
         <v>25</v>
@@ -6233,10 +6233,10 @@
         <v>1759</v>
       </c>
       <c r="F200" t="n">
-        <v>2311.85554968245</v>
+        <v>2283.84513656023</v>
       </c>
       <c r="G200" t="n">
-        <v>0.76087102982651</v>
+        <v>0.770202388770739</v>
       </c>
       <c r="H200" t="s">
         <v>25</v>
@@ -6259,10 +6259,10 @@
         <v>1759</v>
       </c>
       <c r="F201" t="n">
-        <v>2247.68117250253</v>
+        <v>2242.7782879547</v>
       </c>
       <c r="G201" t="n">
-        <v>0.7825939737904</v>
+        <v>0.784304707681726</v>
       </c>
       <c r="H201" t="s">
         <v>25</v>
@@ -6285,10 +6285,10 @@
         <v>1811</v>
       </c>
       <c r="F202" t="n">
-        <v>2013.90991220116</v>
+        <v>2014.88330579479</v>
       </c>
       <c r="G202" t="n">
-        <v>0.899250787708689</v>
+        <v>0.898816379665056</v>
       </c>
       <c r="H202" t="s">
         <v>25</v>
@@ -6311,10 +6311,10 @@
         <v>1506</v>
       </c>
       <c r="F203" t="n">
-        <v>1877.12235761036</v>
+        <v>1826.3667549706</v>
       </c>
       <c r="G203" t="n">
-        <v>0.802302398484756</v>
+        <v>0.824597543810341</v>
       </c>
       <c r="H203" t="s">
         <v>25</v>
@@ -6337,10 +6337,10 @@
         <v>1639</v>
       </c>
       <c r="F204" t="n">
-        <v>2002.98728163082</v>
+        <v>2029.66418568461</v>
       </c>
       <c r="G204" t="n">
-        <v>0.818286859005725</v>
+        <v>0.807532230374414</v>
       </c>
       <c r="H204" t="s">
         <v>25</v>
@@ -6363,10 +6363,10 @@
         <v>1818</v>
       </c>
       <c r="F205" t="n">
-        <v>2022.92222705577</v>
+        <v>2084.82754830573</v>
       </c>
       <c r="G205" t="n">
-        <v>0.898704905801255</v>
+        <v>0.872020709533738</v>
       </c>
       <c r="H205" t="s">
         <v>25</v>
@@ -6389,10 +6389,10 @@
         <v>1838</v>
       </c>
       <c r="F206" t="n">
-        <v>2375.88732577731</v>
+        <v>2407.42813305335</v>
       </c>
       <c r="G206" t="n">
-        <v>0.773615237782744</v>
+        <v>0.763480174858363</v>
       </c>
       <c r="H206" t="s">
         <v>25</v>
@@ -6415,10 +6415,10 @@
         <v>1849</v>
       </c>
       <c r="F207" t="n">
-        <v>2335.63103476218</v>
+        <v>2370.61081447678</v>
       </c>
       <c r="G207" t="n">
-        <v>0.791657931705425</v>
+        <v>0.77997703840909</v>
       </c>
       <c r="H207" t="s">
         <v>25</v>
@@ -6441,10 +6441,10 @@
         <v>2991</v>
       </c>
       <c r="F208" t="n">
-        <v>3136.66494318366</v>
+        <v>3194.10822284297</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9535620469426</v>
+        <v>0.936413593393672</v>
       </c>
       <c r="H208" t="s">
         <v>25</v>
@@ -6467,10 +6467,10 @@
         <v>2797</v>
       </c>
       <c r="F209" t="n">
-        <v>2872.4499043859</v>
+        <v>2897.96130349579</v>
       </c>
       <c r="G209" t="n">
-        <v>0.973734171068464</v>
+        <v>0.965162467966428</v>
       </c>
       <c r="H209" t="s">
         <v>25</v>
@@ -6493,10 +6493,10 @@
         <v>2509</v>
       </c>
       <c r="F210" t="n">
-        <v>2716.87241411877</v>
+        <v>2608.39539654242</v>
       </c>
       <c r="G210" t="n">
-        <v>0.923491157643501</v>
+        <v>0.961895506246946</v>
       </c>
       <c r="H210" t="s">
         <v>25</v>
@@ -6519,10 +6519,10 @@
         <v>2266</v>
       </c>
       <c r="F211" t="n">
-        <v>2358.17605743576</v>
+        <v>2295.80609994063</v>
       </c>
       <c r="G211" t="n">
-        <v>0.960913796692663</v>
+        <v>0.987017718215305</v>
       </c>
       <c r="H211" t="s">
         <v>25</v>
@@ -6545,10 +6545,10 @@
         <v>2140</v>
       </c>
       <c r="F212" t="n">
-        <v>2307.25569976594</v>
+        <v>2283.41500776191</v>
       </c>
       <c r="G212" t="n">
-        <v>0.927511956746458</v>
+        <v>0.937195504617037</v>
       </c>
       <c r="H212" t="s">
         <v>25</v>
@@ -6571,10 +6571,10 @@
         <v>2109</v>
       </c>
       <c r="F213" t="n">
-        <v>2211.45780194046</v>
+        <v>2254.83847749969</v>
       </c>
       <c r="G213" t="n">
-        <v>0.953671659926518</v>
+        <v>0.935324853003796</v>
       </c>
       <c r="H213" t="s">
         <v>25</v>
@@ -6597,10 +6597,10 @@
         <v>2033</v>
       </c>
       <c r="F214" t="n">
-        <v>2011.18779830125</v>
+        <v>2025.44292383996</v>
       </c>
       <c r="G214" t="n">
-        <v>1.01084489336492</v>
+        <v>1.00373088917104</v>
       </c>
       <c r="H214" t="s">
         <v>25</v>
@@ -6623,10 +6623,10 @@
         <v>1846</v>
       </c>
       <c r="F215" t="n">
-        <v>1885.60311715456</v>
+        <v>1845.68307006635</v>
       </c>
       <c r="G215" t="n">
-        <v>0.978998222575821</v>
+        <v>1.00017170486543</v>
       </c>
       <c r="H215" t="s">
         <v>25</v>
@@ -6649,10 +6649,10 @@
         <v>2055</v>
       </c>
       <c r="F216" t="n">
-        <v>1987.15940435439</v>
+        <v>2028.34309328755</v>
       </c>
       <c r="G216" t="n">
-        <v>1.0341377655564</v>
+        <v>1.01314156004704</v>
       </c>
       <c r="H216" t="s">
         <v>25</v>
@@ -6675,10 +6675,10 @@
         <v>2369</v>
       </c>
       <c r="F217" t="n">
-        <v>2001.29752828425</v>
+        <v>2085.25010144531</v>
       </c>
       <c r="G217" t="n">
-        <v>1.18372285691338</v>
+        <v>1.13606823063333</v>
       </c>
       <c r="H217" t="s">
         <v>25</v>
@@ -6701,10 +6701,10 @@
         <v>2530</v>
       </c>
       <c r="F218" t="n">
-        <v>2335.22287337564</v>
+        <v>2389.46207612263</v>
       </c>
       <c r="G218" t="n">
-        <v>1.08340479547602</v>
+        <v>1.0588132550653</v>
       </c>
       <c r="H218" t="s">
         <v>25</v>
@@ -6727,10 +6727,10 @@
         <v>2443</v>
       </c>
       <c r="F219" t="n">
-        <v>2302.20124121075</v>
+        <v>2376.52496270837</v>
       </c>
       <c r="G219" t="n">
-        <v>1.06115566298145</v>
+        <v>1.02797035221572</v>
       </c>
       <c r="H219" t="s">
         <v>25</v>
@@ -6753,10 +6753,10 @@
         <v>3131</v>
       </c>
       <c r="F220" t="n">
-        <v>3119.7777634169</v>
+        <v>3145.68149772522</v>
       </c>
       <c r="G220" t="n">
-        <v>1.00359701162484</v>
+        <v>0.995332956934283</v>
       </c>
       <c r="H220" t="s">
         <v>25</v>
@@ -6779,10 +6779,10 @@
         <v>2525</v>
       </c>
       <c r="F221" t="n">
-        <v>2799.30423161841</v>
+        <v>2924.84782766298</v>
       </c>
       <c r="G221" t="n">
-        <v>0.902013353941446</v>
+        <v>0.863297449656579</v>
       </c>
       <c r="H221" t="s">
         <v>25</v>
@@ -6805,10 +6805,10 @@
         <v>2503</v>
       </c>
       <c r="F222" t="n">
-        <v>2792.48938483915</v>
+        <v>2617.25688715253</v>
       </c>
       <c r="G222" t="n">
-        <v>0.896336573357052</v>
+        <v>0.956346462450968</v>
       </c>
       <c r="H222" t="s">
         <v>25</v>
@@ -6831,10 +6831,10 @@
         <v>2411</v>
       </c>
       <c r="F223" t="n">
-        <v>2404.96053190129</v>
+        <v>2296.20687110544</v>
       </c>
       <c r="G223" t="n">
-        <v>1.00251115014304</v>
+        <v>1.04999032591811</v>
       </c>
       <c r="H223" t="s">
         <v>25</v>
@@ -6857,10 +6857,10 @@
         <v>2225</v>
       </c>
       <c r="F224" t="n">
-        <v>2315.81468718231</v>
+        <v>2264.82660894824</v>
       </c>
       <c r="G224" t="n">
-        <v>0.960786687141398</v>
+        <v>0.982415938427809</v>
       </c>
       <c r="H224" t="s">
         <v>25</v>
@@ -6883,10 +6883,10 @@
         <v>2255</v>
       </c>
       <c r="F225" t="n">
-        <v>2173.15010510432</v>
+        <v>2245.42655532661</v>
       </c>
       <c r="G225" t="n">
-        <v>1.03766243687436</v>
+        <v>1.0042633406631</v>
       </c>
       <c r="H225" t="s">
         <v>25</v>
@@ -6909,10 +6909,10 @@
         <v>1946</v>
       </c>
       <c r="F226" t="n">
-        <v>1989.0705433091</v>
+        <v>2021.21423812113</v>
       </c>
       <c r="G226" t="n">
-        <v>0.978347485863404</v>
+        <v>0.962789438325511</v>
       </c>
       <c r="H226" t="s">
         <v>25</v>
@@ -6935,10 +6935,10 @@
         <v>1683</v>
       </c>
       <c r="F227" t="n">
-        <v>1848.7862571643</v>
+        <v>1851.70620809396</v>
       </c>
       <c r="G227" t="n">
-        <v>0.910331824620422</v>
+        <v>0.908896402141557</v>
       </c>
       <c r="H227" t="s">
         <v>25</v>
@@ -6961,10 +6961,10 @@
         <v>1732</v>
       </c>
       <c r="F228" t="n">
-        <v>1978.90669727396</v>
+        <v>2007.40210538828</v>
       </c>
       <c r="G228" t="n">
-        <v>0.875237058260556</v>
+        <v>0.862813540942706</v>
       </c>
       <c r="H228" t="s">
         <v>25</v>
@@ -6987,10 +6987,10 @@
         <v>1187</v>
       </c>
       <c r="F229" t="n">
-        <v>1996.58736491689</v>
+        <v>2081.72976911441</v>
       </c>
       <c r="G229" t="n">
-        <v>0.594534738316137</v>
+        <v>0.57021953361008</v>
       </c>
       <c r="H229" t="s">
         <v>25</v>
@@ -7013,10 +7013,10 @@
         <v>1144</v>
       </c>
       <c r="F230" t="n">
-        <v>2293.04411825805</v>
+        <v>2374.22632057693</v>
       </c>
       <c r="G230" t="n">
-        <v>0.498921978296374</v>
+        <v>0.481862998394424</v>
       </c>
       <c r="H230" t="s">
         <v>25</v>
@@ -7039,10 +7039,10 @@
         <v>2207</v>
       </c>
       <c r="F231" t="n">
-        <v>2257.64403272898</v>
+        <v>2362.57745766725</v>
       </c>
       <c r="G231" t="n">
-        <v>0.977568744731543</v>
+        <v>0.934152053991806</v>
       </c>
       <c r="H231" t="s">
         <v>25</v>
@@ -7065,10 +7065,10 @@
         <v>3117</v>
       </c>
       <c r="F232" t="n">
-        <v>3067.07859658873</v>
+        <v>3085.71793150711</v>
       </c>
       <c r="G232" t="n">
-        <v>1.01627600149101</v>
+        <v>1.01013736687881</v>
       </c>
       <c r="H232" t="s">
         <v>25</v>
@@ -7091,10 +7091,10 @@
         <v>3006</v>
       </c>
       <c r="F233" t="n">
-        <v>2764.26735806444</v>
+        <v>2956.44305647745</v>
       </c>
       <c r="G233" t="n">
-        <v>1.08744591822442</v>
+        <v>1.01676178651076</v>
       </c>
       <c r="H233" t="s">
         <v>25</v>
@@ -7117,10 +7117,10 @@
         <v>2822</v>
       </c>
       <c r="F234" t="n">
-        <v>2790.81011336391</v>
+        <v>2638.67305278411</v>
       </c>
       <c r="G234" t="n">
-        <v>1.01117552531941</v>
+        <v>1.06947431383781</v>
       </c>
       <c r="H234" t="s">
         <v>25</v>
@@ -7143,10 +7143,10 @@
         <v>2529</v>
       </c>
       <c r="F235" t="n">
-        <v>2402.69914027334</v>
+        <v>2305.48884679844</v>
       </c>
       <c r="G235" t="n">
-        <v>1.0525640523212</v>
+        <v>1.09694319675077</v>
       </c>
       <c r="H235" t="s">
         <v>25</v>
@@ -7169,10 +7169,10 @@
         <v>2620</v>
       </c>
       <c r="F236" t="n">
-        <v>2300.30223625939</v>
+        <v>2246.27520836472</v>
       </c>
       <c r="G236" t="n">
-        <v>1.13897472307298</v>
+        <v>1.16636792920598</v>
       </c>
       <c r="H236" t="s">
         <v>25</v>
@@ -7195,10 +7195,10 @@
         <v>2618</v>
       </c>
       <c r="F237" t="n">
-        <v>2179.22796985156</v>
+        <v>2229.19978403744</v>
       </c>
       <c r="G237" t="n">
-        <v>1.2013336387264</v>
+        <v>1.17440463536869</v>
       </c>
       <c r="H237" t="s">
         <v>25</v>
@@ -7221,10 +7221,10 @@
         <v>2550</v>
       </c>
       <c r="F238" t="n">
-        <v>1990.78640302566</v>
+        <v>2019.59601082296</v>
       </c>
       <c r="G238" t="n">
-        <v>1.2808867427717</v>
+        <v>1.26261575322958</v>
       </c>
       <c r="H238" t="s">
         <v>25</v>
@@ -7247,10 +7247,10 @@
         <v>2543</v>
       </c>
       <c r="F239" t="n">
-        <v>1841.14815683974</v>
+        <v>1849.39215209954</v>
       </c>
       <c r="G239" t="n">
-        <v>1.38118264534472</v>
+        <v>1.37502611033687</v>
       </c>
       <c r="H239" t="s">
         <v>25</v>
@@ -7273,10 +7273,10 @@
         <v>2751</v>
       </c>
       <c r="F240" t="n">
-        <v>1981.61674936554</v>
+        <v>1964.3742326996</v>
       </c>
       <c r="G240" t="n">
-        <v>1.38824077703374</v>
+        <v>1.40042559693919</v>
       </c>
       <c r="H240" t="s">
         <v>25</v>
@@ -7299,10 +7299,10 @@
         <v>2668</v>
       </c>
       <c r="F241" t="n">
-        <v>2005.41156049934</v>
+        <v>2064.74047651631</v>
       </c>
       <c r="G241" t="n">
-        <v>1.33038375472425</v>
+        <v>1.2921579319781</v>
       </c>
       <c r="H241" t="s">
         <v>25</v>
@@ -7325,10 +7325,10 @@
         <v>28355</v>
       </c>
       <c r="F242" t="n">
-        <v>40818.042910086</v>
+        <v>41876.3648801867</v>
       </c>
       <c r="G242" t="n">
-        <v>0.694669036326823</v>
+        <v>0.677113029505407</v>
       </c>
       <c r="H242" t="s">
         <v>25</v>
@@ -7351,10 +7351,10 @@
         <v>3263</v>
       </c>
       <c r="F243" t="n">
-        <v>27123.3059108151</v>
+        <v>27498.4615932094</v>
       </c>
       <c r="G243" t="n">
-        <v>0.12030568766804</v>
+        <v>0.11866438864227</v>
       </c>
       <c r="H243" t="s">
         <v>25</v>
@@ -7377,10 +7377,10 @@
         <v>2869</v>
       </c>
       <c r="F244" t="n">
-        <v>48825.067791414</v>
+        <v>46566.7100896596</v>
       </c>
       <c r="G244" t="n">
-        <v>0.058762726884157</v>
+        <v>0.0616125518255565</v>
       </c>
       <c r="H244" t="s">
         <v>25</v>
@@ -7403,10 +7403,10 @@
         <v>3001</v>
       </c>
       <c r="F245" t="n">
-        <v>132442.004735931</v>
+        <v>125684.134140611</v>
       </c>
       <c r="G245" t="n">
-        <v>0.0226597123775987</v>
+        <v>0.0238780943411126</v>
       </c>
       <c r="H245" t="s">
         <v>25</v>
@@ -7429,10 +7429,10 @@
         <v>3919</v>
       </c>
       <c r="F246" t="n">
-        <v>258161.128878756</v>
+        <v>248798.752007555</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0151808233057357</v>
+        <v>0.0157520823282617</v>
       </c>
       <c r="H246" t="s">
         <v>25</v>
@@ -7455,10 +7455,10 @@
         <v>6260</v>
       </c>
       <c r="F247" t="n">
-        <v>297249.544712104</v>
+        <v>295382.559620346</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0210600756346172</v>
+        <v>0.0211931871967233</v>
       </c>
       <c r="H247" t="s">
         <v>25</v>
@@ -7481,10 +7481,10 @@
         <v>59143</v>
       </c>
       <c r="F248" t="n">
-        <v>253146.64626667</v>
+        <v>262103.083603862</v>
       </c>
       <c r="G248" t="n">
-        <v>0.233631681513684</v>
+        <v>0.225648155763677</v>
       </c>
       <c r="H248" t="s">
         <v>25</v>
@@ -7507,10 +7507,10 @@
         <v>59143</v>
       </c>
       <c r="F249" t="n">
-        <v>156469.94900374</v>
+        <v>171848.803124517</v>
       </c>
       <c r="G249" t="n">
-        <v>0.377983520658234</v>
+        <v>0.344157564725022</v>
       </c>
       <c r="H249" t="s">
         <v>25</v>
@@ -7533,10 +7533,10 @@
         <v>115170</v>
       </c>
       <c r="F250" t="n">
-        <v>153359.096712315</v>
+        <v>154835.519854294</v>
       </c>
       <c r="G250" t="n">
-        <v>0.750982676415856</v>
+        <v>0.743821738876231</v>
       </c>
       <c r="H250" t="s">
         <v>25</v>
@@ -7559,10 +7559,10 @@
         <v>199875</v>
       </c>
       <c r="F251" t="n">
-        <v>139994.219979486</v>
+        <v>139346.099948251</v>
       </c>
       <c r="G251" t="n">
-        <v>1.42773721126178</v>
+        <v>1.43437783071392</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
@@ -7585,10 +7585,10 @@
         <v>189017</v>
       </c>
       <c r="F252" t="n">
-        <v>116688.759912146</v>
+        <v>118956.352470534</v>
       </c>
       <c r="G252" t="n">
-        <v>1.61983843309729</v>
+        <v>1.58896046472822</v>
       </c>
       <c r="H252" t="s">
         <v>25</v>
@@ -7611,10 +7611,10 @@
         <v>131798</v>
       </c>
       <c r="F253" t="n">
-        <v>86721.9179422011</v>
+        <v>92640.4797161837</v>
       </c>
       <c r="G253" t="n">
-        <v>1.51977667410647</v>
+        <v>1.42268215941416</v>
       </c>
       <c r="H253" t="s">
         <v>25</v>
@@ -7637,10 +7637,10 @@
         <v>63209</v>
       </c>
       <c r="F254" t="n">
-        <v>50454.5508122049</v>
+        <v>57838.7201634386</v>
       </c>
       <c r="G254" t="n">
-        <v>1.25279035693395</v>
+        <v>1.09284905572739</v>
       </c>
       <c r="H254" t="s">
         <v>25</v>
@@ -7663,10 +7663,10 @@
         <v>18529</v>
       </c>
       <c r="F255" t="n">
-        <v>29516.4615028746</v>
+        <v>33627.1544384413</v>
       </c>
       <c r="G255" t="n">
-        <v>0.62775266008527</v>
+        <v>0.551014357533105</v>
       </c>
       <c r="H255" t="s">
         <v>25</v>
@@ -7689,10 +7689,10 @@
         <v>36206</v>
       </c>
       <c r="F256" t="n">
-        <v>59253.1789248169</v>
+        <v>52757.7892403959</v>
       </c>
       <c r="G256" t="n">
-        <v>0.611039602482419</v>
+        <v>0.686268926245775</v>
       </c>
       <c r="H256" t="s">
         <v>25</v>
@@ -7715,10 +7715,10 @@
         <v>144167</v>
       </c>
       <c r="F257" t="n">
-        <v>154596.032677217</v>
+        <v>136960.256965505</v>
       </c>
       <c r="G257" t="n">
-        <v>0.932540145108339</v>
+        <v>1.05261918991866</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
@@ -7741,10 +7741,10 @@
         <v>240838</v>
       </c>
       <c r="F258" t="n">
-        <v>288026.917783123</v>
+        <v>263505.875779251</v>
       </c>
       <c r="G258" t="n">
-        <v>0.836164960682074</v>
+        <v>0.913975856857832</v>
       </c>
       <c r="H258" t="s">
         <v>25</v>
@@ -7767,10 +7767,10 @@
         <v>224426</v>
       </c>
       <c r="F259" t="n">
-        <v>325074.487408575</v>
+        <v>314036.606287151</v>
       </c>
       <c r="G259" t="n">
-        <v>0.690383403356986</v>
+        <v>0.714649260761217</v>
       </c>
       <c r="H259" t="s">
         <v>25</v>
@@ -7793,10 +7793,10 @@
         <v>162987</v>
       </c>
       <c r="F260" t="n">
-        <v>272810.224844852</v>
+        <v>286350.637392849</v>
       </c>
       <c r="G260" t="n">
-        <v>0.597437432372441</v>
+        <v>0.569186940058043</v>
       </c>
       <c r="H260" t="s">
         <v>25</v>
@@ -7819,10 +7819,10 @@
         <v>71283</v>
       </c>
       <c r="F261" t="n">
-        <v>167539.932700804</v>
+        <v>188441.923958985</v>
       </c>
       <c r="G261" t="n">
-        <v>0.425469058653574</v>
+        <v>0.378276026240914</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -7845,10 +7845,10 @@
         <v>86635</v>
       </c>
       <c r="F262" t="n">
-        <v>165087.766767776</v>
+        <v>168534.946337614</v>
       </c>
       <c r="G262" t="n">
-        <v>0.524781752264489</v>
+        <v>0.514047979234243</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
@@ -7871,10 +7871,10 @@
         <v>132070</v>
       </c>
       <c r="F263" t="n">
-        <v>151158.423248932</v>
+        <v>149086.540108256</v>
       </c>
       <c r="G263" t="n">
-        <v>0.873719173496445</v>
+        <v>0.885861401827154</v>
       </c>
       <c r="H263" t="s">
         <v>25</v>
@@ -7897,10 +7897,10 @@
         <v>113473</v>
       </c>
       <c r="F264" t="n">
-        <v>129167.332911146</v>
+        <v>130596.52247905</v>
       </c>
       <c r="G264" t="n">
-        <v>0.878496207926172</v>
+        <v>0.868882348149571</v>
       </c>
       <c r="H264" t="s">
         <v>25</v>
@@ -7923,10 +7923,10 @@
         <v>74421</v>
       </c>
       <c r="F265" t="n">
-        <v>97752.8789037603</v>
+        <v>108057.271994653</v>
       </c>
       <c r="G265" t="n">
-        <v>0.761317975519386</v>
+        <v>0.688718396776136</v>
       </c>
       <c r="H265" t="s">
         <v>25</v>
@@ -7949,10 +7949,10 @@
         <v>44183</v>
       </c>
       <c r="F266" t="n">
-        <v>57793.6040910923</v>
+        <v>73976.4506348854</v>
       </c>
       <c r="G266" t="n">
-        <v>0.764496768200914</v>
+        <v>0.597258180069353</v>
       </c>
       <c r="H266" t="s">
         <v>25</v>
@@ -7975,10 +7975,10 @@
         <v>18134</v>
       </c>
       <c r="F267" t="n">
-        <v>33326.2543472187</v>
+        <v>43631.639282736</v>
       </c>
       <c r="G267" t="n">
-        <v>0.544136925721472</v>
+        <v>0.415617169934255</v>
       </c>
       <c r="H267" t="s">
         <v>25</v>
@@ -8001,10 +8001,10 @@
         <v>33287</v>
       </c>
       <c r="F268" t="n">
-        <v>68243.6312986068</v>
+        <v>60269.6588007294</v>
       </c>
       <c r="G268" t="n">
-        <v>0.487767877965951</v>
+        <v>0.552301861868363</v>
       </c>
       <c r="H268" t="s">
         <v>25</v>
@@ -8027,10 +8027,10 @@
         <v>44794</v>
       </c>
       <c r="F269" t="n">
-        <v>172886.107111505</v>
+        <v>150394.25460422</v>
       </c>
       <c r="G269" t="n">
-        <v>0.259095857028719</v>
+        <v>0.297844291548581</v>
       </c>
       <c r="H269" t="s">
         <v>25</v>
@@ -8053,10 +8053,10 @@
         <v>70042</v>
       </c>
       <c r="F270" t="n">
-        <v>313795.920255571</v>
+        <v>284568.332300173</v>
       </c>
       <c r="G270" t="n">
-        <v>0.223209013112895</v>
+        <v>0.246134469076026</v>
       </c>
       <c r="H270" t="s">
         <v>25</v>
@@ -8079,10 +8079,10 @@
         <v>140661</v>
       </c>
       <c r="F271" t="n">
-        <v>350411.044489776</v>
+        <v>338826.222817409</v>
       </c>
       <c r="G271" t="n">
-        <v>0.401417312810678</v>
+        <v>0.415142185029707</v>
       </c>
       <c r="H271" t="s">
         <v>25</v>
@@ -8105,10 +8105,10 @@
         <v>108973</v>
       </c>
       <c r="F272" t="n">
-        <v>292238.051167772</v>
+        <v>311091.420382998</v>
       </c>
       <c r="G272" t="n">
-        <v>0.372891422849987</v>
+        <v>0.350292736574236</v>
       </c>
       <c r="H272" t="s">
         <v>25</v>
@@ -8131,10 +8131,10 @@
         <v>54528</v>
       </c>
       <c r="F273" t="n">
-        <v>179448.18040895</v>
+        <v>206278.57541389</v>
       </c>
       <c r="G273" t="n">
-        <v>0.30386526901085</v>
+        <v>0.264341914599711</v>
       </c>
       <c r="H273" t="s">
         <v>25</v>
@@ -8157,10 +8157,10 @@
         <v>44872</v>
       </c>
       <c r="F274" t="n">
-        <v>177269.191719826</v>
+        <v>182691.287931286</v>
       </c>
       <c r="G274" t="n">
-        <v>0.253129572328412</v>
+        <v>0.245616941817079</v>
       </c>
       <c r="H274" t="s">
         <v>25</v>
@@ -8183,10 +8183,10 @@
         <v>47395</v>
       </c>
       <c r="F275" t="n">
-        <v>165212.043904712</v>
+        <v>162747.055037124</v>
       </c>
       <c r="G275" t="n">
-        <v>0.286874190237103</v>
+        <v>0.291219222782658</v>
       </c>
       <c r="H275" t="s">
         <v>25</v>
@@ -8209,10 +8209,10 @@
         <v>50633</v>
       </c>
       <c r="F276" t="n">
-        <v>144308.611421153</v>
+        <v>144881.238831924</v>
       </c>
       <c r="G276" t="n">
-        <v>0.350866552000672</v>
+        <v>0.349479790897979</v>
       </c>
       <c r="H276" t="s">
         <v>25</v>
@@ -8235,10 +8235,10 @@
         <v>27747</v>
       </c>
       <c r="F277" t="n">
-        <v>111748.301033135</v>
+        <v>121135.399212847</v>
       </c>
       <c r="G277" t="n">
-        <v>0.248299749647179</v>
+        <v>0.22905837000965</v>
       </c>
       <c r="H277" t="s">
         <v>25</v>
@@ -8261,10 +8261,10 @@
         <v>2484</v>
       </c>
       <c r="F278" t="n">
-        <v>68118.8211009642</v>
+        <v>84504.2911625022</v>
       </c>
       <c r="G278" t="n">
-        <v>0.0364671072273462</v>
+        <v>0.0293961055257243</v>
       </c>
       <c r="H278" t="s">
         <v>25</v>
@@ -8287,10 +8287,10 @@
         <v>3935</v>
       </c>
       <c r="F279" t="n">
-        <v>39979.494963539</v>
+        <v>53522.3894208592</v>
       </c>
       <c r="G279" t="n">
-        <v>0.0984277105255512</v>
+        <v>0.0735223649456481</v>
       </c>
       <c r="H279" t="s">
         <v>25</v>
@@ -8313,10 +8313,10 @@
         <v>9631</v>
       </c>
       <c r="F280" t="n">
-        <v>78199.3178494901</v>
+        <v>71924.0476560869</v>
       </c>
       <c r="G280" t="n">
-        <v>0.123160763402829</v>
+        <v>0.133906348755805</v>
       </c>
       <c r="H280" t="s">
         <v>25</v>
@@ -8339,10 +8339,10 @@
         <v>20105</v>
       </c>
       <c r="F281" t="n">
-        <v>189517.694717563</v>
+        <v>167517.152099575</v>
       </c>
       <c r="G281" t="n">
-        <v>0.10608555270476</v>
+        <v>0.120018086185232</v>
       </c>
       <c r="H281" t="s">
         <v>25</v>
@@ -8365,10 +8365,10 @@
         <v>91259</v>
       </c>
       <c r="F282" t="n">
-        <v>336617.372550921</v>
+        <v>305957.811928176</v>
       </c>
       <c r="G282" t="n">
-        <v>0.27110624801627</v>
+        <v>0.298273378272444</v>
       </c>
       <c r="H282" t="s">
         <v>25</v>
@@ -8391,10 +8391,10 @@
         <v>433084</v>
       </c>
       <c r="F283" t="n">
-        <v>375090.491909221</v>
+        <v>356991.938167909</v>
       </c>
       <c r="G283" t="n">
-        <v>1.1546120039844</v>
+        <v>1.21314778397467</v>
       </c>
       <c r="H283" t="s">
         <v>25</v>
@@ -8417,10 +8417,10 @@
         <v>457212</v>
       </c>
       <c r="F284" t="n">
-        <v>315360.342342879</v>
+        <v>326893.430571655</v>
       </c>
       <c r="G284" t="n">
-        <v>1.4498080247582</v>
+        <v>1.39865753598871</v>
       </c>
       <c r="H284" t="s">
         <v>25</v>
@@ -8443,10 +8443,10 @@
         <v>193538</v>
       </c>
       <c r="F285" t="n">
-        <v>195741.1886999</v>
+        <v>221885.722752484</v>
       </c>
       <c r="G285" t="n">
-        <v>0.988744384414073</v>
+        <v>0.872241847627614</v>
       </c>
       <c r="H285" t="s">
         <v>25</v>
@@ -8469,10 +8469,10 @@
         <v>166980</v>
       </c>
       <c r="F286" t="n">
-        <v>193076.394941924</v>
+        <v>201293.5696612</v>
       </c>
       <c r="G286" t="n">
-        <v>0.864839089036842</v>
+        <v>0.829534780110305</v>
       </c>
       <c r="H286" t="s">
         <v>25</v>
@@ -8495,10 +8495,10 @@
         <v>165527</v>
       </c>
       <c r="F287" t="n">
-        <v>181345.479967299</v>
+        <v>179890.815172356</v>
       </c>
       <c r="G287" t="n">
-        <v>0.912771626580855</v>
+        <v>0.920152637176848</v>
       </c>
       <c r="H287" t="s">
         <v>25</v>
@@ -8521,10 +8521,10 @@
         <v>92955</v>
       </c>
       <c r="F288" t="n">
-        <v>160857.404064464</v>
+        <v>160502.748528239</v>
       </c>
       <c r="G288" t="n">
-        <v>0.577872325824153</v>
+        <v>0.57914922291018</v>
       </c>
       <c r="H288" t="s">
         <v>25</v>
@@ -8547,10 +8547,10 @@
         <v>46150</v>
       </c>
       <c r="F289" t="n">
-        <v>127122.545706426</v>
+        <v>134652.984822761</v>
       </c>
       <c r="G289" t="n">
-        <v>0.363036025120008</v>
+        <v>0.342733328840893</v>
       </c>
       <c r="H289" t="s">
         <v>25</v>
@@ -10063,13 +10063,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.771437383253213</v>
+        <v>0.783015335135096</v>
       </c>
       <c r="E10" t="n">
-        <v>0.702166780059484</v>
+        <v>0.71509058932895</v>
       </c>
       <c r="F10" t="n">
-        <v>0.831847637107709</v>
+        <v>0.839424369491798</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10089,13 +10089,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.78188448840724</v>
+        <v>0.822980509912065</v>
       </c>
       <c r="E11" t="n">
-        <v>0.771154272970033</v>
+        <v>0.799945030509723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.84043693274567</v>
+        <v>0.874606117887319</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -15153,10 +15153,10 @@
         <v>39671</v>
       </c>
       <c r="F194" t="n">
-        <v>47143.2748783612</v>
+        <v>46548.1874247757</v>
       </c>
       <c r="G194" t="n">
-        <v>0.841498940251073</v>
+        <v>0.852256918455065</v>
       </c>
       <c r="H194" t="s">
         <v>25</v>
@@ -15179,10 +15179,10 @@
         <v>21448</v>
       </c>
       <c r="F195" t="n">
-        <v>42940.2621192623</v>
+        <v>40832.1812665575</v>
       </c>
       <c r="G195" t="n">
-        <v>0.499485773790873</v>
+        <v>0.525273125446617</v>
       </c>
       <c r="H195" t="s">
         <v>25</v>
@@ -15205,10 +15205,10 @@
         <v>41154</v>
       </c>
       <c r="F196" t="n">
-        <v>54861.1237072721</v>
+        <v>54904.8279638594</v>
       </c>
       <c r="G196" t="n">
-        <v>0.750149143948913</v>
+        <v>0.74955202613305</v>
       </c>
       <c r="H196" t="s">
         <v>25</v>
@@ -15231,10 +15231,10 @@
         <v>46728</v>
       </c>
       <c r="F197" t="n">
-        <v>53181.7715913498</v>
+        <v>53207.9267047333</v>
       </c>
       <c r="G197" t="n">
-        <v>0.878647151778699</v>
+        <v>0.878215241082097</v>
       </c>
       <c r="H197" t="s">
         <v>25</v>
@@ -15257,10 +15257,10 @@
         <v>46753</v>
       </c>
       <c r="F198" t="n">
-        <v>55417.7426364816</v>
+        <v>55367.0269765961</v>
       </c>
       <c r="G198" t="n">
-        <v>0.843647059786885</v>
+        <v>0.844419830918132</v>
       </c>
       <c r="H198" t="s">
         <v>25</v>
@@ -15283,10 +15283,10 @@
         <v>46538</v>
       </c>
       <c r="F199" t="n">
-        <v>53741.9375247547</v>
+        <v>54132.7866939208</v>
       </c>
       <c r="G199" t="n">
-        <v>0.865953397813836</v>
+        <v>0.859701058676893</v>
       </c>
       <c r="H199" t="s">
         <v>25</v>
@@ -15309,10 +15309,10 @@
         <v>46838</v>
       </c>
       <c r="F200" t="n">
-        <v>58391.6418628782</v>
+        <v>57842.2712865972</v>
       </c>
       <c r="G200" t="n">
-        <v>0.80213568744002</v>
+        <v>0.809754146625952</v>
       </c>
       <c r="H200" t="s">
         <v>25</v>
@@ -15335,10 +15335,10 @@
         <v>46838</v>
       </c>
       <c r="F201" t="n">
-        <v>57337.7679314464</v>
+        <v>57506.6130079996</v>
       </c>
       <c r="G201" t="n">
-        <v>0.816878996198463</v>
+        <v>0.814480563225453</v>
       </c>
       <c r="H201" t="s">
         <v>25</v>
@@ -15361,10 +15361,10 @@
         <v>48965</v>
       </c>
       <c r="F202" t="n">
-        <v>55430.1696665096</v>
+        <v>55855.758353404</v>
       </c>
       <c r="G202" t="n">
-        <v>0.883363914601054</v>
+        <v>0.876633202737559</v>
       </c>
       <c r="H202" t="s">
         <v>25</v>
@@ -15387,10 +15387,10 @@
         <v>44438</v>
       </c>
       <c r="F203" t="n">
-        <v>53420.8607837668</v>
+        <v>53576.8901383832</v>
       </c>
       <c r="G203" t="n">
-        <v>0.831847637107709</v>
+        <v>0.829425092473868</v>
       </c>
       <c r="H203" t="s">
         <v>25</v>
@@ -15413,10 +15413,10 @@
         <v>45305</v>
       </c>
       <c r="F204" t="n">
-        <v>54133.7946246996</v>
+        <v>53971.5282330813</v>
       </c>
       <c r="G204" t="n">
-        <v>0.836908194285521</v>
+        <v>0.839424369491798</v>
       </c>
       <c r="H204" t="s">
         <v>25</v>
@@ -15439,10 +15439,10 @@
         <v>44696</v>
       </c>
       <c r="F205" t="n">
-        <v>52715.0433056583</v>
+        <v>53159.1236826519</v>
       </c>
       <c r="G205" t="n">
-        <v>0.847879702059018</v>
+        <v>0.840796702879358</v>
       </c>
       <c r="H205" t="s">
         <v>25</v>
@@ -15465,10 +15465,10 @@
         <v>40079</v>
       </c>
       <c r="F206" t="n">
-        <v>51797.9134642957</v>
+        <v>50401.7709597161</v>
       </c>
       <c r="G206" t="n">
-        <v>0.773757472912093</v>
+        <v>0.795190718853143</v>
       </c>
       <c r="H206" t="s">
         <v>25</v>
@@ -15491,10 +15491,10 @@
         <v>33615</v>
       </c>
       <c r="F207" t="n">
-        <v>46851.9601903607</v>
+        <v>44865.8300267125</v>
       </c>
       <c r="G207" t="n">
-        <v>0.717473252263002</v>
+        <v>0.749234440921788</v>
       </c>
       <c r="H207" t="s">
         <v>25</v>
@@ -15517,10 +15517,10 @@
         <v>50682</v>
       </c>
       <c r="F208" t="n">
-        <v>59611.4282689991</v>
+        <v>58902.3191234587</v>
       </c>
       <c r="G208" t="n">
-        <v>0.850206352222598</v>
+        <v>0.860441739986451</v>
       </c>
       <c r="H208" t="s">
         <v>25</v>
@@ -15543,10 +15543,10 @@
         <v>49113</v>
       </c>
       <c r="F209" t="n">
-        <v>57267.4963287651</v>
+        <v>56986.2087208306</v>
       </c>
       <c r="G209" t="n">
-        <v>0.857607148692756</v>
+        <v>0.861840345557377</v>
       </c>
       <c r="H209" t="s">
         <v>25</v>
@@ -15569,10 +15569,10 @@
         <v>47999</v>
       </c>
       <c r="F210" t="n">
-        <v>59769.742160599</v>
+        <v>59168.6692795098</v>
       </c>
       <c r="G210" t="n">
-        <v>0.803065530456455</v>
+        <v>0.811223565818229</v>
       </c>
       <c r="H210" t="s">
         <v>25</v>
@@ -15595,10 +15595,10 @@
         <v>47423</v>
       </c>
       <c r="F211" t="n">
-        <v>58385.8028459653</v>
+        <v>57974.2101509399</v>
       </c>
       <c r="G211" t="n">
-        <v>0.812235448771126</v>
+        <v>0.818001971503082</v>
       </c>
       <c r="H211" t="s">
         <v>25</v>
@@ -15621,10 +15621,10 @@
         <v>51531</v>
       </c>
       <c r="F212" t="n">
-        <v>62175.6321851043</v>
+        <v>61383.9462014254</v>
       </c>
       <c r="G212" t="n">
-        <v>0.828797638387048</v>
+        <v>0.83948685674623</v>
       </c>
       <c r="H212" t="s">
         <v>25</v>
@@ -15647,10 +15647,10 @@
         <v>46091</v>
       </c>
       <c r="F213" t="n">
-        <v>61454.8034260203</v>
+        <v>61050.8621870174</v>
       </c>
       <c r="G213" t="n">
-        <v>0.749998737781513</v>
+        <v>0.754961074303942</v>
       </c>
       <c r="H213" t="s">
         <v>25</v>
@@ -15673,10 +15673,10 @@
         <v>45792</v>
       </c>
       <c r="F214" t="n">
-        <v>59702.1358288894</v>
+        <v>59482.7690533154</v>
       </c>
       <c r="G214" t="n">
-        <v>0.767008125646135</v>
+        <v>0.76983677365925</v>
       </c>
       <c r="H214" t="s">
         <v>25</v>
@@ -15699,10 +15699,10 @@
         <v>40900</v>
       </c>
       <c r="F215" t="n">
-        <v>56997.7036869599</v>
+        <v>57195.5904626324</v>
       </c>
       <c r="G215" t="n">
-        <v>0.7175732634301</v>
+        <v>0.71509058932895</v>
       </c>
       <c r="H215" t="s">
         <v>25</v>
@@ -15725,10 +15725,10 @@
         <v>42174</v>
       </c>
       <c r="F216" t="n">
-        <v>58864.9215770611</v>
+        <v>57649.6116281753</v>
       </c>
       <c r="G216" t="n">
-        <v>0.71645433688985</v>
+        <v>0.731557865753281</v>
       </c>
       <c r="H216" t="s">
         <v>25</v>
@@ -15751,10 +15751,10 @@
         <v>42321</v>
       </c>
       <c r="F217" t="n">
-        <v>57985.7513175162</v>
+        <v>56893.5096951378</v>
       </c>
       <c r="G217" t="n">
-        <v>0.729852180116493</v>
+        <v>0.743863857940742</v>
       </c>
       <c r="H217" t="s">
         <v>25</v>
@@ -15777,10 +15777,10 @@
         <v>39586</v>
       </c>
       <c r="F218" t="n">
-        <v>56376.9618664792</v>
+        <v>54215.5824831306</v>
       </c>
       <c r="G218" t="n">
-        <v>0.702166780059484</v>
+        <v>0.730159580898338</v>
       </c>
       <c r="H218" t="s">
         <v>25</v>
@@ -15803,10 +15803,10 @@
         <v>34683</v>
       </c>
       <c r="F219" t="n">
-        <v>51215.5235574796</v>
+        <v>49106.2634915013</v>
       </c>
       <c r="G219" t="n">
-        <v>0.677197651632123</v>
+        <v>0.706285245617964</v>
       </c>
       <c r="H219" t="s">
         <v>25</v>
@@ -15829,10 +15829,10 @@
         <v>46978</v>
       </c>
       <c r="F220" t="n">
-        <v>64636.1495543471</v>
+        <v>62610.9000494958</v>
       </c>
       <c r="G220" t="n">
-        <v>0.726807330621807</v>
+        <v>0.750317036349243</v>
       </c>
       <c r="H220" t="s">
         <v>25</v>
@@ -15855,10 +15855,10 @@
         <v>39513</v>
       </c>
       <c r="F221" t="n">
-        <v>61425.0620229439</v>
+        <v>60580.5104261669</v>
       </c>
       <c r="G221" t="n">
-        <v>0.643272214491527</v>
+        <v>0.652240043836417</v>
       </c>
       <c r="H221" t="s">
         <v>25</v>
@@ -15881,10 +15881,10 @@
         <v>43751</v>
       </c>
       <c r="F222" t="n">
-        <v>63979.6101247075</v>
+        <v>62792.4744360368</v>
       </c>
       <c r="G222" t="n">
-        <v>0.683827730927845</v>
+        <v>0.696755952323101</v>
       </c>
       <c r="H222" t="s">
         <v>25</v>
@@ -15907,10 +15907,10 @@
         <v>48507</v>
       </c>
       <c r="F223" t="n">
-        <v>62757.189639569</v>
+        <v>61612.2623358464</v>
       </c>
       <c r="G223" t="n">
-        <v>0.772931722810028</v>
+        <v>0.787294922009155</v>
       </c>
       <c r="H223" t="s">
         <v>25</v>
@@ -15933,10 +15933,10 @@
         <v>51391</v>
       </c>
       <c r="F224" t="n">
-        <v>65626.159514931</v>
+        <v>64823.9644796026</v>
       </c>
       <c r="G224" t="n">
-        <v>0.783087446699712</v>
+        <v>0.792778120479789</v>
       </c>
       <c r="H224" t="s">
         <v>25</v>
@@ -15959,10 +15959,10 @@
         <v>50482</v>
       </c>
       <c r="F225" t="n">
-        <v>65438.9117667269</v>
+        <v>64471.3065418529</v>
       </c>
       <c r="G225" t="n">
-        <v>0.771437383253213</v>
+        <v>0.783015335135096</v>
       </c>
       <c r="H225" t="s">
         <v>25</v>
@@ -15985,10 +15985,10 @@
         <v>44470</v>
       </c>
       <c r="F226" t="n">
-        <v>64247.2626792088</v>
+        <v>62894.0854507007</v>
       </c>
       <c r="G226" t="n">
-        <v>0.692170046295006</v>
+        <v>0.707062182001827</v>
       </c>
       <c r="H226" t="s">
         <v>25</v>
@@ -16011,10 +16011,10 @@
         <v>39054</v>
       </c>
       <c r="F227" t="n">
-        <v>61835.426759836</v>
+        <v>60516.308901921</v>
       </c>
       <c r="G227" t="n">
-        <v>0.631580291240711</v>
+        <v>0.645347281979257</v>
       </c>
       <c r="H227" t="s">
         <v>25</v>
@@ -16037,10 +16037,10 @@
         <v>35152</v>
       </c>
       <c r="F228" t="n">
-        <v>62995.7763419446</v>
+        <v>61039.6776414003</v>
       </c>
       <c r="G228" t="n">
-        <v>0.558006365514986</v>
+        <v>0.575888401928877</v>
       </c>
       <c r="H228" t="s">
         <v>25</v>
@@ -16063,10 +16063,10 @@
         <v>24367</v>
       </c>
       <c r="F229" t="n">
-        <v>61404.018295834</v>
+        <v>60323.236336649</v>
       </c>
       <c r="G229" t="n">
-        <v>0.396831689408904</v>
+        <v>0.403941517160349</v>
       </c>
       <c r="H229" t="s">
         <v>25</v>
@@ -16089,10 +16089,10 @@
         <v>28708</v>
       </c>
       <c r="F230" t="n">
-        <v>59512.7200783423</v>
+        <v>57617.3126811573</v>
       </c>
       <c r="G230" t="n">
-        <v>0.482385139239055</v>
+        <v>0.498253889997883</v>
       </c>
       <c r="H230" t="s">
         <v>25</v>
@@ -16115,10 +16115,10 @@
         <v>43574</v>
       </c>
       <c r="F231" t="n">
-        <v>55729.4874851845</v>
+        <v>52946.5973703373</v>
       </c>
       <c r="G231" t="n">
-        <v>0.78188448840724</v>
+        <v>0.822980509912065</v>
       </c>
       <c r="H231" t="s">
         <v>25</v>
@@ -16141,10 +16141,10 @@
         <v>49855</v>
       </c>
       <c r="F232" t="n">
-        <v>68520.4972226154</v>
+        <v>65995.6050731975</v>
       </c>
       <c r="G232" t="n">
-        <v>0.727592899373405</v>
+        <v>0.755429462337048</v>
       </c>
       <c r="H232" t="s">
         <v>25</v>
@@ -16167,10 +16167,10 @@
         <v>48926</v>
       </c>
       <c r="F233" t="n">
-        <v>65931.9415049368</v>
+        <v>63962.8740791091</v>
       </c>
       <c r="G233" t="n">
-        <v>0.742068634357948</v>
+        <v>0.764912837534547</v>
       </c>
       <c r="H233" t="s">
         <v>25</v>
@@ -16193,10 +16193,10 @@
         <v>53258</v>
       </c>
       <c r="F234" t="n">
-        <v>68173.3422869899</v>
+        <v>66184.4773293444</v>
       </c>
       <c r="G234" t="n">
-        <v>0.781214769466961</v>
+        <v>0.804690490580301</v>
       </c>
       <c r="H234" t="s">
         <v>25</v>
@@ -16219,10 +16219,10 @@
         <v>52007</v>
       </c>
       <c r="F235" t="n">
-        <v>67070.2528401935</v>
+        <v>65006.9574179475</v>
       </c>
       <c r="G235" t="n">
-        <v>0.77541115854744</v>
+        <v>0.800022367812046</v>
       </c>
       <c r="H235" t="s">
         <v>25</v>
@@ -16245,10 +16245,10 @@
         <v>58247</v>
       </c>
       <c r="F236" t="n">
-        <v>70708.950240428</v>
+        <v>68160.3455723173</v>
       </c>
       <c r="G236" t="n">
-        <v>0.823757352162781</v>
+        <v>0.854558674182971</v>
       </c>
       <c r="H236" t="s">
         <v>25</v>
@@ -16271,10 +16271,10 @@
         <v>61068</v>
       </c>
       <c r="F237" t="n">
-        <v>70076.5915395012</v>
+        <v>67790.7484116293</v>
       </c>
       <c r="G237" t="n">
-        <v>0.871446677324611</v>
+        <v>0.900831032961729</v>
       </c>
       <c r="H237" t="s">
         <v>25</v>
@@ -16297,10 +16297,10 @@
         <v>55767</v>
       </c>
       <c r="F238" t="n">
-        <v>68200.9247248629</v>
+        <v>66159.4817305414</v>
       </c>
       <c r="G238" t="n">
-        <v>0.817687127502498</v>
+        <v>0.842917965036893</v>
       </c>
       <c r="H238" t="s">
         <v>25</v>
@@ -16323,10 +16323,10 @@
         <v>56981</v>
       </c>
       <c r="F239" t="n">
-        <v>65951.7513096778</v>
+        <v>63690.5870393782</v>
       </c>
       <c r="G239" t="n">
-        <v>0.863980295753101</v>
+        <v>0.894653561591668</v>
       </c>
       <c r="H239" t="s">
         <v>25</v>
@@ -16349,10 +16349,10 @@
         <v>57719</v>
       </c>
       <c r="F240" t="n">
-        <v>67340.9196892035</v>
+        <v>64254.5337322131</v>
       </c>
       <c r="G240" t="n">
-        <v>0.85711651332856</v>
+        <v>0.898286966206196</v>
       </c>
       <c r="H240" t="s">
         <v>25</v>
@@ -16375,10 +16375,10 @@
         <v>50823</v>
       </c>
       <c r="F241" t="n">
-        <v>66270.9563831667</v>
+        <v>63539.283365021</v>
       </c>
       <c r="G241" t="n">
-        <v>0.766897387392627</v>
+        <v>0.7998676932074</v>
       </c>
       <c r="H241" t="s">
         <v>25</v>
@@ -16435,13 +16435,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.370269174297564</v>
+        <v>0.36832497130689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.299208420273494</v>
+        <v>0.295943836400648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.519424471517087</v>
+        <v>0.513175676814821</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -16461,13 +16461,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.295947678441419</v>
+        <v>0.291542930404546</v>
       </c>
       <c r="E3" t="n">
-        <v>0.265514686317436</v>
+        <v>0.258445849276354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.367469591211987</v>
+        <v>0.358452853768361</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -16741,10 +16741,10 @@
         <v>17159</v>
       </c>
       <c r="F2" t="n">
-        <v>24345.720002228</v>
+        <v>24427.5641012367</v>
       </c>
       <c r="G2" t="n">
-        <v>0.70480682098322</v>
+        <v>0.702445388510614</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -16767,10 +16767,10 @@
         <v>8018</v>
       </c>
       <c r="F3" t="n">
-        <v>13722.578714287</v>
+        <v>13781.3579254822</v>
       </c>
       <c r="G3" t="n">
-        <v>0.584295542214522</v>
+        <v>0.581803466901304</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -16793,10 +16793,10 @@
         <v>6028</v>
       </c>
       <c r="F4" t="n">
-        <v>18536.8268197417</v>
+        <v>18575.0899678734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.325194141327683</v>
+        <v>0.324524271914627</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -16819,10 +16819,10 @@
         <v>6169</v>
       </c>
       <c r="F5" t="n">
-        <v>27202.8550129773</v>
+        <v>27202.4601482025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.226780509582764</v>
+        <v>0.22678380146538</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -16845,10 +16845,10 @@
         <v>9273</v>
       </c>
       <c r="F6" t="n">
-        <v>36433.7550115936</v>
+        <v>36451.3056794192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.254518770990586</v>
+        <v>0.254396224978388</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -16871,10 +16871,10 @@
         <v>11995</v>
       </c>
       <c r="F7" t="n">
-        <v>39338.5856958</v>
+        <v>39349.8473487291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.304918677069088</v>
+        <v>0.304831411683894</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -16897,10 +16897,10 @@
         <v>9008</v>
       </c>
       <c r="F8" t="n">
-        <v>32994.6759290356</v>
+        <v>33117.115689903</v>
       </c>
       <c r="G8" t="n">
-        <v>0.27301594711158</v>
+        <v>0.272006562518674</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -16923,10 +16923,10 @@
         <v>9008</v>
       </c>
       <c r="F9" t="n">
-        <v>21262.6117867352</v>
+        <v>21336.7649947006</v>
       </c>
       <c r="G9" t="n">
-        <v>0.423657155792317</v>
+        <v>0.422184796231186</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -16949,10 +16949,10 @@
         <v>13212</v>
       </c>
       <c r="F10" t="n">
-        <v>19393.778172098</v>
+        <v>19476.0657317897</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681251056790089</v>
+        <v>0.678372744509703</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -16975,10 +16975,10 @@
         <v>12818</v>
       </c>
       <c r="F11" t="n">
-        <v>20393.9020415401</v>
+        <v>20515.6397297873</v>
       </c>
       <c r="G11" t="n">
-        <v>0.628523032109691</v>
+        <v>0.624793459501199</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -17001,10 +17001,10 @@
         <v>15211</v>
       </c>
       <c r="F12" t="n">
-        <v>24975.8235103986</v>
+        <v>25176.0179394952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.609030532691491</v>
+        <v>0.604187668510143</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -17027,10 +17027,10 @@
         <v>11437</v>
       </c>
       <c r="F13" t="n">
-        <v>27639.2613657263</v>
+        <v>27881.2164058611</v>
       </c>
       <c r="G13" t="n">
-        <v>0.41379754939571</v>
+        <v>0.410206599771442</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -17053,10 +17053,10 @@
         <v>7078</v>
       </c>
       <c r="F14" t="n">
-        <v>24366.4975306578</v>
+        <v>24647.8388534317</v>
       </c>
       <c r="G14" t="n">
-        <v>0.29048372433182</v>
+        <v>0.287168028210786</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -17079,10 +17079,10 @@
         <v>4393</v>
       </c>
       <c r="F15" t="n">
-        <v>13947.4213643768</v>
+        <v>14100.7228588727</v>
       </c>
       <c r="G15" t="n">
-        <v>0.314973527211822</v>
+        <v>0.311549194253988</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -17105,10 +17105,10 @@
         <v>9604</v>
       </c>
       <c r="F16" t="n">
-        <v>18462.0513841259</v>
+        <v>18549.3548673372</v>
       </c>
       <c r="G16" t="n">
-        <v>0.520204812547349</v>
+        <v>0.517756455307556</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -17131,10 +17131,10 @@
         <v>11501</v>
       </c>
       <c r="F17" t="n">
-        <v>26599.7222248452</v>
+        <v>26667.2707589235</v>
       </c>
       <c r="G17" t="n">
-        <v>0.432375070133272</v>
+        <v>0.431279862719555</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -17157,10 +17157,10 @@
         <v>11970</v>
       </c>
       <c r="F18" t="n">
-        <v>35203.289558956</v>
+        <v>35287.3160875356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.340026916440912</v>
+        <v>0.339217243062128</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -17183,10 +17183,10 @@
         <v>12015</v>
       </c>
       <c r="F19" t="n">
-        <v>37793.7110249877</v>
+        <v>37933.349480562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.317911839905643</v>
+        <v>0.316741560931779</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -17209,10 +17209,10 @@
         <v>9367</v>
       </c>
       <c r="F20" t="n">
-        <v>31909.0564078313</v>
+        <v>32158.5030795156</v>
       </c>
       <c r="G20" t="n">
-        <v>0.293555237884668</v>
+        <v>0.29127819939314</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -17235,10 +17235,10 @@
         <v>8353</v>
       </c>
       <c r="F21" t="n">
-        <v>21430.0333538536</v>
+        <v>21701.9862677064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.389782922115971</v>
+        <v>0.384898479204267</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -17261,10 +17261,10 @@
         <v>12606</v>
       </c>
       <c r="F22" t="n">
-        <v>19894.9692373322</v>
+        <v>20168.1618262594</v>
       </c>
       <c r="G22" t="n">
-        <v>0.633629360602838</v>
+        <v>0.62504642733201</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -17287,10 +17287,10 @@
         <v>11116</v>
       </c>
       <c r="F23" t="n">
-        <v>20811.0077442978</v>
+        <v>21104.0989428935</v>
       </c>
       <c r="G23" t="n">
-        <v>0.53414263846891</v>
+        <v>0.526724564627134</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -17313,10 +17313,10 @@
         <v>11881</v>
       </c>
       <c r="F24" t="n">
-        <v>25017.9461075787</v>
+        <v>25369.4848062146</v>
       </c>
       <c r="G24" t="n">
-        <v>0.474901195277631</v>
+        <v>0.468320632393226</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -17339,10 +17339,10 @@
         <v>10892</v>
       </c>
       <c r="F25" t="n">
-        <v>27538.6798534659</v>
+        <v>27949.9306168033</v>
       </c>
       <c r="G25" t="n">
-        <v>0.395518612587666</v>
+        <v>0.389699036445841</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -17365,10 +17365,10 @@
         <v>6570</v>
       </c>
       <c r="F26" t="n">
-        <v>24335.0663452209</v>
+        <v>24797.7984750112</v>
       </c>
       <c r="G26" t="n">
-        <v>0.269983771912464</v>
+        <v>0.264945838318545</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
@@ -17391,10 +17391,10 @@
         <v>4491</v>
       </c>
       <c r="F27" t="n">
-        <v>15357.3128352908</v>
+        <v>15743.2895101169</v>
       </c>
       <c r="G27" t="n">
-        <v>0.292438579868063</v>
+        <v>0.285268937614353</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
@@ -17417,10 +17417,10 @@
         <v>10001</v>
       </c>
       <c r="F28" t="n">
-        <v>19254.0948799403</v>
+        <v>19488.5477513409</v>
       </c>
       <c r="G28" t="n">
-        <v>0.519424471517087</v>
+        <v>0.513175676814821</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
@@ -17443,10 +17443,10 @@
         <v>9968</v>
       </c>
       <c r="F29" t="n">
-        <v>26921.125670245</v>
+        <v>27063.2293328747</v>
       </c>
       <c r="G29" t="n">
-        <v>0.370269174297564</v>
+        <v>0.36832497130689</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -17469,10 +17469,10 @@
         <v>11151</v>
       </c>
       <c r="F30" t="n">
-        <v>35080.0786372405</v>
+        <v>35237.4175433273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.317874664074891</v>
+        <v>0.316455323116586</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
@@ -17495,10 +17495,10 @@
         <v>11945</v>
       </c>
       <c r="F31" t="n">
-        <v>37348.5048695738</v>
+        <v>37587.122169978</v>
       </c>
       <c r="G31" t="n">
-        <v>0.319827207514547</v>
+        <v>0.317796828560023</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -17521,10 +17521,10 @@
         <v>9391</v>
       </c>
       <c r="F32" t="n">
-        <v>31386.3830121291</v>
+        <v>31732.6102135905</v>
       </c>
       <c r="G32" t="n">
-        <v>0.299208420273494</v>
+        <v>0.295943836400648</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
@@ -17547,10 +17547,10 @@
         <v>8472</v>
       </c>
       <c r="F33" t="n">
-        <v>21216.073721019</v>
+        <v>21640.0359098841</v>
       </c>
       <c r="G33" t="n">
-        <v>0.399322710654779</v>
+        <v>0.391499389619378</v>
       </c>
       <c r="H33" t="s">
         <v>25</v>
@@ -17573,10 +17573,10 @@
         <v>11041</v>
       </c>
       <c r="F34" t="n">
-        <v>19969.3542803837</v>
+        <v>20432.4480295351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.552899435556726</v>
+        <v>0.540368239146688</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
@@ -17599,10 +17599,10 @@
         <v>9537</v>
       </c>
       <c r="F35" t="n">
-        <v>21025.0080835236</v>
+        <v>21513.4863113908</v>
       </c>
       <c r="G35" t="n">
-        <v>0.453605278132852</v>
+        <v>0.443305911992479</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
@@ -17625,10 +17625,10 @@
         <v>8702</v>
       </c>
       <c r="F36" t="n">
-        <v>25171.7962182551</v>
+        <v>25700.1102686597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.345706971161318</v>
+        <v>0.338600342527619</v>
       </c>
       <c r="H36" t="s">
         <v>25</v>
@@ -17651,10 +17651,10 @@
         <v>3839</v>
       </c>
       <c r="F37" t="n">
-        <v>27616.9652262582</v>
+        <v>28194.7804759144</v>
       </c>
       <c r="G37" t="n">
-        <v>0.139011874308418</v>
+        <v>0.136163017370461</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -17677,10 +17677,10 @@
         <v>2370</v>
       </c>
       <c r="F38" t="n">
-        <v>24406.1173386381</v>
+        <v>25033.8397073355</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0971105012757481</v>
+        <v>0.0946754696906739</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -17703,10 +17703,10 @@
         <v>4548</v>
       </c>
       <c r="F39" t="n">
-        <v>16528.2844906199</v>
+        <v>17115.6557896816</v>
       </c>
       <c r="G39" t="n">
-        <v>0.275169058572005</v>
+        <v>0.265725922704615</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
@@ -17729,10 +17729,10 @@
         <v>7299</v>
       </c>
       <c r="F40" t="n">
-        <v>20223.326816756</v>
+        <v>20711.4368614594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.360923006082845</v>
+        <v>0.352417111720105</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
@@ -17755,10 +17755,10 @@
         <v>7028</v>
       </c>
       <c r="F41" t="n">
-        <v>27581.5401355928</v>
+        <v>27981.8174259261</v>
       </c>
       <c r="G41" t="n">
-        <v>0.254810807676755</v>
+        <v>0.251165775848093</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -17781,10 +17781,10 @@
         <v>8930</v>
       </c>
       <c r="F42" t="n">
-        <v>35445.1469689538</v>
+        <v>35817.3090016161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.251940690604351</v>
+        <v>0.249322892105263</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -17807,10 +17807,10 @@
         <v>10710</v>
       </c>
       <c r="F43" t="n">
-        <v>37468.0256002217</v>
+        <v>37870.3534992594</v>
       </c>
       <c r="G43" t="n">
-        <v>0.285845630877693</v>
+        <v>0.282808865761522</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -17833,10 +17833,10 @@
         <v>9280</v>
       </c>
       <c r="F44" t="n">
-        <v>31357.1319569215</v>
+        <v>31830.8896491844</v>
       </c>
       <c r="G44" t="n">
-        <v>0.295947678441419</v>
+        <v>0.291542930404546</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -17859,10 +17859,10 @@
         <v>7919</v>
       </c>
       <c r="F45" t="n">
-        <v>21173.0483848368</v>
+        <v>21726.5056905229</v>
       </c>
       <c r="G45" t="n">
-        <v>0.374016176341129</v>
+        <v>0.364488595816616</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
@@ -17885,10 +17885,10 @@
         <v>10867</v>
       </c>
       <c r="F46" t="n">
-        <v>19977.4073345476</v>
+        <v>20595.136280008</v>
       </c>
       <c r="G46" t="n">
-        <v>0.543966763121005</v>
+        <v>0.527651144772192</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
@@ -17911,10 +17911,10 @@
         <v>8287</v>
       </c>
       <c r="F47" t="n">
-        <v>21109.6728174872</v>
+        <v>21773.0703492249</v>
       </c>
       <c r="G47" t="n">
-        <v>0.392571728348257</v>
+        <v>0.380610626155093</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -17937,10 +17937,10 @@
         <v>7642</v>
       </c>
       <c r="F48" t="n">
-        <v>25279.1436100233</v>
+        <v>25982.5401543486</v>
       </c>
       <c r="G48" t="n">
-        <v>0.302307304676232</v>
+        <v>0.294123305199259</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -17963,10 +17963,10 @@
         <v>7092</v>
       </c>
       <c r="F49" t="n">
-        <v>27718.5402509355</v>
+        <v>28462.7952851139</v>
       </c>
       <c r="G49" t="n">
-        <v>0.255860314062868</v>
+        <v>0.249170013414242</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -23015,19 +23015,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15746612927901</v>
+        <v>1.15080552437139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.926123999201237</v>
+        <v>0.939608389695619</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37158513708812</v>
+        <v>1.39600810123857</v>
       </c>
       <c r="G2" t="n">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0106</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="3">
@@ -23041,13 +23041,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34587271807032</v>
+        <v>1.33427640339846</v>
       </c>
       <c r="E3" t="n">
-        <v>1.28542015389074</v>
+        <v>1.19238889985145</v>
       </c>
       <c r="F3" t="n">
-        <v>1.38540051304994</v>
+        <v>1.41110417732898</v>
       </c>
       <c r="G3" t="n">
         <v>66</v>
@@ -23223,16 +23223,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.434575300336566</v>
+        <v>0.440079695279013</v>
       </c>
       <c r="E10" t="n">
-        <v>0.160036653075032</v>
+        <v>0.158365224908156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.682248409159851</v>
+        <v>0.685205659960028</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23249,13 +23249,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.456624595417522</v>
+        <v>0.444226651796889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.38791897952394</v>
+        <v>0.387168873833843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.689268043456374</v>
+        <v>0.700367610607925</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -23275,13 +23275,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.318044313453354</v>
+        <v>0.318078711626501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2418295974515</v>
+        <v>0.241979299627822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.410452748407683</v>
+        <v>0.41081286181955</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -23301,13 +23301,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.966412925625347</v>
+        <v>0.966761460086691</v>
       </c>
       <c r="E13" t="n">
-        <v>0.914814231916108</v>
+        <v>0.915458052829121</v>
       </c>
       <c r="F13" t="n">
-        <v>1.09919067312437</v>
+        <v>1.09954811189922</v>
       </c>
       <c r="G13" t="n">
         <v>31</v>
@@ -23425,10 +23425,10 @@
         <v>2445</v>
       </c>
       <c r="F2" t="n">
-        <v>2572.20275205026</v>
+        <v>2556.10339907203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.950549074385248</v>
+        <v>0.956535775239027</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -23451,10 +23451,10 @@
         <v>933</v>
       </c>
       <c r="F3" t="n">
-        <v>2639.78918530566</v>
+        <v>2628.86049520973</v>
       </c>
       <c r="G3" t="n">
-        <v>0.353461806349254</v>
+        <v>0.354931160700291</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -23477,10 +23477,10 @@
         <v>3508</v>
       </c>
       <c r="F4" t="n">
-        <v>4621.17256902415</v>
+        <v>4624.80752977741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.759119906389938</v>
+        <v>0.758523273689937</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -23503,10 +23503,10 @@
         <v>5360</v>
       </c>
       <c r="F5" t="n">
-        <v>5278.81200040951</v>
+        <v>5276.01440003021</v>
       </c>
       <c r="G5" t="n">
-        <v>1.01537968421982</v>
+        <v>1.01591807788878</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -23529,10 +23529,10 @@
         <v>5264</v>
       </c>
       <c r="F6" t="n">
-        <v>6258.88281186788</v>
+        <v>6227.22527828576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.841047204989691</v>
+        <v>0.845322793456051</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -23555,10 +23555,10 @@
         <v>6193</v>
       </c>
       <c r="F7" t="n">
-        <v>6687.01749759365</v>
+        <v>6591.05017268654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.926123999201237</v>
+        <v>0.939608389695619</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -23581,10 +23581,10 @@
         <v>4972</v>
       </c>
       <c r="F8" t="n">
-        <v>6559.71436554418</v>
+        <v>6472.67999490258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.757963521973466</v>
+        <v>0.768155260014339</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -23607,10 +23607,10 @@
         <v>4972</v>
       </c>
       <c r="F9" t="n">
-        <v>5717.93740788259</v>
+        <v>5713.83299414923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.869546602326477</v>
+        <v>0.870171212209029</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -23633,10 +23633,10 @@
         <v>4492</v>
       </c>
       <c r="F10" t="n">
-        <v>4160.35369060345</v>
+        <v>4184.4150534632</v>
       </c>
       <c r="G10" t="n">
-        <v>1.07971397690247</v>
+        <v>1.07350551798881</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -23659,10 +23659,10 @@
         <v>3206</v>
       </c>
       <c r="F11" t="n">
-        <v>3083.78511749756</v>
+        <v>3088.10104534332</v>
       </c>
       <c r="G11" t="n">
-        <v>1.03963016709313</v>
+        <v>1.0381772277535</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -23685,10 +23685,10 @@
         <v>3611</v>
       </c>
       <c r="F12" t="n">
-        <v>3160.00533464243</v>
+        <v>3137.78900342003</v>
       </c>
       <c r="G12" t="n">
-        <v>1.14271507358112</v>
+        <v>1.15080552437139</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -23711,10 +23711,10 @@
         <v>3694</v>
       </c>
       <c r="F13" t="n">
-        <v>3191.4404749693</v>
+        <v>3157.3474223041</v>
       </c>
       <c r="G13" t="n">
-        <v>1.15746612927901</v>
+        <v>1.16996405827853</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -23737,10 +23737,10 @@
         <v>3175</v>
       </c>
       <c r="F14" t="n">
-        <v>2737.03540391541</v>
+        <v>2695.0501283648</v>
       </c>
       <c r="G14" t="n">
-        <v>1.16000837790417</v>
+        <v>1.17807908605314</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -23763,10 +23763,10 @@
         <v>3425</v>
       </c>
       <c r="F15" t="n">
-        <v>2830.34866332889</v>
+        <v>2811.99000585156</v>
       </c>
       <c r="G15" t="n">
-        <v>1.21009083979348</v>
+        <v>1.21799088680407</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -23789,10 +23789,10 @@
         <v>7220</v>
       </c>
       <c r="F16" t="n">
-        <v>4456.74281602137</v>
+        <v>4433.38080688788</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62000328439794</v>
+        <v>1.62853981205531</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -23815,10 +23815,10 @@
         <v>7848</v>
       </c>
       <c r="F17" t="n">
-        <v>5439.895494049</v>
+        <v>5312.16111256642</v>
       </c>
       <c r="G17" t="n">
-        <v>1.44266663613698</v>
+        <v>1.47735584409338</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -23841,10 +23841,10 @@
         <v>8096</v>
       </c>
       <c r="F18" t="n">
-        <v>6393.94183436342</v>
+        <v>6231.19580251419</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2661944056245</v>
+        <v>1.29926427128261</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -23867,10 +23867,10 @@
         <v>9670</v>
       </c>
       <c r="F19" t="n">
-        <v>6873.31076837848</v>
+        <v>6695.42425368426</v>
       </c>
       <c r="G19" t="n">
-        <v>1.40688521694176</v>
+        <v>1.44426330689176</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -23893,10 +23893,10 @@
         <v>9222</v>
       </c>
       <c r="F20" t="n">
-        <v>6809.64560121458</v>
+        <v>6668.47415684773</v>
       </c>
       <c r="G20" t="n">
-        <v>1.35425029656837</v>
+        <v>1.38291931424803</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -23919,10 +23919,10 @@
         <v>6867</v>
       </c>
       <c r="F21" t="n">
-        <v>6211.42708879464</v>
+        <v>6120.63472218058</v>
       </c>
       <c r="G21" t="n">
-        <v>1.10554134302787</v>
+        <v>1.12194047147881</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -23945,10 +23945,10 @@
         <v>5932</v>
       </c>
       <c r="F22" t="n">
-        <v>4727.51960831672</v>
+        <v>4765.1164375778</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25477523393895</v>
+        <v>1.2448752491535</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -23971,10 +23971,10 @@
         <v>3622</v>
       </c>
       <c r="F23" t="n">
-        <v>3355.83040760534</v>
+        <v>3558.39840751773</v>
       </c>
       <c r="G23" t="n">
-        <v>1.07931320381122</v>
+        <v>1.01787315468454</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -23997,10 +23997,10 @@
         <v>3649</v>
       </c>
       <c r="F24" t="n">
-        <v>3202.17195444035</v>
+        <v>3368.2012632962</v>
       </c>
       <c r="G24" t="n">
-        <v>1.13953469658942</v>
+        <v>1.08336508962652</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -24023,10 +24023,10 @@
         <v>4919</v>
       </c>
       <c r="F25" t="n">
-        <v>3248.37574806157</v>
+        <v>3239.25842044471</v>
       </c>
       <c r="G25" t="n">
-        <v>1.51427942872448</v>
+        <v>1.51854143985854</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -24049,10 +24049,10 @@
         <v>4396</v>
       </c>
       <c r="F26" t="n">
-        <v>2842.38299575163</v>
+        <v>2805.19327642847</v>
       </c>
       <c r="G26" t="n">
-        <v>1.54657037757848</v>
+        <v>1.56707323150072</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
@@ -24075,10 +24075,10 @@
         <v>4689</v>
       </c>
       <c r="F27" t="n">
-        <v>2946.72023296707</v>
+        <v>2930.63333900556</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59124060149359</v>
+        <v>1.59997497472461</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
@@ -24101,10 +24101,10 @@
         <v>6656</v>
       </c>
       <c r="F28" t="n">
-        <v>4534.11860889966</v>
+        <v>4591.79494979957</v>
       </c>
       <c r="G28" t="n">
-        <v>1.46797068560734</v>
+        <v>1.44953228955957</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
@@ -24127,10 +24127,10 @@
         <v>7124</v>
       </c>
       <c r="F29" t="n">
-        <v>5445.78511760666</v>
+        <v>5103.09388095192</v>
       </c>
       <c r="G29" t="n">
-        <v>1.30816200601949</v>
+        <v>1.39600810123857</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -24153,10 +24153,10 @@
         <v>8824</v>
       </c>
       <c r="F30" t="n">
-        <v>6433.40511856202</v>
+        <v>6313.87189593881</v>
       </c>
       <c r="G30" t="n">
-        <v>1.37158513708812</v>
+        <v>1.39755135838912</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
@@ -24179,10 +24179,10 @@
         <v>9943</v>
       </c>
       <c r="F31" t="n">
-        <v>6883.69903510923</v>
+        <v>6757.85862463856</v>
       </c>
       <c r="G31" t="n">
-        <v>1.44442043547284</v>
+        <v>1.47131708734482</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -24205,10 +24205,10 @@
         <v>9683</v>
       </c>
       <c r="F32" t="n">
-        <v>6855.42496972553</v>
+        <v>6950.08190264226</v>
       </c>
       <c r="G32" t="n">
-        <v>1.41245200663133</v>
+        <v>1.39321533387763</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
@@ -24231,10 +24231,10 @@
         <v>7887</v>
       </c>
       <c r="F33" t="n">
-        <v>6114.33631737048</v>
+        <v>6203.06499425315</v>
       </c>
       <c r="G33" t="n">
-        <v>1.28991448935261</v>
+        <v>1.27146384262016</v>
       </c>
       <c r="H33" t="s">
         <v>25</v>
@@ -24257,10 +24257,10 @@
         <v>5311</v>
       </c>
       <c r="F34" t="n">
-        <v>4441.37332308244</v>
+        <v>4941.59183484561</v>
       </c>
       <c r="G34" t="n">
-        <v>1.195796892981</v>
+        <v>1.07475337951055</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
@@ -24283,10 +24283,10 @@
         <v>2535</v>
       </c>
       <c r="F35" t="n">
-        <v>3347.88070298965</v>
+        <v>3907.34355407412</v>
       </c>
       <c r="G35" t="n">
-        <v>0.757202691681057</v>
+        <v>0.648787363123074</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
@@ -24309,10 +24309,10 @@
         <v>2569</v>
       </c>
       <c r="F36" t="n">
-        <v>3253.90167179179</v>
+        <v>3764.26014914195</v>
       </c>
       <c r="G36" t="n">
-        <v>0.78952018441507</v>
+        <v>0.682479863300434</v>
       </c>
       <c r="H36" t="s">
         <v>25</v>
@@ -24335,10 +24335,10 @@
         <v>1820</v>
       </c>
       <c r="F37" t="n">
-        <v>3317.82169140708</v>
+        <v>3428.29580229241</v>
       </c>
       <c r="G37" t="n">
-        <v>0.548566292180369</v>
+        <v>0.530889694469636</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -24361,10 +24361,10 @@
         <v>2318</v>
       </c>
       <c r="F38" t="n">
-        <v>2897.72076535064</v>
+        <v>2891.89515951413</v>
       </c>
       <c r="G38" t="n">
-        <v>0.799945955152788</v>
+        <v>0.80155735820438</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -24387,10 +24387,10 @@
         <v>5662</v>
       </c>
       <c r="F39" t="n">
-        <v>2998.52868347216</v>
+        <v>3060.66114961885</v>
       </c>
       <c r="G39" t="n">
-        <v>1.88822978690505</v>
+        <v>1.84989933000982</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
@@ -24413,10 +24413,10 @@
         <v>6543</v>
       </c>
       <c r="F40" t="n">
-        <v>4591.46710992684</v>
+        <v>4724.06658152033</v>
       </c>
       <c r="G40" t="n">
-        <v>1.42502545282503</v>
+        <v>1.38502736664597</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
@@ -24439,10 +24439,10 @@
         <v>7677</v>
       </c>
       <c r="F41" t="n">
-        <v>5575.88840939652</v>
+        <v>5171.60614288838</v>
       </c>
       <c r="G41" t="n">
-        <v>1.37681419621726</v>
+        <v>1.4844424234267</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -24465,10 +24465,10 @@
         <v>9067</v>
       </c>
       <c r="F42" t="n">
-        <v>6504.33734878289</v>
+        <v>6308.84791653362</v>
       </c>
       <c r="G42" t="n">
-        <v>1.39398682988262</v>
+        <v>1.43718098801199</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -24491,10 +24491,10 @@
         <v>8326</v>
       </c>
       <c r="F43" t="n">
-        <v>6947.79573341074</v>
+        <v>6757.01078635157</v>
       </c>
       <c r="G43" t="n">
-        <v>1.1983628309161</v>
+        <v>1.23219823727288</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -24517,10 +24517,10 @@
         <v>9164</v>
       </c>
       <c r="F44" t="n">
-        <v>6932.55777368015</v>
+        <v>6797.38368130709</v>
       </c>
       <c r="G44" t="n">
-        <v>1.32187399106754</v>
+        <v>1.34816064732911</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -24543,10 +24543,10 @@
         <v>8354</v>
       </c>
       <c r="F45" t="n">
-        <v>6115.13398027428</v>
+        <v>6261.04647513945</v>
       </c>
       <c r="G45" t="n">
-        <v>1.36611289558953</v>
+        <v>1.33427640339846</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
@@ -24569,10 +24569,10 @@
         <v>5987</v>
       </c>
       <c r="F46" t="n">
-        <v>4647.95850199331</v>
+        <v>4920.80545499908</v>
       </c>
       <c r="G46" t="n">
-        <v>1.2880861971579</v>
+        <v>1.21666633402147</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
@@ -24595,10 +24595,10 @@
         <v>4477</v>
       </c>
       <c r="F47" t="n">
-        <v>3490.12463691313</v>
+        <v>3933.33536214867</v>
       </c>
       <c r="G47" t="n">
-        <v>1.28275411062358</v>
+        <v>1.13821623791839</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -24621,10 +24621,10 @@
         <v>4540</v>
       </c>
       <c r="F48" t="n">
-        <v>3373.25019801092</v>
+        <v>3886.60099848003</v>
       </c>
       <c r="G48" t="n">
-        <v>1.34587271807032</v>
+        <v>1.16811146568143</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -24647,10 +24647,10 @@
         <v>3743</v>
       </c>
       <c r="F49" t="n">
-        <v>3413.7670729748</v>
+        <v>3523.16401936947</v>
       </c>
       <c r="G49" t="n">
-        <v>1.09643987887856</v>
+        <v>1.06239554555718</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -28417,10 +28417,10 @@
         <v>3</v>
       </c>
       <c r="F194" t="n">
-        <v>6.61339403085633</v>
+        <v>6.66250749374146</v>
       </c>
       <c r="G194" t="n">
-        <v>0.461763451653765</v>
+        <v>0.458409843222943</v>
       </c>
       <c r="H194" t="s">
         <v>25</v>
@@ -28443,10 +28443,10 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1.53924752541824</v>
+        <v>1.58846376328979</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0610035997916092</v>
+        <v>0.0592254344891363</v>
       </c>
       <c r="H195" t="s">
         <v>25</v>
@@ -28469,10 +28469,10 @@
         <v>3</v>
       </c>
       <c r="F196" t="n">
-        <v>2.42068284632312</v>
+        <v>2.36988938610457</v>
       </c>
       <c r="G196" t="n">
-        <v>1.22982548340896</v>
+        <v>1.25511693658849</v>
       </c>
       <c r="H196" t="s">
         <v>25</v>
@@ -28495,10 +28495,10 @@
         <v>4</v>
       </c>
       <c r="F197" t="n">
-        <v>2.72859039055575</v>
+        <v>2.74826721932213</v>
       </c>
       <c r="G197" t="n">
-        <v>1.44948523253466</v>
+        <v>1.43947168025048</v>
       </c>
       <c r="H197" t="s">
         <v>25</v>
@@ -28521,10 +28521,10 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>4.44662128559198</v>
+        <v>4.49774878103156</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0219943544268565</v>
+        <v>0.0217497746750669</v>
       </c>
       <c r="H198" t="s">
         <v>25</v>
@@ -28547,10 +28547,10 @@
         <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>21.5610129694072</v>
+        <v>21.6312823228682</v>
       </c>
       <c r="G199" t="n">
-        <v>0.281611945323854</v>
+        <v>0.28070133687329</v>
       </c>
       <c r="H199" t="s">
         <v>25</v>
@@ -28573,10 +28573,10 @@
         <v>69</v>
       </c>
       <c r="F200" t="n">
-        <v>125.596975177098</v>
+        <v>126.658815983117</v>
       </c>
       <c r="G200" t="n">
-        <v>0.549734787990268</v>
+        <v>0.54512973684768</v>
       </c>
       <c r="H200" t="s">
         <v>25</v>
@@ -28599,10 +28599,10 @@
         <v>69</v>
       </c>
       <c r="F201" t="n">
-        <v>273.749845313821</v>
+        <v>273.376318624738</v>
       </c>
       <c r="G201" t="n">
-        <v>0.252328059272095</v>
+        <v>0.252672700683888</v>
       </c>
       <c r="H201" t="s">
         <v>25</v>
@@ -28625,10 +28625,10 @@
         <v>137</v>
       </c>
       <c r="F202" t="n">
-        <v>157.978974079823</v>
+        <v>156.841991135017</v>
       </c>
       <c r="G202" t="n">
-        <v>0.867288017258832</v>
+        <v>0.873571177531786</v>
       </c>
       <c r="H202" t="s">
         <v>25</v>
@@ -28651,10 +28651,10 @@
         <v>42</v>
       </c>
       <c r="F203" t="n">
-        <v>51.0001191234924</v>
+        <v>50.2497369891864</v>
       </c>
       <c r="G203" t="n">
-        <v>0.823872834782596</v>
+        <v>0.83615133896413</v>
       </c>
       <c r="H203" t="s">
         <v>25</v>
@@ -28677,10 +28677,10 @@
         <v>10</v>
       </c>
       <c r="F204" t="n">
-        <v>14.7039920128763</v>
+        <v>14.6401000753397</v>
       </c>
       <c r="G204" t="n">
-        <v>0.682248409159851</v>
+        <v>0.685205659960028</v>
       </c>
       <c r="H204" t="s">
         <v>25</v>
@@ -28703,10 +28703,10 @@
         <v>8</v>
       </c>
       <c r="F205" t="n">
-        <v>13.4071591749619</v>
+        <v>13.4665560660487</v>
       </c>
       <c r="G205" t="n">
-        <v>0.599681983093447</v>
+        <v>0.5970564644826</v>
       </c>
       <c r="H205" t="s">
         <v>25</v>
@@ -28729,10 +28729,10 @@
         <v>4</v>
       </c>
       <c r="F206" t="n">
-        <v>6.04577558998583</v>
+        <v>6.07652245921715</v>
       </c>
       <c r="G206" t="n">
-        <v>0.667124912058407</v>
+        <v>0.663803949078436</v>
       </c>
       <c r="H206" t="s">
         <v>25</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1.62292073304155</v>
+        <v>1.70050439459169</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0580409754681316</v>
+        <v>0.0555399921824004</v>
       </c>
       <c r="H207" t="s">
         <v>25</v>
@@ -28781,10 +28781,10 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>2.43902170556623</v>
+        <v>2.46288204011034</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0393852481767969</v>
+        <v>0.0390185730107558</v>
       </c>
       <c r="H208" t="s">
         <v>25</v>
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>2.52382018049095</v>
+        <v>2.57122028212419</v>
       </c>
       <c r="G209" t="n">
-        <v>0.038112367891495</v>
+        <v>0.0374360739431338</v>
       </c>
       <c r="H209" t="s">
         <v>25</v>
@@ -28833,10 +28833,10 @@
         <v>2</v>
       </c>
       <c r="F210" t="n">
-        <v>4.25684094189626</v>
+        <v>4.32743205941899</v>
       </c>
       <c r="G210" t="n">
-        <v>0.482000611912631</v>
+        <v>0.474315578831397</v>
       </c>
       <c r="H210" t="s">
         <v>25</v>
@@ -28859,10 +28859,10 @@
         <v>10</v>
       </c>
       <c r="F211" t="n">
-        <v>19.179806796231</v>
+        <v>19.3073622763229</v>
       </c>
       <c r="G211" t="n">
-        <v>0.523864170774494</v>
+        <v>0.52042105754485</v>
       </c>
       <c r="H211" t="s">
         <v>25</v>
@@ -28885,10 +28885,10 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>106.750522498635</v>
+        <v>107.878250969663</v>
       </c>
       <c r="G212" t="n">
-        <v>0.160036653075032</v>
+        <v>0.158365224908156</v>
       </c>
       <c r="H212" t="s">
         <v>25</v>
@@ -28911,10 +28911,10 @@
         <v>72</v>
       </c>
       <c r="F213" t="n">
-        <v>240.552039084227</v>
+        <v>240.321684070477</v>
       </c>
       <c r="G213" t="n">
-        <v>0.299602697215316</v>
+        <v>0.299889755280413</v>
       </c>
       <c r="H213" t="s">
         <v>25</v>
@@ -28937,10 +28937,10 @@
         <v>63</v>
       </c>
       <c r="F214" t="n">
-        <v>145.09923233357</v>
+        <v>143.283120550459</v>
       </c>
       <c r="G214" t="n">
-        <v>0.434575300336566</v>
+        <v>0.440079695279013</v>
       </c>
       <c r="H214" t="s">
         <v>25</v>
@@ -28963,10 +28963,10 @@
         <v>39</v>
       </c>
       <c r="F215" t="n">
-        <v>49.2217327009639</v>
+        <v>47.5183156700205</v>
       </c>
       <c r="G215" t="n">
-        <v>0.792753982044022</v>
+        <v>0.82111262126427</v>
       </c>
       <c r="H215" t="s">
         <v>25</v>
@@ -28989,10 +28989,10 @@
         <v>14</v>
       </c>
       <c r="F216" t="n">
-        <v>13.402162519522</v>
+        <v>13.2588187322911</v>
       </c>
       <c r="G216" t="n">
-        <v>1.04427716520325</v>
+        <v>1.05548254546768</v>
       </c>
       <c r="H216" t="s">
         <v>25</v>
@@ -29015,10 +29015,10 @@
         <v>4</v>
       </c>
       <c r="F217" t="n">
-        <v>12.0909540809456</v>
+        <v>12.1800619026977</v>
       </c>
       <c r="G217" t="n">
-        <v>0.336314940797643</v>
+        <v>0.333874538458093</v>
       </c>
       <c r="H217" t="s">
         <v>25</v>
@@ -29041,10 +29041,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>5.6997444904522</v>
+        <v>5.74084085250191</v>
       </c>
       <c r="G218" t="n">
-        <v>1.56903463850534</v>
+        <v>1.55799485550133</v>
       </c>
       <c r="H218" t="s">
         <v>25</v>
@@ -29067,10 +29067,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>1.65009420745574</v>
+        <v>1.7329381633125</v>
       </c>
       <c r="G219" t="n">
-        <v>0.628537592612893</v>
+        <v>0.600129356252844</v>
       </c>
       <c r="H219" t="s">
         <v>25</v>
@@ -29093,10 +29093,10 @@
         <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>2.39360623182382</v>
+        <v>2.44687304446995</v>
       </c>
       <c r="G220" t="n">
-        <v>0.842153814503448</v>
+        <v>0.824540510395581</v>
       </c>
       <c r="H220" t="s">
         <v>25</v>
@@ -29119,10 +29119,10 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>2.39792134067767</v>
+        <v>2.45886492128332</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0400332862254464</v>
+        <v>0.0390798276095981</v>
       </c>
       <c r="H221" t="s">
         <v>25</v>
@@ -29145,10 +29145,10 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>4.0778551198391</v>
+        <v>4.15364456296338</v>
       </c>
       <c r="G222" t="n">
-        <v>0.023935727097174</v>
+        <v>0.0235092515417727</v>
       </c>
       <c r="H222" t="s">
         <v>25</v>
@@ -29171,10 +29171,10 @@
         <v>7</v>
       </c>
       <c r="F223" t="n">
-        <v>17.5368831800512</v>
+        <v>17.7305841680022</v>
       </c>
       <c r="G223" t="n">
-        <v>0.402565460547513</v>
+        <v>0.398192225958658</v>
       </c>
       <c r="H223" t="s">
         <v>25</v>
@@ -29197,10 +29197,10 @@
         <v>13</v>
       </c>
       <c r="F224" t="n">
-        <v>94.3481199203058</v>
+        <v>95.1801356600107</v>
       </c>
       <c r="G224" t="n">
-        <v>0.138700484573474</v>
+        <v>0.13748930886019</v>
       </c>
       <c r="H224" t="s">
         <v>25</v>
@@ -29223,10 +29223,10 @@
         <v>57</v>
       </c>
       <c r="F225" t="n">
-        <v>213.412200077051</v>
+        <v>213.954088474444</v>
       </c>
       <c r="G225" t="n">
-        <v>0.267432024865062</v>
+        <v>0.266755007610225</v>
       </c>
       <c r="H225" t="s">
         <v>25</v>
@@ -29249,10 +29249,10 @@
         <v>53</v>
       </c>
       <c r="F226" t="n">
-        <v>131.446075449515</v>
+        <v>129.674793559262</v>
       </c>
       <c r="G226" t="n">
-        <v>0.403660845209927</v>
+        <v>0.409170367708978</v>
       </c>
       <c r="H226" t="s">
         <v>25</v>
@@ -29275,10 +29275,10 @@
         <v>27</v>
       </c>
       <c r="F227" t="n">
-        <v>46.6536933379487</v>
+        <v>44.1895205741822</v>
       </c>
       <c r="G227" t="n">
-        <v>0.57963335225976</v>
+        <v>0.611882893485135</v>
       </c>
       <c r="H227" t="s">
         <v>25</v>
@@ -29301,10 +29301,10 @@
         <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>12.3225060397798</v>
+        <v>12.1599372841704</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0885489607714853</v>
+        <v>0.0897231343442745</v>
       </c>
       <c r="H228" t="s">
         <v>25</v>
@@ -29327,10 +29327,10 @@
         <v>3</v>
       </c>
       <c r="F229" t="n">
-        <v>11.1050299655315</v>
+        <v>11.1242292588161</v>
       </c>
       <c r="G229" t="n">
-        <v>0.276661464497293</v>
+        <v>0.276188228921384</v>
       </c>
       <c r="H229" t="s">
         <v>25</v>
@@ -29353,10 +29353,10 @@
         <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>5.45846069159718</v>
+        <v>5.52538893360663</v>
       </c>
       <c r="G230" t="n">
-        <v>0.737614283428871</v>
+        <v>0.728838494260582</v>
       </c>
       <c r="H230" t="s">
         <v>25</v>
@@ -29379,10 +29379,10 @@
         <v>1</v>
       </c>
       <c r="F231" t="n">
-        <v>1.64001137138711</v>
+        <v>1.71932139481406</v>
       </c>
       <c r="G231" t="n">
-        <v>0.632179776574159</v>
+        <v>0.604621043393173</v>
       </c>
       <c r="H231" t="s">
         <v>25</v>
@@ -29405,10 +29405,10 @@
         <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>2.33059486625546</v>
+        <v>2.39538242792128</v>
       </c>
       <c r="G232" t="n">
-        <v>1.27540794356067</v>
+        <v>1.24229455385818</v>
       </c>
       <c r="H232" t="s">
         <v>25</v>
@@ -29431,10 +29431,10 @@
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>2.3089810558588</v>
+        <v>2.37621342742611</v>
       </c>
       <c r="G233" t="n">
-        <v>0.456624595417522</v>
+        <v>0.444226651796889</v>
       </c>
       <c r="H233" t="s">
         <v>25</v>
@@ -29457,10 +29457,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>3.91001799842678</v>
+        <v>3.98613145113743</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0249375439310328</v>
+        <v>0.0244730256957748</v>
       </c>
       <c r="H234" t="s">
         <v>25</v>
@@ -29483,10 +29483,10 @@
         <v>3</v>
       </c>
       <c r="F235" t="n">
-        <v>16.2719020176282</v>
+        <v>16.3796020055178</v>
       </c>
       <c r="G235" t="n">
-        <v>0.189348799953855</v>
+        <v>0.188111339033676</v>
       </c>
       <c r="H235" t="s">
         <v>25</v>
@@ -29509,10 +29509,10 @@
         <v>33</v>
       </c>
       <c r="F236" t="n">
-        <v>85.8339067379157</v>
+        <v>86.2409458167449</v>
       </c>
       <c r="G236" t="n">
-        <v>0.385179741693224</v>
+        <v>0.383363880102187</v>
       </c>
       <c r="H236" t="s">
         <v>25</v>
@@ -29535,10 +29535,10 @@
         <v>80</v>
       </c>
       <c r="F237" t="n">
-        <v>190.803056315349</v>
+        <v>191.972103798058</v>
       </c>
       <c r="G237" t="n">
-        <v>0.419584691549853</v>
+        <v>0.417030887963908</v>
       </c>
       <c r="H237" t="s">
         <v>25</v>
@@ -29561,10 +29561,10 @@
         <v>62</v>
       </c>
       <c r="F238" t="n">
-        <v>118.194740534741</v>
+        <v>116.876008155329</v>
       </c>
       <c r="G238" t="n">
-        <v>0.524959940900858</v>
+        <v>0.530878091835201</v>
       </c>
       <c r="H238" t="s">
         <v>25</v>
@@ -29587,10 +29587,10 @@
         <v>32</v>
       </c>
       <c r="F239" t="n">
-        <v>42.9089483472547</v>
+        <v>40.2208495643069</v>
       </c>
       <c r="G239" t="n">
-        <v>0.74635631033859</v>
+        <v>0.796114177822676</v>
       </c>
       <c r="H239" t="s">
         <v>25</v>
@@ -29613,10 +29613,10 @@
         <v>12</v>
       </c>
       <c r="F240" t="n">
-        <v>11.3941267956448</v>
+        <v>11.2682824482455</v>
       </c>
       <c r="G240" t="n">
-        <v>1.05271154696021</v>
+        <v>1.0643648286437</v>
       </c>
       <c r="H240" t="s">
         <v>25</v>
@@ -29639,10 +29639,10 @@
         <v>4</v>
       </c>
       <c r="F241" t="n">
-        <v>10.3951075335447</v>
+        <v>10.3866343766905</v>
       </c>
       <c r="G241" t="n">
-        <v>0.390658217354657</v>
+        <v>0.390973867565499</v>
       </c>
       <c r="H241" t="s">
         <v>25</v>
@@ -29665,10 +29665,10 @@
         <v>348</v>
       </c>
       <c r="F242" t="n">
-        <v>277.970115200967</v>
+        <v>277.927547070762</v>
       </c>
       <c r="G242" t="n">
-        <v>1.25184254247682</v>
+        <v>1.2520342090829</v>
       </c>
       <c r="H242" t="s">
         <v>25</v>
@@ -29691,10 +29691,10 @@
         <v>126</v>
       </c>
       <c r="F243" t="n">
-        <v>247.006854313176</v>
+        <v>246.876436412653</v>
       </c>
       <c r="G243" t="n">
-        <v>0.510305553241289</v>
+        <v>0.510575024207207</v>
       </c>
       <c r="H243" t="s">
         <v>25</v>
@@ -29717,10 +29717,10 @@
         <v>92</v>
       </c>
       <c r="F244" t="n">
-        <v>191.601660020089</v>
+        <v>191.564891268417</v>
       </c>
       <c r="G244" t="n">
-        <v>0.480434024360293</v>
+        <v>0.480526190219254</v>
       </c>
       <c r="H244" t="s">
         <v>25</v>
@@ -29743,10 +29743,10 @@
         <v>54</v>
       </c>
       <c r="F245" t="n">
-        <v>208.143127432556</v>
+        <v>208.244373889974</v>
       </c>
       <c r="G245" t="n">
-        <v>0.259792487113513</v>
+        <v>0.259666239072863</v>
       </c>
       <c r="H245" t="s">
         <v>25</v>
@@ -29769,10 +29769,10 @@
         <v>40</v>
       </c>
       <c r="F246" t="n">
-        <v>234.731900778436</v>
+        <v>234.886899793435</v>
       </c>
       <c r="G246" t="n">
-        <v>0.170760445523261</v>
+        <v>0.170647810730087</v>
       </c>
       <c r="H246" t="s">
         <v>25</v>
@@ -29795,10 +29795,10 @@
         <v>74</v>
       </c>
       <c r="F247" t="n">
-        <v>258.371024493202</v>
+        <v>258.468893867614</v>
       </c>
       <c r="G247" t="n">
-        <v>0.286685906651594</v>
+        <v>0.286577394873874</v>
       </c>
       <c r="H247" t="s">
         <v>25</v>
@@ -29821,10 +29821,10 @@
         <v>57</v>
       </c>
       <c r="F248" t="n">
-        <v>268.005045092618</v>
+        <v>267.947214069073</v>
       </c>
       <c r="G248" t="n">
-        <v>0.212976223480892</v>
+        <v>0.213022172971684</v>
       </c>
       <c r="H248" t="s">
         <v>25</v>
@@ -29847,10 +29847,10 @@
         <v>57</v>
       </c>
       <c r="F249" t="n">
-        <v>236.016673069564</v>
+        <v>235.870597847928</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2418295974515</v>
+        <v>0.241979299627822</v>
       </c>
       <c r="H249" t="s">
         <v>25</v>
@@ -29873,10 +29873,10 @@
         <v>81</v>
       </c>
       <c r="F250" t="n">
-        <v>223.883666254289</v>
+        <v>223.739205718445</v>
       </c>
       <c r="G250" t="n">
-        <v>0.362079973759904</v>
+        <v>0.36231365162192</v>
       </c>
       <c r="H250" t="s">
         <v>25</v>
@@ -29899,10 +29899,10 @@
         <v>78</v>
       </c>
       <c r="F251" t="n">
-        <v>205.511941638851</v>
+        <v>205.429572310834</v>
       </c>
       <c r="G251" t="n">
-        <v>0.379841751298567</v>
+        <v>0.379993979075113</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
@@ -29925,10 +29925,10 @@
         <v>63</v>
       </c>
       <c r="F252" t="n">
-        <v>222.34735168661</v>
+        <v>222.223929157583</v>
       </c>
       <c r="G252" t="n">
-        <v>0.283662626331902</v>
+        <v>0.283820100873059</v>
       </c>
       <c r="H252" t="s">
         <v>25</v>
@@ -29951,10 +29951,10 @@
         <v>73</v>
       </c>
       <c r="F253" t="n">
-        <v>200.523665759597</v>
+        <v>200.409032108012</v>
       </c>
       <c r="G253" t="n">
-        <v>0.364363793888574</v>
+        <v>0.364572105463168</v>
       </c>
       <c r="H253" t="s">
         <v>25</v>
@@ -29977,10 +29977,10 @@
         <v>68</v>
       </c>
       <c r="F254" t="n">
-        <v>263.012170970561</v>
+        <v>262.897367734926</v>
       </c>
       <c r="G254" t="n">
-        <v>0.258824970919416</v>
+        <v>0.258937952826348</v>
       </c>
       <c r="H254" t="s">
         <v>25</v>
@@ -30003,10 +30003,10 @@
         <v>58</v>
       </c>
       <c r="F255" t="n">
-        <v>234.533363786213</v>
+        <v>234.373545098351</v>
       </c>
       <c r="G255" t="n">
-        <v>0.247620368486632</v>
+        <v>0.247789148134514</v>
       </c>
       <c r="H255" t="s">
         <v>25</v>
@@ -30029,10 +30029,10 @@
         <v>63</v>
       </c>
       <c r="F256" t="n">
-        <v>188.699446817409</v>
+        <v>188.59624290652</v>
       </c>
       <c r="G256" t="n">
-        <v>0.334217080948468</v>
+        <v>0.334399874783197</v>
       </c>
       <c r="H256" t="s">
         <v>25</v>
@@ -30055,10 +30055,10 @@
         <v>74</v>
       </c>
       <c r="F257" t="n">
-        <v>203.942754089223</v>
+        <v>203.958992214967</v>
       </c>
       <c r="G257" t="n">
-        <v>0.36315918362677</v>
+        <v>0.363130285000815</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
@@ -30081,10 +30081,10 @@
         <v>97</v>
       </c>
       <c r="F258" t="n">
-        <v>228.173154783307</v>
+        <v>228.268077980506</v>
       </c>
       <c r="G258" t="n">
-        <v>0.425367582500773</v>
+        <v>0.42519077472942</v>
       </c>
       <c r="H258" t="s">
         <v>25</v>
@@ -30107,10 +30107,10 @@
         <v>109</v>
       </c>
       <c r="F259" t="n">
-        <v>249.599486249158</v>
+        <v>249.683334760452</v>
       </c>
       <c r="G259" t="n">
-        <v>0.436925208132533</v>
+        <v>0.436778538907047</v>
       </c>
       <c r="H259" t="s">
         <v>25</v>
@@ -30133,10 +30133,10 @@
         <v>92</v>
       </c>
       <c r="F260" t="n">
-        <v>257.154784852474</v>
+        <v>257.134405066178</v>
       </c>
       <c r="G260" t="n">
-        <v>0.35801083370642</v>
+        <v>0.358039197658282</v>
       </c>
       <c r="H260" t="s">
         <v>25</v>
@@ -30159,10 +30159,10 @@
         <v>60</v>
       </c>
       <c r="F261" t="n">
-        <v>227.804928601402</v>
+        <v>227.68172195689</v>
       </c>
       <c r="G261" t="n">
-        <v>0.263706451496329</v>
+        <v>0.263849089749943</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -30185,10 +30185,10 @@
         <v>49</v>
       </c>
       <c r="F262" t="n">
-        <v>216.835882803209</v>
+        <v>216.670872089603</v>
       </c>
       <c r="G262" t="n">
-        <v>0.226334156274831</v>
+        <v>0.226506446768846</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
@@ -30211,10 +30211,10 @@
         <v>46</v>
       </c>
       <c r="F263" t="n">
-        <v>201.2839206918</v>
+        <v>201.143741113104</v>
       </c>
       <c r="G263" t="n">
-        <v>0.228915992109181</v>
+        <v>0.229075447241316</v>
       </c>
       <c r="H263" t="s">
         <v>25</v>
@@ -30237,10 +30237,10 @@
         <v>62</v>
       </c>
       <c r="F264" t="n">
-        <v>216.546234453499</v>
+        <v>216.39023552157</v>
       </c>
       <c r="G264" t="n">
-        <v>0.286642415718189</v>
+        <v>0.286848965037098</v>
       </c>
       <c r="H264" t="s">
         <v>25</v>
@@ -30263,10 +30263,10 @@
         <v>72</v>
       </c>
       <c r="F265" t="n">
-        <v>197.29114999019</v>
+        <v>197.132924139907</v>
       </c>
       <c r="G265" t="n">
-        <v>0.365264602813162</v>
+        <v>0.365557628445725</v>
       </c>
       <c r="H265" t="s">
         <v>25</v>
@@ -30289,10 +30289,10 @@
         <v>26</v>
       </c>
       <c r="F266" t="n">
-        <v>254.457587764971</v>
+        <v>254.303321129452</v>
       </c>
       <c r="G266" t="n">
-        <v>0.102530827028805</v>
+        <v>0.102593000296247</v>
       </c>
       <c r="H266" t="s">
         <v>25</v>
@@ -30315,10 +30315,10 @@
         <v>30</v>
       </c>
       <c r="F267" t="n">
-        <v>228.172879311007</v>
+        <v>228.001842104848</v>
       </c>
       <c r="G267" t="n">
-        <v>0.131859728982481</v>
+        <v>0.131958601132929</v>
       </c>
       <c r="H267" t="s">
         <v>25</v>
@@ -30341,10 +30341,10 @@
         <v>31</v>
       </c>
       <c r="F268" t="n">
-        <v>185.870753584355</v>
+        <v>185.724912452573</v>
       </c>
       <c r="G268" t="n">
-        <v>0.167230596212502</v>
+        <v>0.167361843950485</v>
       </c>
       <c r="H268" t="s">
         <v>25</v>
@@ -30367,10 +30367,10 @@
         <v>34</v>
       </c>
       <c r="F269" t="n">
-        <v>201.340010777765</v>
+        <v>201.267529978539</v>
       </c>
       <c r="G269" t="n">
-        <v>0.169281166478988</v>
+        <v>0.169342098021634</v>
       </c>
       <c r="H269" t="s">
         <v>25</v>
@@ -30393,10 +30393,10 @@
         <v>37</v>
       </c>
       <c r="F270" t="n">
-        <v>224.143210128358</v>
+        <v>224.139989764082</v>
       </c>
       <c r="G270" t="n">
-        <v>0.165445366121738</v>
+        <v>0.165447742122322</v>
       </c>
       <c r="H270" t="s">
         <v>25</v>
@@ -30419,10 +30419,10 @@
         <v>62</v>
       </c>
       <c r="F271" t="n">
-        <v>242.979179314435</v>
+        <v>242.996482802531</v>
       </c>
       <c r="G271" t="n">
-        <v>0.255472312252916</v>
+        <v>0.255454127859366</v>
       </c>
       <c r="H271" t="s">
         <v>25</v>
@@ -30445,10 +30445,10 @@
         <v>79</v>
       </c>
       <c r="F272" t="n">
-        <v>248.607480857384</v>
+        <v>248.580584738038</v>
       </c>
       <c r="G272" t="n">
-        <v>0.318044313453354</v>
+        <v>0.318078711626501</v>
       </c>
       <c r="H272" t="s">
         <v>25</v>
@@ -30471,10 +30471,10 @@
         <v>217</v>
       </c>
       <c r="F273" t="n">
-        <v>221.224724678546</v>
+        <v>221.128840406422</v>
       </c>
       <c r="G273" t="n">
-        <v>0.980911646068093</v>
+        <v>0.98133678954861</v>
       </c>
       <c r="H273" t="s">
         <v>25</v>
@@ -30497,10 +30497,10 @@
         <v>96</v>
       </c>
       <c r="F274" t="n">
-        <v>211.198953388804</v>
+        <v>211.053920074947</v>
       </c>
       <c r="G274" t="n">
-        <v>0.454805849526238</v>
+        <v>0.455118237757036</v>
       </c>
       <c r="H274" t="s">
         <v>25</v>
@@ -30523,10 +30523,10 @@
         <v>92</v>
       </c>
       <c r="F275" t="n">
-        <v>196.99305622989</v>
+        <v>196.84028103001</v>
       </c>
       <c r="G275" t="n">
-        <v>0.467291957219306</v>
+        <v>0.467654456052927</v>
       </c>
       <c r="H275" t="s">
         <v>25</v>
@@ -30549,10 +30549,10 @@
         <v>74</v>
       </c>
       <c r="F276" t="n">
-        <v>209.760677943712</v>
+        <v>209.597403124517</v>
       </c>
       <c r="G276" t="n">
-        <v>0.353091397235812</v>
+        <v>0.353366321642047</v>
       </c>
       <c r="H276" t="s">
         <v>25</v>
@@ -30575,10 +30575,10 @@
         <v>79</v>
       </c>
       <c r="F277" t="n">
-        <v>192.61402203265</v>
+        <v>192.445091333447</v>
       </c>
       <c r="G277" t="n">
-        <v>0.410452748407683</v>
+        <v>0.41081286181955</v>
       </c>
       <c r="H277" t="s">
         <v>25</v>
@@ -30601,10 +30601,10 @@
         <v>149</v>
       </c>
       <c r="F278" t="n">
-        <v>245.95844501625</v>
+        <v>245.790031746996</v>
       </c>
       <c r="G278" t="n">
-        <v>0.60595359769161</v>
+        <v>0.606368623163275</v>
       </c>
       <c r="H278" t="s">
         <v>25</v>
@@ -30627,10 +30627,10 @@
         <v>117</v>
       </c>
       <c r="F279" t="n">
-        <v>221.228557228092</v>
+        <v>221.054212178759</v>
       </c>
       <c r="G279" t="n">
-        <v>0.529077681915767</v>
+        <v>0.529494775823433</v>
       </c>
       <c r="H279" t="s">
         <v>25</v>
@@ -30653,10 +30653,10 @@
         <v>138</v>
       </c>
       <c r="F280" t="n">
-        <v>182.131901250481</v>
+        <v>181.967648563646</v>
       </c>
       <c r="G280" t="n">
-        <v>0.757825600525229</v>
+        <v>0.758509274379539</v>
       </c>
       <c r="H280" t="s">
         <v>25</v>
@@ -30679,10 +30679,10 @@
         <v>189</v>
       </c>
       <c r="F281" t="n">
-        <v>197.378386954624</v>
+        <v>197.252236599127</v>
       </c>
       <c r="G281" t="n">
-        <v>0.957573144667476</v>
+        <v>0.95818523903588</v>
       </c>
       <c r="H281" t="s">
         <v>25</v>
@@ -30705,10 +30705,10 @@
         <v>212</v>
       </c>
       <c r="F282" t="n">
-        <v>219.371402312582</v>
+        <v>219.292279022977</v>
       </c>
       <c r="G282" t="n">
-        <v>0.966412925625347</v>
+        <v>0.966761460086691</v>
       </c>
       <c r="H282" t="s">
         <v>25</v>
@@ -30731,10 +30731,10 @@
         <v>264</v>
       </c>
       <c r="F283" t="n">
-        <v>237.174838257185</v>
+        <v>237.12362307858</v>
       </c>
       <c r="G283" t="n">
-        <v>1.11305523139263</v>
+        <v>1.11329553344069</v>
       </c>
       <c r="H283" t="s">
         <v>25</v>
@@ -30757,10 +30757,10 @@
         <v>289</v>
       </c>
       <c r="F284" t="n">
-        <v>241.924922817947</v>
+        <v>241.864892033402</v>
       </c>
       <c r="G284" t="n">
-        <v>1.19450508085675</v>
+        <v>1.19480143408611</v>
       </c>
       <c r="H284" t="s">
         <v>25</v>
@@ -30783,10 +30783,10 @@
         <v>234</v>
       </c>
       <c r="F285" t="n">
-        <v>215.595537770263</v>
+        <v>215.501262808985</v>
       </c>
       <c r="G285" t="n">
-        <v>1.08532611485612</v>
+        <v>1.08580069035776</v>
       </c>
       <c r="H285" t="s">
         <v>25</v>
@@ -30809,10 +30809,10 @@
         <v>193</v>
       </c>
       <c r="F286" t="n">
-        <v>205.998205137904</v>
+        <v>205.868193659065</v>
       </c>
       <c r="G286" t="n">
-        <v>0.936931982841837</v>
+        <v>0.937523394119941</v>
       </c>
       <c r="H286" t="s">
         <v>25</v>
@@ -30835,10 +30835,10 @@
         <v>193</v>
       </c>
       <c r="F287" t="n">
-        <v>192.833854852692</v>
+        <v>192.685831612078</v>
       </c>
       <c r="G287" t="n">
-        <v>1.00086115081998</v>
+        <v>1.0016296238437</v>
       </c>
       <c r="H287" t="s">
         <v>25</v>
@@ -30861,10 +30861,10 @@
         <v>183</v>
       </c>
       <c r="F288" t="n">
-        <v>205.008907561576</v>
+        <v>204.849063984109</v>
       </c>
       <c r="G288" t="n">
-        <v>0.89269648099038</v>
+        <v>0.893392711538302</v>
       </c>
       <c r="H288" t="s">
         <v>25</v>
@@ -30887,10 +30887,10 @@
         <v>245</v>
       </c>
       <c r="F289" t="n">
-        <v>188.850666234453</v>
+        <v>188.68348462555</v>
       </c>
       <c r="G289" t="n">
-        <v>1.297163989334</v>
+        <v>1.29831272309733</v>
       </c>
       <c r="H289" t="s">
         <v>25</v>
